--- a/S6/Excel/BP NN.xlsx
+++ b/S6/Excel/BP NN.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ERA\Assignment\S6\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B254A492-258B-47CF-AEF0-407A1F323C37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A06406BB-5D14-4124-A122-146A47B9E0B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{20ABD9D6-099D-4511-830E-A4E388347D91}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{20ABD9D6-099D-4511-830E-A4E388347D91}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -366,205 +366,205 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="67"/>
                 <c:pt idx="0">
-                  <c:v>1.3377915411524407E-2</c:v>
+                  <c:v>1.3536951250086682E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.2614906140887516E-2</c:v>
+                  <c:v>1.2918491793600956E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.1890859119519582E-2</c:v>
+                  <c:v>1.2325240375150398E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.1204279244324985E-2</c:v>
+                  <c:v>1.1756435078469929E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.0553674914861293E-2</c:v>
+                  <c:v>1.1211313838609554E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9.937564870222286E-3</c:v>
+                  <c:v>1.0689116817103265E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>9.354484277672135E-3</c:v>
+                  <c:v>1.0189088579766515E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8.8029900957136489E-3</c:v>
+                  <c:v>9.7104800804777396E-3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8.2816657411971546E-3</c:v>
+                  <c:v>9.2525504556825403E-3</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>7.7891250954947328E-3</c:v>
+                  <c:v>8.8145686355256131E-3</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>7.3240158887983627E-3</c:v>
+                  <c:v>8.395814778483628E-3</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>6.885022504389637E-3</c:v>
+                  <c:v>7.9955815371477324E-3</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>6.4708682464123691E-3</c:v>
+                  <c:v>7.6131751634055441E-3</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>6.0803171154111026E-3</c:v>
+                  <c:v>7.2479164617120367E-3</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>5.7121751358152548E-3</c:v>
+                  <c:v>6.8991415994327527E-3</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>5.365291278793774E-3</c:v>
+                  <c:v>6.5662027834065351E-3</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>5.038558022602925E-3</c:v>
+                  <c:v>6.2484688119246543E-3</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4.7309115908204073E-3</c:v>
+                  <c:v>5.9453255112723053E-3</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>4.441331906805829E-3</c:v>
+                  <c:v>5.6561760658426705E-3</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>4.1688423004453889E-3</c:v>
+                  <c:v>5.3804412506258167E-3</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>3.9125090008066202E-3</c:v>
+                  <c:v>5.1175595746072323E-3</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>3.6714404458160501E-3</c:v>
+                  <c:v>4.8669873432951039E-3</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>3.4447864375374802E-3</c:v>
+                  <c:v>4.6281986482430877E-3</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>3.2317371691145502E-3</c:v>
+                  <c:v>4.4006852910537554E-3</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>3.0315221469904576E-3</c:v>
+                  <c:v>4.1839566489475701E-3</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>2.8434090296545773E-3</c:v>
+                  <c:v>3.9775394885690155E-3</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>2.6667024019152528E-3</c:v>
+                  <c:v>3.7809777342826204E-3</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>2.5007425015739129E-3</c:v>
+                  <c:v>3.5938321967921068E-3</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>2.3449039133884336E-3</c:v>
+                  <c:v>3.4156802675004193E-3</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>2.1985942433688224E-3</c:v>
+                  <c:v>3.2461155836212363E-3</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>2.0612527847477628E-3</c:v>
+                  <c:v>3.0847476686561943E-3</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>1.9323491854110763E-3</c:v>
+                  <c:v>2.931201552469718E-3</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>1.8113821251561704E-3</c:v>
+                  <c:v>2.7851173748262128E-3</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>1.6978780098636274E-3</c:v>
+                  <c:v>2.6461499759045798E-3</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>1.5913896885133955E-3</c:v>
+                  <c:v>2.5139684769732475E-3</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>1.4914951979442918E-3</c:v>
+                  <c:v>2.3882558540956706E-3</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>1.3977965393363241E-3</c:v>
+                  <c:v>2.2687085074421407E-3</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>1.3099184895813579E-3</c:v>
+                  <c:v>2.1550358285087985E-3</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>1.2275074499913331E-3</c:v>
+                  <c:v>2.0469597672882894E-3</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>1.1502303341652249E-3</c:v>
+                  <c:v>1.9442144011989977E-3</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>1.0777734962899711E-3</c:v>
+                  <c:v>1.8465455073600613E-3</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>1.0098417006775375E-3</c:v>
+                  <c:v>1.7537101395967577E-3</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>9.461571329340714E-4</c:v>
+                  <c:v>1.6654762113754121E-3</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>8.8645845281027009E-4</c:v>
+                  <c:v>1.5816220856969283E-3</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>8.3049988848876342E-4</c:v>
+                  <c:v>1.5019361728232092E-3</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>7.7805037181804973E-4</c:v>
+                  <c:v>1.4262165365700229E-3</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>7.288927137987667E-4</c:v>
+                  <c:v>1.3542705097725639E-3</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>6.8282281946093067E-4</c:v>
+                  <c:v>1.2859143194150252E-3</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>6.3964894113640995E-4</c:v>
+                  <c:v>1.2209727218121344E-3</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>5.9919096902495065E-4</c:v>
+                  <c:v>1.1592786481380765E-3</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>5.6127975787086733E-4</c:v>
+                  <c:v>1.1006728605157507E-3</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>5.2575648850773746E-4</c:v>
+                  <c:v>1.0450036188058172E-3</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>4.9247206298714511E-4</c:v>
+                  <c:v>9.9212635817010671E-4</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>4.612865319821384E-4</c:v>
+                  <c:v>9.4190337742687882E-4</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>4.3206855314387616E-4</c:v>
+                  <c:v>8.9420353816521713E-4</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>4.0469487908956399E-4</c:v>
+                  <c:v>8.4890197454232401E-4</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>3.7904987370851516E-4</c:v>
+                  <c:v>8.058798136497472E-4</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>3.5502505549003338E-4</c:v>
+                  <c:v>7.6502390630207688E-4</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>3.3251866660028849E-4</c:v>
+                  <c:v>7.2622656807417912E-4</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>3.1143526646378267E-4</c:v>
+                  <c:v>6.8938533038962651E-4</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>2.9168534863794991E-4</c:v>
+                  <c:v>6.5440270144384723E-4</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>2.7318497980539881E-4</c:v>
+                  <c:v>6.2118593672940673E-4</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>2.5585545974691841E-4</c:v>
+                  <c:v>5.8964681891839153E-4</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>2.3962300119852436E-4</c:v>
+                  <c:v>5.597014468466722E-4</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>2.2441842853743307E-4</c:v>
+                  <c:v>5.3127003333757524E-4</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>2.1017689428382458E-4</c:v>
+                  <c:v>5.0427671159702665E-4</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>1.9683761244783252E-4</c:v>
+                  <c:v>4.786493499091309E-4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3857,8 +3857,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A677CD16-2D5C-4E7A-9BDE-9D5527AA442D}">
   <dimension ref="A31:AE100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K19" zoomScale="107" zoomScaleNormal="107" workbookViewId="0">
-      <selection activeCell="N30" sqref="N30"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3876,7 +3876,7 @@
         <v>31</v>
       </c>
       <c r="G31" s="2">
-        <v>1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="32" spans="1:31" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -4103,111 +4103,111 @@
       </c>
       <c r="E34" s="2">
         <f>E33-$G$31*X33</f>
-        <v>0.1496830066040897</v>
+        <v>0.14974640528327177</v>
       </c>
       <c r="F34" s="2">
         <f t="shared" ref="F34:H34" si="0">F33-$G$31*Y33</f>
-        <v>0.19936601320817943</v>
+        <v>0.19949281056654355</v>
       </c>
       <c r="G34" s="2">
         <f t="shared" si="0"/>
-        <v>0.2496481313348646</v>
+        <v>0.24971850506789167</v>
       </c>
       <c r="H34" s="2">
         <f t="shared" si="0"/>
-        <v>0.2992962626697292</v>
+        <v>0.29943701013578333</v>
       </c>
       <c r="I34" s="2">
         <f>E34*C34+F34*D34</f>
-        <v>2.7420751651022431E-2</v>
+        <v>2.7436601320817947E-2</v>
       </c>
       <c r="J34" s="2">
         <f>1/(1+EXP(-I34))</f>
-        <v>0.50685475841175931</v>
+        <v>0.50685872008403798</v>
       </c>
       <c r="K34" s="2">
         <f>G34*C34+H34*D34</f>
-        <v>4.2412032833716154E-2</v>
+        <v>4.2429626266972921E-2</v>
       </c>
       <c r="L34" s="2">
         <f>1/(1+EXP(-K34))</f>
-        <v>0.51060141912054424</v>
+        <v>0.51060581550071082</v>
       </c>
       <c r="M34" s="2">
         <f>M33-$G$31*AB33</f>
-        <v>0.38711918136837176</v>
+        <v>0.38969534509469744</v>
       </c>
       <c r="N34" s="2">
         <f t="shared" ref="N34:P34" si="1">N33-$G$31*AC33</f>
-        <v>0.4370239150893015</v>
+        <v>0.43961913207144121</v>
       </c>
       <c r="O34" s="2">
         <f t="shared" si="1"/>
-        <v>0.48459165171822693</v>
+        <v>0.48767332137458153</v>
       </c>
       <c r="P34" s="2">
         <f t="shared" si="1"/>
-        <v>0.53447769188000527</v>
+        <v>0.53758215350400418</v>
       </c>
       <c r="Q34" s="2">
         <f>M34*J34+N34*L34</f>
-        <v>0.41935823038323766</v>
+        <v>0.42199256927845874</v>
       </c>
       <c r="R34" s="2">
         <f>1/(1+EXP(-Q34))</f>
-        <v>0.60332966983775138</v>
+        <v>0.60395995573901629</v>
       </c>
       <c r="S34" s="2">
         <f>O34*J34+P34*L34</f>
-        <v>0.51852265252220098</v>
+        <v>0.5216740493795925</v>
       </c>
       <c r="T34" s="2">
         <f>1/(1+EXP(-S34))</f>
-        <v>0.626802248222459</v>
+        <v>0.62753913165344644</v>
       </c>
       <c r="U34" s="2">
         <f>1/2*(A34-R34)^2</f>
-        <v>5.3385103343893542E-3</v>
+        <v>5.4038361986291127E-3</v>
       </c>
       <c r="V34" s="2">
         <f>1/2*(B34-T34)^2</f>
-        <v>8.039405077135053E-3</v>
+        <v>8.1331150514575706E-3</v>
       </c>
       <c r="W34" s="6">
         <f>U34+V34</f>
-        <v>1.3377915411524407E-2</v>
+        <v>1.3536951250086682E-2</v>
       </c>
       <c r="X34" s="2">
         <f>((R34-A34)*R34*(1-R34)*M34 + (T34-B34)*T34*(1-T34)*O34)*J34*(1-J34)*C34</f>
-        <v>2.9928076402450411E-4</v>
+        <v>3.0279263640881592E-4</v>
       </c>
       <c r="Y34" s="2">
         <f>((R34-A34)*R34*(1-R34)*M34 + (T34-B34)*T34*(1-T34)*O34)*J34*(1-J34)*D34</f>
-        <v>5.9856152804900822E-4</v>
+        <v>6.0558527281763183E-4</v>
       </c>
       <c r="Z34" s="2">
         <f>((R34-A34)*R34*(1-R34)*N34 + (T34-B34)*T34*(1-T34)*P34)*J34*(1-J34)*C34</f>
-        <v>3.3319699773066617E-4</v>
+        <v>3.3690144718475805E-4</v>
       </c>
       <c r="AA34" s="2">
         <f>((R34-A34)*R34*(1-R34)*N34 + (T34-B34)*T34*(1-T34)*P34)*J34*(1-J34)*D34</f>
-        <v>6.6639399546133233E-4</v>
+        <v>6.7380289436951609E-4</v>
       </c>
       <c r="AB34" s="2">
         <f>(R34-A34)*R34*(1-R34)*J34</f>
-        <v>1.2534094667394254E-2</v>
+        <v>1.2603763735618089E-2</v>
       </c>
       <c r="AC34" s="2">
         <f>(R34-A34)*R34*(1-R34)*L34</f>
-        <v>1.2626746456158496E-2</v>
+        <v>1.2696940598233241E-2</v>
       </c>
       <c r="AD34" s="2">
         <f>(T34-B34)*T34*(1-T34)*J34</f>
-        <v>1.503419040193194E-2</v>
+        <v>1.5109560856895113E-2</v>
       </c>
       <c r="AE34" s="2">
         <f>(T34-B34)*T34*(1-T34)*L34</f>
-        <v>1.5145322850690663E-2</v>
+        <v>1.522126252836961E-2</v>
       </c>
     </row>
     <row r="35" spans="1:31" x14ac:dyDescent="0.3">
@@ -4225,111 +4225,111 @@
       </c>
       <c r="E35" s="2">
         <f t="shared" ref="E35:E98" si="2">E34-$G$31*X34</f>
-        <v>0.14938372584006521</v>
+        <v>0.14950417117414472</v>
       </c>
       <c r="F35" s="2">
         <f t="shared" ref="F35:F98" si="3">F34-$G$31*Y34</f>
-        <v>0.19876745168013041</v>
+        <v>0.19900834234828946</v>
       </c>
       <c r="G35" s="2">
         <f t="shared" ref="G35:G98" si="4">G34-$G$31*Z34</f>
-        <v>0.24931493433713395</v>
+        <v>0.24944898391014386</v>
       </c>
       <c r="H35" s="2">
         <f t="shared" ref="H35:H98" si="5">H34-$G$31*AA34</f>
-        <v>0.29862986867426788</v>
+        <v>0.29889796782028771</v>
       </c>
       <c r="I35" s="2">
         <f t="shared" ref="I35:I98" si="6">E35*C35+F35*D35</f>
-        <v>2.7345931460016303E-2</v>
+        <v>2.7376042793536184E-2</v>
       </c>
       <c r="J35" s="2">
         <f t="shared" ref="J35:J98" si="7">1/(1+EXP(-I35))</f>
-        <v>0.50683605687005462</v>
+        <v>0.50684358329473178</v>
       </c>
       <c r="K35" s="2">
         <f t="shared" ref="K35:K98" si="8">G35*C35+H35*D35</f>
-        <v>4.232873358428349E-2</v>
+        <v>4.2362245977535962E-2</v>
       </c>
       <c r="L35" s="2">
         <f t="shared" ref="L35:L98" si="9">1/(1+EXP(-K35))</f>
-        <v>0.510580603651826</v>
+        <v>0.51058897799548431</v>
       </c>
       <c r="M35" s="2">
         <f t="shared" ref="M35:M98" si="10">M34-$G$31*AB34</f>
-        <v>0.37458508670097751</v>
+        <v>0.37961233410620299</v>
       </c>
       <c r="N35" s="2">
         <f t="shared" ref="N35:N98" si="11">N34-$G$31*AC34</f>
-        <v>0.42439716863314297</v>
+        <v>0.42946157959285464</v>
       </c>
       <c r="O35" s="2">
         <f t="shared" ref="O35:O98" si="12">O34-$G$31*AD34</f>
-        <v>0.469557461316295</v>
+        <v>0.47558567268906543</v>
       </c>
       <c r="P35" s="2">
         <f t="shared" ref="P35:P98" si="13">P34-$G$31*AE34</f>
-        <v>0.51933236902931457</v>
+        <v>0.52540514348130851</v>
       </c>
       <c r="Q35" s="2">
         <f t="shared" ref="Q35:Q98" si="14">M35*J35+N35*L35</f>
-        <v>0.4065421908546869</v>
+        <v>0.41168242469390681</v>
       </c>
       <c r="R35" s="2">
         <f t="shared" ref="R35:R98" si="15">1/(1+EXP(-Q35))</f>
-        <v>0.60025847199460491</v>
+        <v>0.60149122403577959</v>
       </c>
       <c r="S35" s="2">
         <f t="shared" ref="S35:S98" si="16">O35*J35+P35*L35</f>
-        <v>0.50314968664238446</v>
+        <v>0.5093136217530535</v>
       </c>
       <c r="T35" s="2">
         <f t="shared" ref="T35:T98" si="17">1/(1+EXP(-S35))</f>
-        <v>0.62319923325687565</v>
+        <v>0.6246455576060419</v>
       </c>
       <c r="U35" s="2">
         <f t="shared" ref="U35:U98" si="18">1/2*(A35-R35)^2</f>
-        <v>5.025880603346489E-3</v>
+        <v>5.1502342781404023E-3</v>
       </c>
       <c r="V35" s="2">
         <f t="shared" ref="V35:V98" si="19">1/2*(B35-T35)^2</f>
-        <v>7.5890255375410274E-3</v>
+        <v>7.7682575154605551E-3</v>
       </c>
       <c r="W35" s="6">
         <f t="shared" ref="W35:W98" si="20">U35+V35</f>
-        <v>1.2614906140887516E-2</v>
+        <v>1.2918491793600956E-2</v>
       </c>
       <c r="X35" s="2">
         <f t="shared" ref="X35:X98" si="21">((R35-A35)*R35*(1-R35)*M35 + (T35-B35)*T35*(1-T35)*O35)*J35*(1-J35)*C35</f>
-        <v>2.8239192639058149E-4</v>
+        <v>2.8911947613943605E-4</v>
       </c>
       <c r="Y35" s="2">
         <f t="shared" ref="Y35:Y98" si="22">((R35-A35)*R35*(1-R35)*M35 + (T35-B35)*T35*(1-T35)*O35)*J35*(1-J35)*D35</f>
-        <v>5.6478385278116298E-4</v>
+        <v>5.7823895227887209E-4</v>
       </c>
       <c r="Z35" s="2">
         <f t="shared" ref="Z35:Z98" si="23">((R35-A35)*R35*(1-R35)*N35 + (T35-B35)*T35*(1-T35)*P35)*J35*(1-J35)*C35</f>
-        <v>3.1536455905510727E-4</v>
+        <v>3.2247157849180747E-4</v>
       </c>
       <c r="AA35" s="2">
         <f t="shared" ref="AA35:AA98" si="24">((R35-A35)*R35*(1-R35)*N35 + (T35-B35)*T35*(1-T35)*P35)*J35*(1-J35)*D35</f>
-        <v>6.3072911811021455E-4</v>
+        <v>6.4494315698361494E-4</v>
       </c>
       <c r="AB35" s="2">
         <f t="shared" ref="AB35:AB98" si="25">(R35-A35)*R35*(1-R35)*J35</f>
-        <v>1.2192875841795495E-2</v>
+        <v>1.2330186003866733E-2</v>
       </c>
       <c r="AC35" s="2">
         <f t="shared" ref="AC35:AC98" si="26">(R35-A35)*R35*(1-R35)*L35</f>
-        <v>1.2282957818748526E-2</v>
+        <v>1.2421301714591477E-2</v>
       </c>
       <c r="AD35" s="2">
         <f t="shared" ref="AD35:AD98" si="27">(T35-B35)*T35*(1-T35)*J35</f>
-        <v>1.4662708362391938E-2</v>
+        <v>1.4812418481963269E-2</v>
       </c>
       <c r="AE35" s="2">
         <f t="shared" ref="AE35:AE98" si="28">(T35-B35)*T35*(1-T35)*L35</f>
-        <v>1.4771037666643715E-2</v>
+        <v>1.4921877012200621E-2</v>
       </c>
     </row>
     <row r="36" spans="1:31" x14ac:dyDescent="0.3">
@@ -4347,111 +4347,111 @@
       </c>
       <c r="E36" s="2">
         <f t="shared" si="2"/>
-        <v>0.14910133391367464</v>
+        <v>0.14927287559323316</v>
       </c>
       <c r="F36" s="2">
         <f t="shared" si="3"/>
-        <v>0.19820266782734924</v>
+        <v>0.19854575118646636</v>
       </c>
       <c r="G36" s="2">
         <f t="shared" si="4"/>
-        <v>0.24899956977807883</v>
+        <v>0.24919100664735042</v>
       </c>
       <c r="H36" s="2">
         <f t="shared" si="5"/>
-        <v>0.29799913955615764</v>
+        <v>0.29838201329470082</v>
       </c>
       <c r="I36" s="2">
         <f t="shared" si="6"/>
-        <v>2.7275333478418658E-2</v>
+        <v>2.7318218898308294E-2</v>
       </c>
       <c r="J36" s="2">
         <f t="shared" si="7"/>
-        <v>0.50681841066530808</v>
+        <v>0.50682913002337027</v>
       </c>
       <c r="K36" s="2">
         <f t="shared" si="8"/>
-        <v>4.224989244451971E-2</v>
+        <v>4.2297751661837607E-2</v>
       </c>
       <c r="L36" s="2">
         <f t="shared" si="9"/>
-        <v>0.51056090217666106</v>
+        <v>0.51057286163707793</v>
       </c>
       <c r="M36" s="2">
         <f t="shared" si="10"/>
-        <v>0.362392210859182</v>
+        <v>0.3697481853031096</v>
       </c>
       <c r="N36" s="2">
         <f t="shared" si="11"/>
-        <v>0.41211421081439442</v>
+        <v>0.41952453822118146</v>
       </c>
       <c r="O36" s="2">
         <f t="shared" si="12"/>
-        <v>0.45489475295390308</v>
+        <v>0.46373573790349482</v>
       </c>
       <c r="P36" s="2">
         <f t="shared" si="13"/>
-        <v>0.5045613313626709</v>
+        <v>0.51346764187154803</v>
       </c>
       <c r="Q36" s="2">
         <f t="shared" si="14"/>
-        <v>0.39407644761835769</v>
+        <v>0.40159699509145724</v>
       </c>
       <c r="R36" s="2">
         <f t="shared" si="15"/>
-        <v>0.59726363470476029</v>
+        <v>0.59907129480028654</v>
       </c>
       <c r="S36" s="2">
         <f t="shared" si="16"/>
-        <v>0.48815832425606759</v>
+        <v>0.49719742387077248</v>
       </c>
       <c r="T36" s="2">
         <f t="shared" si="17"/>
-        <v>0.61967248473671011</v>
+        <v>0.62180048972354551</v>
       </c>
       <c r="U36" s="2">
         <f t="shared" si="18"/>
-        <v>4.7301073179905253E-3</v>
+        <v>4.9075607267026408E-3</v>
       </c>
       <c r="V36" s="2">
         <f t="shared" si="19"/>
-        <v>7.1607518015290566E-3</v>
+        <v>7.4176796484477581E-3</v>
       </c>
       <c r="W36" s="6">
         <f t="shared" si="20"/>
-        <v>1.1890859119519582E-2</v>
+        <v>1.2325240375150398E-2</v>
       </c>
       <c r="X36" s="2">
         <f t="shared" si="21"/>
-        <v>2.6630550547534815E-4</v>
+        <v>2.7596321940855827E-4</v>
       </c>
       <c r="Y36" s="2">
         <f t="shared" si="22"/>
-        <v>5.326110109506963E-4</v>
+        <v>5.5192643881711654E-4</v>
       </c>
       <c r="Z36" s="2">
         <f t="shared" si="23"/>
-        <v>2.9835069925099062E-4</v>
+        <v>3.0856874662601677E-4</v>
       </c>
       <c r="AA36" s="2">
         <f t="shared" si="24"/>
-        <v>5.9670139850198124E-4</v>
+        <v>6.1713749325203353E-4</v>
       </c>
       <c r="AB36" s="2">
         <f t="shared" si="25"/>
-        <v>1.1857408901511166E-2</v>
+        <v>1.2060215518853931E-2</v>
       </c>
       <c r="AC36" s="2">
         <f t="shared" si="26"/>
-        <v>1.194496738641761E-2</v>
+        <v>1.2149299210835051E-2</v>
       </c>
       <c r="AD36" s="2">
         <f t="shared" si="27"/>
-        <v>1.429442366266623E-2</v>
+        <v>1.4517192122957301E-2</v>
       </c>
       <c r="AE36" s="2">
         <f t="shared" si="28"/>
-        <v>1.4399977758751622E-2</v>
+        <v>1.4624424458025486E-2</v>
       </c>
     </row>
     <row r="37" spans="1:31" x14ac:dyDescent="0.3">
@@ -4469,111 +4469,111 @@
       </c>
       <c r="E37" s="2">
         <f t="shared" si="2"/>
-        <v>0.14883502840819929</v>
+        <v>0.1490521050177063</v>
       </c>
       <c r="F37" s="2">
         <f t="shared" si="3"/>
-        <v>0.19767005681639854</v>
+        <v>0.19810421003541268</v>
       </c>
       <c r="G37" s="2">
         <f t="shared" si="4"/>
-        <v>0.24870121907882783</v>
+        <v>0.2489441516500496</v>
       </c>
       <c r="H37" s="2">
         <f t="shared" si="5"/>
-        <v>0.29740243815765566</v>
+        <v>0.29788830330009919</v>
       </c>
       <c r="I37" s="2">
         <f t="shared" si="6"/>
-        <v>2.720875710204982E-2</v>
+        <v>2.7263026254426587E-2</v>
       </c>
       <c r="J37" s="2">
         <f t="shared" si="7"/>
-        <v>0.50680176965885193</v>
+        <v>0.50681533443122373</v>
       </c>
       <c r="K37" s="2">
         <f t="shared" si="8"/>
-        <v>4.2175304769706962E-2</v>
+        <v>4.2236037912512403E-2</v>
       </c>
       <c r="L37" s="2">
         <f t="shared" si="9"/>
-        <v>0.51054226356224597</v>
+        <v>0.51055744008838544</v>
       </c>
       <c r="M37" s="2">
         <f t="shared" si="10"/>
-        <v>0.35053480195767084</v>
+        <v>0.36010001288802646</v>
       </c>
       <c r="N37" s="2">
         <f t="shared" si="11"/>
-        <v>0.40016924342797683</v>
+        <v>0.40980509885251343</v>
       </c>
       <c r="O37" s="2">
         <f t="shared" si="12"/>
-        <v>0.44060032929123683</v>
+        <v>0.45212198420512895</v>
       </c>
       <c r="P37" s="2">
         <f t="shared" si="13"/>
-        <v>0.49016135360391927</v>
+        <v>0.50176810230512769</v>
       </c>
       <c r="Q37" s="2">
         <f t="shared" si="14"/>
-        <v>0.38195496930687345</v>
+        <v>0.39173325066584008</v>
       </c>
       <c r="R37" s="2">
         <f t="shared" si="15"/>
-        <v>0.59434453109341323</v>
+        <v>0.5966998743852796</v>
       </c>
       <c r="S37" s="2">
         <f t="shared" si="16"/>
-        <v>0.47354511357675111</v>
+        <v>0.48532379245954393</v>
       </c>
       <c r="T37" s="2">
         <f t="shared" si="17"/>
-        <v>0.61622249326792966</v>
+        <v>0.61900422030672275</v>
       </c>
       <c r="U37" s="2">
         <f t="shared" si="18"/>
-        <v>4.4504452736180084E-3</v>
+        <v>4.6754328530644275E-3</v>
       </c>
       <c r="V37" s="2">
         <f t="shared" si="19"/>
-        <v>6.7538339707069774E-3</v>
+        <v>7.0810022254055019E-3</v>
       </c>
       <c r="W37" s="6">
         <f t="shared" si="20"/>
-        <v>1.1204279244324985E-2</v>
+        <v>1.1756435078469929E-2</v>
       </c>
       <c r="X37" s="2">
         <f t="shared" si="21"/>
-        <v>2.509987884343432E-4</v>
+        <v>2.6331259012176301E-4</v>
       </c>
       <c r="Y37" s="2">
         <f t="shared" si="22"/>
-        <v>5.019975768686864E-4</v>
+        <v>5.2662518024352602E-4</v>
       </c>
       <c r="Z37" s="2">
         <f t="shared" si="23"/>
-        <v>2.8213333627781099E-4</v>
+        <v>2.9518201876762152E-4</v>
       </c>
       <c r="AA37" s="2">
         <f t="shared" si="24"/>
-        <v>5.6426667255562199E-4</v>
+        <v>5.9036403753524305E-4</v>
       </c>
       <c r="AB37" s="2">
         <f t="shared" si="25"/>
-        <v>1.152790686803013E-2</v>
+        <v>1.1793968411338654E-2</v>
       </c>
       <c r="AC37" s="2">
         <f t="shared" si="26"/>
-        <v>1.1612989572827682E-2</v>
+        <v>1.1881049983094936E-2</v>
       </c>
       <c r="AD37" s="2">
         <f t="shared" si="27"/>
-        <v>1.3929815829260745E-2</v>
+        <v>1.42241356354169E-2</v>
       </c>
       <c r="AE37" s="2">
         <f t="shared" si="28"/>
-        <v>1.4032626029035353E-2</v>
+        <v>1.4329160512948013E-2</v>
       </c>
     </row>
     <row r="38" spans="1:31" x14ac:dyDescent="0.3">
@@ -4591,111 +4591,111 @@
       </c>
       <c r="E38" s="2">
         <f t="shared" si="2"/>
-        <v>0.14858402961976494</v>
+        <v>0.14884145494560888</v>
       </c>
       <c r="F38" s="2">
         <f t="shared" si="3"/>
-        <v>0.19716805923952985</v>
+        <v>0.19768290989121787</v>
       </c>
       <c r="G38" s="2">
         <f t="shared" si="4"/>
-        <v>0.24841908574255003</v>
+        <v>0.24870800603503551</v>
       </c>
       <c r="H38" s="2">
         <f t="shared" si="5"/>
-        <v>0.29683817148510006</v>
+        <v>0.29741601207007101</v>
       </c>
       <c r="I38" s="2">
         <f t="shared" si="6"/>
-        <v>2.7146007404941233E-2</v>
+        <v>2.7210363736402232E-2</v>
       </c>
       <c r="J38" s="2">
         <f t="shared" si="7"/>
-        <v>0.50678608513094203</v>
+        <v>0.50680217124310611</v>
       </c>
       <c r="K38" s="2">
         <f t="shared" si="8"/>
-        <v>4.2104771435637511E-2</v>
+        <v>4.2177001508758874E-2</v>
       </c>
       <c r="L38" s="2">
         <f t="shared" si="9"/>
-        <v>0.51052463805465687</v>
+        <v>0.51054268755842691</v>
       </c>
       <c r="M38" s="2">
         <f t="shared" si="10"/>
-        <v>0.33900689508964071</v>
+        <v>0.35066483815895555</v>
       </c>
       <c r="N38" s="2">
         <f t="shared" si="11"/>
-        <v>0.38855625385514914</v>
+        <v>0.40030025886603748</v>
       </c>
       <c r="O38" s="2">
         <f t="shared" si="12"/>
-        <v>0.4266705134619761</v>
+        <v>0.44074267569679543</v>
       </c>
       <c r="P38" s="2">
         <f t="shared" si="13"/>
-        <v>0.47612872757488389</v>
+        <v>0.49030477389476929</v>
       </c>
       <c r="Q38" s="2">
         <f t="shared" si="14"/>
-        <v>0.37017151805814841</v>
+        <v>0.38208807134937184</v>
       </c>
       <c r="R38" s="2">
         <f t="shared" si="15"/>
-        <v>0.59150042259231261</v>
+        <v>0.59437662147430537</v>
       </c>
       <c r="S38" s="2">
         <f t="shared" si="16"/>
-        <v>0.45930612547079569</v>
+        <v>0.47369086198959443</v>
       </c>
       <c r="T38" s="2">
         <f t="shared" si="17"/>
-        <v>0.61284955691162812</v>
+        <v>0.61625696106605743</v>
       </c>
       <c r="U38" s="2">
         <f t="shared" si="18"/>
-        <v>4.1861636672858964E-3</v>
+        <v>4.4534733404521581E-3</v>
       </c>
       <c r="V38" s="2">
         <f t="shared" si="19"/>
-        <v>6.3675112475753979E-3</v>
+        <v>6.7578404981573966E-3</v>
       </c>
       <c r="W38" s="6">
         <f t="shared" si="20"/>
-        <v>1.0553674914861293E-2</v>
+        <v>1.1211313838609554E-2</v>
       </c>
       <c r="X38" s="2">
         <f t="shared" si="21"/>
-        <v>2.3644798307662147E-4</v>
+        <v>2.5115581732669285E-4</v>
       </c>
       <c r="Y38" s="2">
         <f t="shared" si="22"/>
-        <v>4.7289596615324294E-4</v>
+        <v>5.0231163465338569E-4</v>
       </c>
       <c r="Z38" s="2">
         <f t="shared" si="23"/>
-        <v>2.6668921641676712E-4</v>
+        <v>2.8229992867874194E-4</v>
       </c>
       <c r="AA38" s="2">
         <f t="shared" si="24"/>
-        <v>5.3337843283353425E-4</v>
+        <v>5.6459985735748388E-4</v>
       </c>
       <c r="AB38" s="2">
         <f t="shared" si="25"/>
-        <v>1.1204550867406921E-2</v>
+        <v>1.1531547445339909E-2</v>
       </c>
       <c r="AC38" s="2">
         <f t="shared" si="26"/>
-        <v>1.1287206661702126E-2</v>
+        <v>1.1616657462241355E-2</v>
       </c>
       <c r="AD38" s="2">
         <f t="shared" si="27"/>
-        <v>1.3569322900528799E-2</v>
+        <v>1.3933485875663244E-2</v>
       </c>
       <c r="AE38" s="2">
         <f t="shared" si="28"/>
-        <v>1.3669423580659933E-2</v>
+        <v>1.4036323697212768E-2</v>
       </c>
     </row>
     <row r="39" spans="1:31" x14ac:dyDescent="0.3">
@@ -4713,111 +4713,111 @@
       </c>
       <c r="E39" s="2">
         <f t="shared" si="2"/>
-        <v>0.14834758163668832</v>
+        <v>0.14864053029174754</v>
       </c>
       <c r="F39" s="2">
         <f t="shared" si="3"/>
-        <v>0.19669516327337661</v>
+        <v>0.19728106058349515</v>
       </c>
       <c r="G39" s="2">
         <f t="shared" si="4"/>
-        <v>0.24815239652613327</v>
+        <v>0.2484821660920925</v>
       </c>
       <c r="H39" s="2">
         <f t="shared" si="5"/>
-        <v>0.29630479305226654</v>
+        <v>0.296964332184185</v>
       </c>
       <c r="I39" s="2">
         <f t="shared" si="6"/>
-        <v>2.7086895409172078E-2</v>
+        <v>2.7160132572936892E-2</v>
       </c>
       <c r="J39" s="2">
         <f t="shared" si="7"/>
-        <v>0.5067713098482407</v>
+        <v>0.506789615772125</v>
       </c>
       <c r="K39" s="2">
         <f t="shared" si="8"/>
-        <v>4.2038099131533321E-2</v>
+        <v>4.2120541523023122E-2</v>
       </c>
       <c r="L39" s="2">
         <f t="shared" si="9"/>
-        <v>0.51050797735210429</v>
+        <v>0.51052857882902791</v>
       </c>
       <c r="M39" s="2">
         <f t="shared" si="10"/>
-        <v>0.32780234422223381</v>
+        <v>0.3414396002026836</v>
       </c>
       <c r="N39" s="2">
         <f t="shared" si="11"/>
-        <v>0.377269047193447</v>
+        <v>0.39100693289624439</v>
       </c>
       <c r="O39" s="2">
         <f t="shared" si="12"/>
-        <v>0.41310119056144728</v>
+        <v>0.42959588699626483</v>
       </c>
       <c r="P39" s="2">
         <f t="shared" si="13"/>
-        <v>0.46245930399422397</v>
+        <v>0.47907571493699908</v>
       </c>
       <c r="Q39" s="2">
         <f t="shared" si="14"/>
-        <v>0.35871968155310752</v>
+        <v>0.37265825755992271</v>
       </c>
       <c r="R39" s="2">
         <f t="shared" si="15"/>
-        <v>0.58873046977261956</v>
+        <v>0.59210115067278768</v>
       </c>
       <c r="S39" s="2">
         <f t="shared" si="16"/>
-        <v>0.44543699533044556</v>
+        <v>0.46229657840640892</v>
       </c>
       <c r="T39" s="2">
         <f t="shared" si="17"/>
-        <v>0.60955379260607467</v>
+        <v>0.61355884676657735</v>
       </c>
       <c r="U39" s="2">
         <f t="shared" si="18"/>
-        <v>3.9365481330348763E-3</v>
+        <v>4.2413109776257693E-3</v>
       </c>
       <c r="V39" s="2">
         <f t="shared" si="19"/>
-        <v>6.0010167371874106E-3</v>
+        <v>6.4478058394774971E-3</v>
       </c>
       <c r="W39" s="6">
         <f t="shared" si="20"/>
-        <v>9.937564870222286E-3</v>
+        <v>1.0689116817103265E-2</v>
       </c>
       <c r="X39" s="2">
         <f t="shared" si="21"/>
-        <v>2.2262845644147926E-4</v>
+        <v>2.394807163783422E-4</v>
       </c>
       <c r="Y39" s="2">
         <f t="shared" si="22"/>
-        <v>4.4525691288295851E-4</v>
+        <v>4.7896143275668441E-4</v>
       </c>
       <c r="Z39" s="2">
         <f t="shared" si="23"/>
-        <v>2.5199415766896178E-4</v>
+        <v>2.6991055938200415E-4</v>
       </c>
       <c r="AA39" s="2">
         <f t="shared" si="24"/>
-        <v>5.0398831533792355E-4</v>
+        <v>5.3982111876400829E-4</v>
       </c>
       <c r="AB39" s="2">
         <f t="shared" si="25"/>
-        <v>1.0887492006865097E-2</v>
+        <v>1.1273042618930666E-2</v>
       </c>
       <c r="AC39" s="2">
         <f t="shared" si="26"/>
-        <v>1.096777069823934E-2</v>
+        <v>1.1356212219449921E-2</v>
       </c>
       <c r="AD39" s="2">
         <f t="shared" si="27"/>
-        <v>1.3213342220829503E-2</v>
+        <v>1.3645462898183162E-2</v>
       </c>
       <c r="AE39" s="2">
         <f t="shared" si="28"/>
-        <v>1.3310770519421995E-2</v>
+        <v>1.3746135603548117E-2</v>
       </c>
     </row>
     <row r="40" spans="1:31" x14ac:dyDescent="0.3">
@@ -4835,111 +4835,111 @@
       </c>
       <c r="E40" s="2">
         <f t="shared" si="2"/>
-        <v>0.14812495318024685</v>
+        <v>0.14844894571864486</v>
       </c>
       <c r="F40" s="2">
         <f t="shared" si="3"/>
-        <v>0.19624990636049364</v>
+        <v>0.19689789143728981</v>
       </c>
       <c r="G40" s="2">
         <f t="shared" si="4"/>
-        <v>0.24790040236846431</v>
+        <v>0.24826623764458691</v>
       </c>
       <c r="H40" s="2">
         <f t="shared" si="5"/>
-        <v>0.2958008047369286</v>
+        <v>0.29653247528917381</v>
       </c>
       <c r="I40" s="2">
         <f t="shared" si="6"/>
-        <v>2.7031238295061707E-2</v>
+        <v>2.7112236429661228E-2</v>
       </c>
       <c r="J40" s="2">
         <f t="shared" si="7"/>
-        <v>0.50675739811638787</v>
+        <v>0.50677764394037383</v>
       </c>
       <c r="K40" s="2">
         <f t="shared" si="8"/>
-        <v>4.197510059211608E-2</v>
+        <v>4.2066559411146731E-2</v>
       </c>
       <c r="L40" s="2">
         <f t="shared" si="9"/>
-        <v>0.51049223466298044</v>
+        <v>0.51051508927736478</v>
       </c>
       <c r="M40" s="2">
         <f t="shared" si="10"/>
-        <v>0.31691485221536869</v>
+        <v>0.33242116610753908</v>
       </c>
       <c r="N40" s="2">
         <f t="shared" si="11"/>
-        <v>0.36630127649520766</v>
+        <v>0.38192196312068444</v>
       </c>
       <c r="O40" s="2">
         <f t="shared" si="12"/>
-        <v>0.3998878483406178</v>
+        <v>0.4186795166777183</v>
       </c>
       <c r="P40" s="2">
         <f t="shared" si="13"/>
-        <v>0.44914853347480199</v>
+        <v>0.46807880645416056</v>
       </c>
       <c r="Q40" s="2">
         <f t="shared" si="14"/>
-        <v>0.34759290313104063</v>
+        <v>0.36344054045543295</v>
       </c>
       <c r="R40" s="2">
         <f t="shared" si="15"/>
-        <v>0.58603374275090914</v>
+        <v>0.58987303599687846</v>
       </c>
       <c r="S40" s="2">
         <f t="shared" si="16"/>
-        <v>0.43193296411260429</v>
+        <v>0.45113871269381667</v>
       </c>
       <c r="T40" s="2">
         <f t="shared" si="17"/>
-        <v>0.60633514782805664</v>
+        <v>0.61090993896056756</v>
       </c>
       <c r="U40" s="2">
         <f t="shared" si="18"/>
-        <v>3.7009024458648054E-3</v>
+        <v>4.0385812996481052E-3</v>
       </c>
       <c r="V40" s="2">
         <f t="shared" si="19"/>
-        <v>5.65358183180733E-3</v>
+        <v>6.1505072801184106E-3</v>
       </c>
       <c r="W40" s="6">
         <f t="shared" si="20"/>
-        <v>9.354484277672135E-3</v>
+        <v>1.0189088579766515E-2</v>
       </c>
       <c r="X40" s="2">
         <f t="shared" si="21"/>
-        <v>2.095149552420508E-4</v>
+        <v>2.2827476552006611E-4</v>
       </c>
       <c r="Y40" s="2">
         <f t="shared" si="22"/>
-        <v>4.1902991048410159E-4</v>
+        <v>4.5654953104013222E-4</v>
       </c>
       <c r="Z40" s="2">
         <f t="shared" si="23"/>
-        <v>2.3802327521741789E-4</v>
+        <v>2.5800162132141343E-4</v>
       </c>
       <c r="AA40" s="2">
         <f t="shared" si="24"/>
-        <v>4.7604655043483577E-4</v>
+        <v>5.1600324264282685E-4</v>
       </c>
       <c r="AB40" s="2">
         <f t="shared" si="25"/>
-        <v>1.0576853272934108E-2</v>
+        <v>1.1018531775188E-2</v>
       </c>
       <c r="AC40" s="2">
         <f t="shared" si="26"/>
-        <v>1.0654805402095978E-2</v>
+        <v>1.1099792581966028E-2</v>
       </c>
       <c r="AD40" s="2">
         <f t="shared" si="27"/>
-        <v>1.2862231500248485E-2</v>
+        <v>1.3360270230002795E-2</v>
       </c>
       <c r="AE40" s="2">
         <f t="shared" si="28"/>
-        <v>1.2957027022635372E-2</v>
+        <v>1.3458801174035397E-2</v>
       </c>
     </row>
     <row r="41" spans="1:31" x14ac:dyDescent="0.3">
@@ -4957,111 +4957,111 @@
       </c>
       <c r="E41" s="2">
         <f t="shared" si="2"/>
-        <v>0.1479154382250048</v>
+        <v>0.14826632590622882</v>
       </c>
       <c r="F41" s="2">
         <f t="shared" si="3"/>
-        <v>0.19583087645000954</v>
+        <v>0.19653265181245771</v>
       </c>
       <c r="G41" s="2">
         <f t="shared" si="4"/>
-        <v>0.2476623790932469</v>
+        <v>0.24805983634752979</v>
       </c>
       <c r="H41" s="2">
         <f t="shared" si="5"/>
-        <v>0.29532475818649379</v>
+        <v>0.29611967269505957</v>
       </c>
       <c r="I41" s="2">
         <f t="shared" si="6"/>
-        <v>2.6978859556251195E-2</v>
+        <v>2.7066581476557213E-2</v>
       </c>
       <c r="J41" s="2">
         <f t="shared" si="7"/>
-        <v>0.50674430581879482</v>
+        <v>0.50676623229579554</v>
       </c>
       <c r="K41" s="2">
         <f t="shared" si="8"/>
-        <v>4.1915594773311728E-2</v>
+        <v>4.201495908688245E-2</v>
       </c>
       <c r="L41" s="2">
         <f t="shared" si="9"/>
-        <v>0.5104773647498162</v>
+        <v>0.51050219489460369</v>
       </c>
       <c r="M41" s="2">
         <f t="shared" si="10"/>
-        <v>0.30633799894243458</v>
+        <v>0.32360634068738869</v>
       </c>
       <c r="N41" s="2">
         <f t="shared" si="11"/>
-        <v>0.3556464710931117</v>
+        <v>0.37304212905511164</v>
       </c>
       <c r="O41" s="2">
         <f t="shared" si="12"/>
-        <v>0.38702561684036929</v>
+        <v>0.40799130049371607</v>
       </c>
       <c r="P41" s="2">
         <f t="shared" si="13"/>
-        <v>0.43619150645216664</v>
+        <v>0.45731176551493224</v>
       </c>
       <c r="Q41" s="2">
         <f t="shared" si="14"/>
-        <v>0.33678450996618603</v>
+        <v>0.35443159168796812</v>
       </c>
       <c r="R41" s="2">
         <f t="shared" si="15"/>
-        <v>0.58340923112899268</v>
+        <v>0.58769181425013706</v>
       </c>
       <c r="S41" s="2">
         <f t="shared" si="16"/>
-        <v>0.41878891827981823</v>
+        <v>0.44021487420716143</v>
       </c>
       <c r="T41" s="2">
         <f t="shared" si="17"/>
-        <v>0.60319341235707624</v>
+        <v>0.60831022977759275</v>
       </c>
       <c r="U41" s="2">
         <f t="shared" si="18"/>
-        <v>3.4785499187648607E-3</v>
+        <v>3.8449271432402705E-3</v>
       </c>
       <c r="V41" s="2">
         <f t="shared" si="19"/>
-        <v>5.3244401769487878E-3</v>
+        <v>5.8655529372374695E-3</v>
       </c>
       <c r="W41" s="6">
         <f t="shared" si="20"/>
-        <v>8.8029900957136489E-3</v>
+        <v>9.7104800804777396E-3</v>
       </c>
       <c r="X41" s="2">
         <f t="shared" si="21"/>
-        <v>1.9708180780888523E-4</v>
+        <v>2.175251777418744E-4</v>
       </c>
       <c r="Y41" s="2">
         <f t="shared" si="22"/>
-        <v>3.9416361561777047E-4</v>
+        <v>4.3505035548374881E-4</v>
       </c>
       <c r="Z41" s="2">
         <f t="shared" si="23"/>
-        <v>2.2475118850927728E-4</v>
+        <v>2.4656052584976824E-4</v>
       </c>
       <c r="AA41" s="2">
         <f t="shared" si="24"/>
-        <v>4.4950237701855457E-4</v>
+        <v>4.9312105169953648E-4</v>
       </c>
       <c r="AB41" s="2">
         <f t="shared" si="25"/>
-        <v>1.0272731429071555E-2</v>
+        <v>1.0768081218191269E-2</v>
       </c>
       <c r="AC41" s="2">
         <f t="shared" si="26"/>
-        <v>1.0348408079735277E-2</v>
+        <v>1.0847465253922777E-2</v>
       </c>
       <c r="AD41" s="2">
         <f t="shared" si="27"/>
-        <v>1.2516310097507498E-2</v>
+        <v>1.3078095213014233E-2</v>
       </c>
       <c r="AE41" s="2">
         <f t="shared" si="28"/>
-        <v>1.260851463272657E-2</v>
+        <v>1.3174509045400275E-2</v>
       </c>
     </row>
     <row r="42" spans="1:31" x14ac:dyDescent="0.3">
@@ -5079,111 +5079,111 @@
       </c>
       <c r="E42" s="2">
         <f t="shared" si="2"/>
-        <v>0.14771835641719591</v>
+        <v>0.14809230576403531</v>
       </c>
       <c r="F42" s="2">
         <f t="shared" si="3"/>
-        <v>0.19543671283439176</v>
+        <v>0.19618461152807071</v>
       </c>
       <c r="G42" s="2">
         <f t="shared" si="4"/>
-        <v>0.24743762790473761</v>
+        <v>0.24786258792684998</v>
       </c>
       <c r="H42" s="2">
         <f t="shared" si="5"/>
-        <v>0.29487525580947521</v>
+        <v>0.29572517585369995</v>
       </c>
       <c r="I42" s="2">
         <f t="shared" si="6"/>
-        <v>2.6929589104298973E-2</v>
+        <v>2.7023076441008841E-2</v>
       </c>
       <c r="J42" s="2">
         <f t="shared" si="7"/>
-        <v>0.50673199044281603</v>
+        <v>0.50675535802545224</v>
       </c>
       <c r="K42" s="2">
         <f t="shared" si="8"/>
-        <v>4.1859406976184406E-2</v>
+        <v>4.1965646981712498E-2</v>
       </c>
       <c r="L42" s="2">
         <f t="shared" si="9"/>
-        <v>0.51046332396029725</v>
+        <v>0.51048987230086484</v>
       </c>
       <c r="M42" s="2">
         <f t="shared" si="10"/>
-        <v>0.29606526751336304</v>
+        <v>0.31499187571283566</v>
       </c>
       <c r="N42" s="2">
         <f t="shared" si="11"/>
-        <v>0.3452980630133764</v>
+        <v>0.36436415685197343</v>
       </c>
       <c r="O42" s="2">
         <f t="shared" si="12"/>
-        <v>0.37450930674286181</v>
+        <v>0.39752882432330466</v>
       </c>
       <c r="P42" s="2">
         <f t="shared" si="13"/>
-        <v>0.42358299181944009</v>
+        <v>0.44677215827861205</v>
       </c>
       <c r="Q42" s="2">
         <f t="shared" si="14"/>
-        <v>0.32628773931089156</v>
+        <v>0.345628032654343</v>
       </c>
       <c r="R42" s="2">
         <f t="shared" si="15"/>
-        <v>0.58085585343871249</v>
+        <v>0.58555698827998892</v>
       </c>
       <c r="S42" s="2">
         <f t="shared" si="16"/>
-        <v>0.4059994284223683</v>
+        <v>0.42952252372262378</v>
       </c>
       <c r="T42" s="2">
         <f t="shared" si="17"/>
-        <v>0.60012823002076765</v>
+        <v>0.60575964574365271</v>
       </c>
       <c r="U42" s="2">
         <f t="shared" si="18"/>
-        <v>3.2688345176512769E-3</v>
+        <v>3.6599991217710808E-3</v>
       </c>
       <c r="V42" s="2">
         <f t="shared" si="19"/>
-        <v>5.0128312235458777E-3</v>
+        <v>5.5925513339114595E-3</v>
       </c>
       <c r="W42" s="6">
         <f t="shared" si="20"/>
-        <v>8.2816657411971546E-3</v>
+        <v>9.2525504556825403E-3</v>
       </c>
       <c r="X42" s="2">
         <f t="shared" si="21"/>
-        <v>1.8530310749581287E-4</v>
+        <v>2.072189678395044E-4</v>
       </c>
       <c r="Y42" s="2">
         <f t="shared" si="22"/>
-        <v>3.7060621499162573E-4</v>
+        <v>4.144379356790088E-4</v>
       </c>
       <c r="Z42" s="2">
         <f t="shared" si="23"/>
-        <v>2.1215220985210605E-4</v>
+        <v>2.3557445395019054E-4</v>
       </c>
       <c r="AA42" s="2">
         <f t="shared" si="24"/>
-        <v>4.2430441970421211E-4</v>
+        <v>4.7114890790038108E-4</v>
       </c>
       <c r="AB42" s="2">
         <f t="shared" si="25"/>
-        <v>9.9751988938607036E-3</v>
+        <v>1.0521746329500493E-2</v>
       </c>
       <c r="AC42" s="2">
         <f t="shared" si="26"/>
-        <v>1.0048651517097848E-2</v>
+        <v>1.0599285937612177E-2</v>
       </c>
       <c r="AD42" s="2">
         <f t="shared" si="27"/>
-        <v>1.2175860485715092E-2</v>
+        <v>1.2799109405460996E-2</v>
       </c>
       <c r="AE42" s="2">
         <f t="shared" si="28"/>
-        <v>1.2265517734894925E-2</v>
+        <v>1.2893431953866811E-2</v>
       </c>
     </row>
     <row r="43" spans="1:31" x14ac:dyDescent="0.3">
@@ -5201,111 +5201,111 @@
       </c>
       <c r="E43" s="2">
         <f t="shared" si="2"/>
-        <v>0.1475330533097001</v>
+        <v>0.14792653058976371</v>
       </c>
       <c r="F43" s="2">
         <f t="shared" si="3"/>
-        <v>0.19506610661940013</v>
+        <v>0.1958530611795275</v>
       </c>
       <c r="G43" s="2">
         <f t="shared" si="4"/>
-        <v>0.24722547569488551</v>
+        <v>0.24767412836368982</v>
       </c>
       <c r="H43" s="2">
         <f t="shared" si="5"/>
-        <v>0.29445095138977101</v>
+        <v>0.29534825672737963</v>
       </c>
       <c r="I43" s="2">
         <f t="shared" si="6"/>
-        <v>2.6883263327425019E-2</v>
+        <v>2.698163264744094E-2</v>
       </c>
       <c r="J43" s="2">
         <f t="shared" si="7"/>
-        <v>0.50672041109445842</v>
+        <v>0.50674499896544345</v>
       </c>
       <c r="K43" s="2">
         <f t="shared" si="8"/>
-        <v>4.1806368923721374E-2</v>
+        <v>4.1918532090922458E-2</v>
       </c>
       <c r="L43" s="2">
         <f t="shared" si="9"/>
-        <v>0.51045007024649636</v>
+        <v>0.51047809875675165</v>
       </c>
       <c r="M43" s="2">
         <f t="shared" si="10"/>
-        <v>0.28609006861950231</v>
+        <v>0.30657447864923526</v>
       </c>
       <c r="N43" s="2">
         <f t="shared" si="11"/>
-        <v>0.33524941149627857</v>
+        <v>0.35588472810188371</v>
       </c>
       <c r="O43" s="2">
         <f t="shared" si="12"/>
-        <v>0.3623334462571467</v>
+        <v>0.38728953679893585</v>
       </c>
       <c r="P43" s="2">
         <f t="shared" si="13"/>
-        <v>0.41131747408454516</v>
+        <v>0.43645741271551858</v>
       </c>
       <c r="Q43" s="2">
         <f t="shared" si="14"/>
-        <v>0.31609576282928797</v>
+        <v>0.33702644324395115</v>
       </c>
       <c r="R43" s="2">
         <f t="shared" si="15"/>
-        <v>0.5783724660721985</v>
+        <v>0.58346803010764758</v>
       </c>
       <c r="S43" s="2">
         <f t="shared" si="16"/>
-        <v>0.39355878638076081</v>
+        <v>0.41905898615581261</v>
       </c>
       <c r="T43" s="2">
         <f t="shared" si="17"/>
-        <v>0.59713911031480349</v>
+        <v>0.60325805160373724</v>
       </c>
       <c r="U43" s="2">
         <f t="shared" si="18"/>
-        <v>3.0711217191189523E-3</v>
+        <v>3.4834560250255817E-3</v>
       </c>
       <c r="V43" s="2">
         <f t="shared" si="19"/>
-        <v>4.7180033763757805E-3</v>
+        <v>5.3311126105000314E-3</v>
       </c>
       <c r="W43" s="6">
         <f t="shared" si="20"/>
-        <v>7.7891250954947328E-3</v>
+        <v>8.8145686355256131E-3</v>
       </c>
       <c r="X43" s="2">
         <f t="shared" si="21"/>
-        <v>1.7415287779079899E-4</v>
+        <v>1.9734301465314122E-4</v>
       </c>
       <c r="Y43" s="2">
         <f t="shared" si="22"/>
-        <v>3.4830575558159797E-4</v>
+        <v>3.9468602930628244E-4</v>
       </c>
       <c r="Z43" s="2">
         <f t="shared" si="23"/>
-        <v>2.0020051470698996E-4</v>
+        <v>2.2503042015610062E-4</v>
       </c>
       <c r="AA43" s="2">
         <f t="shared" si="24"/>
-        <v>4.0040102941397992E-4</v>
+        <v>4.5006084031220124E-4</v>
       </c>
       <c r="AB43" s="2">
         <f t="shared" si="25"/>
-        <v>9.6843055838347382E-3</v>
+        <v>1.0279572181068031E-2</v>
       </c>
       <c r="AC43" s="2">
         <f t="shared" si="26"/>
-        <v>9.7555858365363582E-3</v>
+        <v>1.0355299951134293E-2</v>
       </c>
       <c r="AD43" s="2">
         <f t="shared" si="27"/>
-        <v>1.1841129863140091E-2</v>
+        <v>1.252346903411501E-2</v>
       </c>
       <c r="AE43" s="2">
         <f t="shared" si="28"/>
-        <v>1.192828518074244E-2</v>
+        <v>1.2615727191044344E-2</v>
       </c>
     </row>
     <row r="44" spans="1:31" x14ac:dyDescent="0.3">
@@ -5323,111 +5323,111 @@
       </c>
       <c r="E44" s="2">
         <f t="shared" si="2"/>
-        <v>0.1473589004319093</v>
+        <v>0.14776865617804119</v>
       </c>
       <c r="F44" s="2">
         <f t="shared" si="3"/>
-        <v>0.19471780086381854</v>
+        <v>0.19553731235608246</v>
       </c>
       <c r="G44" s="2">
         <f t="shared" si="4"/>
-        <v>0.24702527518017853</v>
+        <v>0.24749410402756494</v>
       </c>
       <c r="H44" s="2">
         <f t="shared" si="5"/>
-        <v>0.29405055036035704</v>
+        <v>0.29498820805512987</v>
       </c>
       <c r="I44" s="2">
         <f t="shared" si="6"/>
-        <v>2.683972510797732E-2</v>
+        <v>2.6942164044510306E-2</v>
       </c>
       <c r="J44" s="2">
         <f t="shared" si="7"/>
-        <v>0.50670952850277096</v>
+        <v>0.50673513360771016</v>
       </c>
       <c r="K44" s="2">
         <f t="shared" si="8"/>
-        <v>4.1756318795044628E-2</v>
+        <v>4.1873526006891232E-2</v>
       </c>
       <c r="L44" s="2">
         <f t="shared" si="9"/>
-        <v>0.5104375631734609</v>
+        <v>0.51046685217168508</v>
       </c>
       <c r="M44" s="2">
         <f t="shared" si="10"/>
-        <v>0.27640576303566755</v>
+        <v>0.29835082090438081</v>
       </c>
       <c r="N44" s="2">
         <f t="shared" si="11"/>
-        <v>0.32549382565974222</v>
+        <v>0.34760048814097627</v>
       </c>
       <c r="O44" s="2">
         <f t="shared" si="12"/>
-        <v>0.35049231639400663</v>
+        <v>0.37727076157164385</v>
       </c>
       <c r="P44" s="2">
         <f t="shared" si="13"/>
-        <v>0.39938918890380271</v>
+        <v>0.42636483096268313</v>
       </c>
       <c r="Q44" s="2">
         <f t="shared" si="14"/>
-        <v>0.30620170906101785</v>
+        <v>0.32862337008761672</v>
       </c>
       <c r="R44" s="2">
         <f t="shared" si="15"/>
-        <v>0.57595787168630808</v>
+        <v>0.58142438392678164</v>
       </c>
       <c r="S44" s="2">
         <f t="shared" si="16"/>
-        <v>0.38146104072573322</v>
+        <v>0.40882146290952293</v>
       </c>
       <c r="T44" s="2">
         <f t="shared" si="17"/>
-        <v>0.59422543980519849</v>
+        <v>0.60080525412453123</v>
       </c>
       <c r="U44" s="2">
         <f t="shared" si="18"/>
-        <v>2.8847991355568209E-3</v>
+        <v>3.3149651489279681E-3</v>
       </c>
       <c r="V44" s="2">
         <f t="shared" si="19"/>
-        <v>4.4392167532415414E-3</v>
+        <v>5.0808496295556603E-3</v>
       </c>
       <c r="W44" s="6">
         <f t="shared" si="20"/>
-        <v>7.3240158887983627E-3</v>
+        <v>8.395814778483628E-3</v>
       </c>
       <c r="X44" s="2">
         <f t="shared" si="21"/>
-        <v>1.6360521960757653E-4</v>
+        <v>1.878841185135777E-4</v>
       </c>
       <c r="Y44" s="2">
         <f t="shared" si="22"/>
-        <v>3.2721043921515305E-4</v>
+        <v>3.757682370271554E-4</v>
       </c>
       <c r="Z44" s="2">
         <f t="shared" si="23"/>
-        <v>1.8887029410239443E-4</v>
+        <v>2.1491533168428395E-4</v>
       </c>
       <c r="AA44" s="2">
         <f t="shared" si="24"/>
-        <v>3.7774058820478886E-4</v>
+        <v>4.2983066336856789E-4</v>
       </c>
       <c r="AB44" s="2">
         <f t="shared" si="25"/>
-        <v>9.400080707734737E-3</v>
+        <v>1.0041594141036548E-2</v>
       </c>
       <c r="AC44" s="2">
         <f t="shared" si="26"/>
-        <v>9.4692403047315944E-3</v>
+        <v>1.0115542838852746E-2</v>
       </c>
       <c r="AD44" s="2">
         <f t="shared" si="27"/>
-        <v>1.1512331874076317E-2</v>
+        <v>1.2251315489077189E-2</v>
       </c>
       <c r="AE44" s="2">
         <f t="shared" si="28"/>
-        <v>1.1597032022687812E-2</v>
+        <v>1.2341537102720217E-2</v>
       </c>
     </row>
     <row r="45" spans="1:31" x14ac:dyDescent="0.3">
@@ -5445,111 +5445,111 @@
       </c>
       <c r="E45" s="2">
         <f t="shared" si="2"/>
-        <v>0.14719529521230174</v>
+        <v>0.14761834888323033</v>
       </c>
       <c r="F45" s="2">
         <f t="shared" si="3"/>
-        <v>0.19439059042460338</v>
+        <v>0.19523669776646074</v>
       </c>
       <c r="G45" s="2">
         <f t="shared" si="4"/>
-        <v>0.24683640488607614</v>
+        <v>0.24732217176221752</v>
       </c>
       <c r="H45" s="2">
         <f t="shared" si="5"/>
-        <v>0.29367280977215227</v>
+        <v>0.29464434352443503</v>
       </c>
       <c r="I45" s="2">
         <f t="shared" si="6"/>
-        <v>2.6798823803075425E-2</v>
+        <v>2.6904587220807592E-2</v>
       </c>
       <c r="J45" s="2">
         <f t="shared" si="7"/>
-        <v>0.50669930501502691</v>
+        <v>0.50672574110396928</v>
       </c>
       <c r="K45" s="2">
         <f t="shared" si="8"/>
-        <v>4.1709101221519038E-2</v>
+        <v>4.1830542940554383E-2</v>
       </c>
       <c r="L45" s="2">
         <f t="shared" si="9"/>
-        <v>0.51042576391827765</v>
+        <v>0.51045611110927969</v>
       </c>
       <c r="M45" s="2">
         <f t="shared" si="10"/>
-        <v>0.26700568232793281</v>
+        <v>0.2903175455915516</v>
       </c>
       <c r="N45" s="2">
         <f t="shared" si="11"/>
-        <v>0.3160245853550106</v>
+        <v>0.33950805386989408</v>
       </c>
       <c r="O45" s="2">
         <f t="shared" si="12"/>
-        <v>0.33897998451993033</v>
+        <v>0.36746970918038208</v>
       </c>
       <c r="P45" s="2">
         <f t="shared" si="13"/>
-        <v>0.3877921568811149</v>
+        <v>0.41649160128050694</v>
       </c>
       <c r="Q45" s="2">
         <f t="shared" si="14"/>
-        <v>0.29659868406741485</v>
+        <v>0.32041533431407032</v>
       </c>
       <c r="R45" s="2">
         <f t="shared" si="15"/>
-        <v>0.57361082707713162</v>
+        <v>0.57942546896765124</v>
       </c>
       <c r="S45" s="2">
         <f t="shared" si="16"/>
-        <v>0.36970003048781291</v>
+        <v>0.39880704381701343</v>
       </c>
       <c r="T45" s="2">
         <f t="shared" si="17"/>
-        <v>0.59138649323505033</v>
+        <v>0.59840100585646538</v>
       </c>
       <c r="U45" s="2">
         <f t="shared" si="18"/>
-        <v>2.7092769314896871E-3</v>
+        <v>3.1542025603656649E-3</v>
       </c>
       <c r="V45" s="2">
         <f t="shared" si="19"/>
-        <v>4.1757455728999495E-3</v>
+        <v>4.841378976782067E-3</v>
       </c>
       <c r="W45" s="6">
         <f t="shared" si="20"/>
-        <v>6.885022504389637E-3</v>
+        <v>7.9955815371477324E-3</v>
       </c>
       <c r="X45" s="2">
         <f t="shared" si="21"/>
-        <v>1.5363444142224561E-4</v>
+        <v>1.7882905396612826E-4</v>
       </c>
       <c r="Y45" s="2">
         <f t="shared" si="22"/>
-        <v>3.0726888284449122E-4</v>
+        <v>3.5765810793225651E-4</v>
       </c>
       <c r="Z45" s="2">
         <f t="shared" si="23"/>
-        <v>1.7813588978903569E-4</v>
+        <v>2.0521604283959538E-4</v>
       </c>
       <c r="AA45" s="2">
         <f t="shared" si="24"/>
-        <v>3.5627177957807139E-4</v>
+        <v>4.1043208567919076E-4</v>
       </c>
       <c r="AB45" s="2">
         <f t="shared" si="25"/>
-        <v>9.1225345015371901E-3</v>
+        <v>9.8078384693497528E-3</v>
       </c>
       <c r="AC45" s="2">
         <f t="shared" si="26"/>
-        <v>9.1896250808551488E-3</v>
+        <v>9.8800409715618619E-3</v>
       </c>
       <c r="AD45" s="2">
         <f t="shared" si="27"/>
-        <v>1.1189648407985951E-2</v>
+        <v>1.1982775853585804E-2</v>
       </c>
       <c r="AE45" s="2">
         <f t="shared" si="28"/>
-        <v>1.1271941327122573E-2</v>
+        <v>1.2070989622886706E-2</v>
       </c>
     </row>
     <row r="46" spans="1:31" x14ac:dyDescent="0.3">
@@ -5567,111 +5567,111 @@
       </c>
       <c r="E46" s="2">
         <f t="shared" si="2"/>
-        <v>0.14704166077087949</v>
+        <v>0.14747528564005744</v>
       </c>
       <c r="F46" s="2">
         <f t="shared" si="3"/>
-        <v>0.19408332154175889</v>
+        <v>0.19495057128011495</v>
       </c>
       <c r="G46" s="2">
         <f t="shared" si="4"/>
-        <v>0.24665826899628709</v>
+        <v>0.24715799892794585</v>
       </c>
       <c r="H46" s="2">
         <f t="shared" si="5"/>
-        <v>0.29331653799257418</v>
+        <v>0.29431599785589169</v>
       </c>
       <c r="I46" s="2">
         <f t="shared" si="6"/>
-        <v>2.6760415192719867E-2</v>
+        <v>2.6868821410014371E-2</v>
       </c>
       <c r="J46" s="2">
         <f t="shared" si="7"/>
-        <v>0.50668970458377383</v>
+        <v>0.50671680126700913</v>
       </c>
       <c r="K46" s="2">
         <f t="shared" si="8"/>
-        <v>4.1664567249071777E-2</v>
+        <v>4.1789499731986465E-2</v>
       </c>
       <c r="L46" s="2">
         <f t="shared" si="9"/>
-        <v>0.51041463526068998</v>
+        <v>0.51044585479000226</v>
       </c>
       <c r="M46" s="2">
         <f t="shared" si="10"/>
-        <v>0.2578831478263956</v>
+        <v>0.28247127481607182</v>
       </c>
       <c r="N46" s="2">
         <f t="shared" si="11"/>
-        <v>0.30683496027415547</v>
+        <v>0.33160402109264459</v>
       </c>
       <c r="O46" s="2">
         <f t="shared" si="12"/>
-        <v>0.32779033611194436</v>
+        <v>0.35788348849751345</v>
       </c>
       <c r="P46" s="2">
         <f t="shared" si="13"/>
-        <v>0.37652021555399234</v>
+        <v>0.40683480958219759</v>
       </c>
       <c r="Q46" s="2">
         <f t="shared" si="14"/>
-        <v>0.28727979032285145</v>
+        <v>0.31239883882305108</v>
       </c>
       <c r="R46" s="2">
         <f t="shared" si="15"/>
-        <v>0.57133005052656649</v>
+        <v>0.57747068222474041</v>
       </c>
       <c r="S46" s="2">
         <f t="shared" si="16"/>
-        <v>0.3582694170602444</v>
+        <v>0.38901271865325115</v>
       </c>
       <c r="T46" s="2">
         <f t="shared" si="17"/>
-        <v>0.58862144427113683</v>
+        <v>0.59604500883671352</v>
       </c>
       <c r="U46" s="2">
         <f t="shared" si="18"/>
-        <v>2.5439880540612642E-3</v>
+        <v>3.0008533021833547E-3</v>
       </c>
       <c r="V46" s="2">
         <f t="shared" si="19"/>
-        <v>3.9268801923511053E-3</v>
+        <v>4.612321861222189E-3</v>
       </c>
       <c r="W46" s="6">
         <f t="shared" si="20"/>
-        <v>6.4708682464123691E-3</v>
+        <v>7.6131751634055441E-3</v>
       </c>
       <c r="X46" s="2">
         <f t="shared" si="21"/>
-        <v>1.4421517306600535E-4</v>
+        <v>1.7016461787900118E-4</v>
       </c>
       <c r="Y46" s="2">
         <f t="shared" si="22"/>
-        <v>2.884303461320107E-4</v>
+        <v>3.4032923575800237E-4</v>
       </c>
       <c r="Z46" s="2">
         <f t="shared" si="23"/>
-        <v>1.6797191291041327E-4</v>
+        <v>1.9591940478758094E-4</v>
       </c>
       <c r="AA46" s="2">
         <f t="shared" si="24"/>
-        <v>3.3594382582082655E-4</v>
+        <v>3.9183880957516188E-4</v>
       </c>
       <c r="AB46" s="2">
         <f t="shared" si="25"/>
-        <v>8.8516598958755435E-3</v>
+        <v>9.5783229005472863E-3</v>
       </c>
       <c r="AC46" s="2">
         <f t="shared" si="26"/>
-        <v>8.9167328965493193E-3</v>
+        <v>9.6488121337192298E-3</v>
       </c>
       <c r="AD46" s="2">
         <f t="shared" si="27"/>
-        <v>1.0873231448344262E-2</v>
+        <v>1.1717963461709769E-2</v>
       </c>
       <c r="AE46" s="2">
         <f t="shared" si="28"/>
-        <v>1.0953166037527237E-2</v>
+        <v>1.1804198835827883E-2</v>
       </c>
     </row>
     <row r="47" spans="1:31" x14ac:dyDescent="0.3">
@@ -5689,111 +5689,111 @@
       </c>
       <c r="E47" s="2">
         <f t="shared" si="2"/>
-        <v>0.14689744559781348</v>
+        <v>0.14733915394575423</v>
       </c>
       <c r="F47" s="2">
         <f t="shared" si="3"/>
-        <v>0.19379489119562687</v>
+        <v>0.19467830789150856</v>
       </c>
       <c r="G47" s="2">
         <f t="shared" si="4"/>
-        <v>0.24649029708337669</v>
+        <v>0.2470012634041158</v>
       </c>
       <c r="H47" s="2">
         <f t="shared" si="5"/>
-        <v>0.29298059416675337</v>
+        <v>0.29400252680823158</v>
       </c>
       <c r="I47" s="2">
         <f t="shared" si="6"/>
-        <v>2.6724361399453365E-2</v>
+        <v>2.6834788486438568E-2</v>
       </c>
       <c r="J47" s="2">
         <f t="shared" si="7"/>
-        <v>0.5066806927467693</v>
+        <v>0.50670829456958111</v>
       </c>
       <c r="K47" s="2">
         <f t="shared" si="8"/>
-        <v>4.1622574270844176E-2</v>
+        <v>4.1750315851028952E-2</v>
       </c>
       <c r="L47" s="2">
         <f t="shared" si="9"/>
-        <v>0.51040414156629799</v>
+        <v>0.51043606309134004</v>
       </c>
       <c r="M47" s="2">
         <f t="shared" si="10"/>
-        <v>0.24903148793052005</v>
+        <v>0.27480861649563398</v>
       </c>
       <c r="N47" s="2">
         <f t="shared" si="11"/>
-        <v>0.29791822737760615</v>
+        <v>0.32388497138566918</v>
       </c>
       <c r="O47" s="2">
         <f t="shared" si="12"/>
-        <v>0.31691710466360012</v>
+        <v>0.34850911772814563</v>
       </c>
       <c r="P47" s="2">
         <f t="shared" si="13"/>
-        <v>0.36556704951646513</v>
+        <v>0.3973914505135353</v>
       </c>
       <c r="Q47" s="2">
         <f t="shared" si="14"/>
-        <v>0.27823814392201485</v>
+        <v>0.30457037508608109</v>
       </c>
       <c r="R47" s="2">
         <f t="shared" si="15"/>
-        <v>0.56911422862814132</v>
+        <v>0.57555940104706893</v>
       </c>
       <c r="S47" s="2">
         <f t="shared" si="16"/>
-        <v>0.34716271422762901</v>
+        <v>0.37943538819226408</v>
       </c>
       <c r="T47" s="2">
         <f t="shared" si="17"/>
-        <v>0.58592937583829652</v>
+        <v>0.59373691821706254</v>
       </c>
       <c r="U47" s="2">
         <f t="shared" si="18"/>
-        <v>2.3883882994314943E-3</v>
+        <v>2.8546115432959008E-3</v>
       </c>
       <c r="V47" s="2">
         <f t="shared" si="19"/>
-        <v>3.6919288159796087E-3</v>
+        <v>4.3933049184161355E-3</v>
       </c>
       <c r="W47" s="6">
         <f t="shared" si="20"/>
-        <v>6.0803171154111026E-3</v>
+        <v>7.2479164617120367E-3</v>
       </c>
       <c r="X47" s="2">
         <f t="shared" si="21"/>
-        <v>1.353224640946519E-4</v>
+        <v>1.6187767307337863E-4</v>
       </c>
       <c r="Y47" s="2">
         <f t="shared" si="22"/>
-        <v>2.706449281893038E-4</v>
+        <v>3.2375534614675726E-4</v>
       </c>
       <c r="Z47" s="2">
         <f t="shared" si="23"/>
-        <v>1.5835334708002932E-4</v>
+        <v>1.8701231082314008E-4</v>
       </c>
       <c r="AA47" s="2">
         <f t="shared" si="24"/>
-        <v>3.1670669416005863E-4</v>
+        <v>3.7402462164628017E-4</v>
       </c>
       <c r="AB47" s="2">
         <f t="shared" si="25"/>
-        <v>8.587434109529838E-3</v>
+        <v>9.3530572115294794E-3</v>
       </c>
       <c r="AC47" s="2">
         <f t="shared" si="26"/>
-        <v>8.6505406613594932E-3</v>
+        <v>9.4218660955146267E-3</v>
       </c>
       <c r="AD47" s="2">
         <f t="shared" si="27"/>
-        <v>1.0563204945869433E-2</v>
+        <v>1.1456978477324279E-2</v>
       </c>
       <c r="AE47" s="2">
         <f t="shared" si="28"/>
-        <v>1.0640830862051313E-2</v>
+        <v>1.1541265559615911E-2</v>
       </c>
     </row>
     <row r="48" spans="1:31" x14ac:dyDescent="0.3">
@@ -5811,111 +5811,111 @@
       </c>
       <c r="E48" s="2">
         <f t="shared" si="2"/>
-        <v>0.14676212313371884</v>
+        <v>0.14720965180729553</v>
       </c>
       <c r="F48" s="2">
         <f t="shared" si="3"/>
-        <v>0.19352424626743756</v>
+        <v>0.19441930361459114</v>
       </c>
       <c r="G48" s="2">
         <f t="shared" si="4"/>
-        <v>0.24633194373629666</v>
+        <v>0.2468516535554573</v>
       </c>
       <c r="H48" s="2">
         <f t="shared" si="5"/>
-        <v>0.29266388747259331</v>
+        <v>0.29370330711091458</v>
       </c>
       <c r="I48" s="2">
         <f t="shared" si="6"/>
-        <v>2.66905307834297E-2</v>
+        <v>2.6802412951823892E-2</v>
       </c>
       <c r="J48" s="2">
         <f t="shared" si="7"/>
-        <v>0.50667223660076932</v>
+        <v>0.506700202141109</v>
       </c>
       <c r="K48" s="2">
         <f t="shared" si="8"/>
-        <v>4.1582985934074168E-2</v>
+        <v>4.1712913388864327E-2</v>
       </c>
       <c r="L48" s="2">
         <f t="shared" si="9"/>
-        <v>0.51039424876331763</v>
+        <v>0.5104267165457067</v>
       </c>
       <c r="M48" s="2">
         <f t="shared" si="10"/>
-        <v>0.24044405382099021</v>
+        <v>0.26732617072641041</v>
       </c>
       <c r="N48" s="2">
         <f t="shared" si="11"/>
-        <v>0.28926768671624664</v>
+        <v>0.31634747850925748</v>
       </c>
       <c r="O48" s="2">
         <f t="shared" si="12"/>
-        <v>0.30635389971773069</v>
+        <v>0.33934353494628622</v>
       </c>
       <c r="P48" s="2">
         <f t="shared" si="13"/>
-        <v>0.35492621865441382</v>
+        <v>0.3881584380658426</v>
       </c>
       <c r="Q48" s="2">
         <f t="shared" si="14"/>
-        <v>0.26946689017987829</v>
+        <v>0.29692642948767456</v>
       </c>
       <c r="R48" s="2">
         <f t="shared" si="15"/>
-        <v>0.56696202260354789</v>
+        <v>0.57369098559139287</v>
       </c>
       <c r="S48" s="2">
         <f t="shared" si="16"/>
-        <v>0.33637331629787492</v>
+        <v>0.37007187479401982</v>
       </c>
       <c r="T48" s="2">
         <f t="shared" si="17"/>
-        <v>0.58330929000101039</v>
+        <v>0.5914763458028065</v>
       </c>
       <c r="U48" s="2">
         <f t="shared" si="18"/>
-        <v>2.2419562355790292E-3</v>
+        <v>2.7151806787154356E-3</v>
       </c>
       <c r="V48" s="2">
         <f t="shared" si="19"/>
-        <v>3.4702189002362251E-3</v>
+        <v>4.1839609207173171E-3</v>
       </c>
       <c r="W48" s="6">
         <f t="shared" si="20"/>
-        <v>5.7121751358152548E-3</v>
+        <v>6.8991415994327527E-3</v>
       </c>
       <c r="X48" s="2">
         <f t="shared" si="21"/>
-        <v>1.2693186773148096E-4</v>
+        <v>1.539551876375091E-4</v>
       </c>
       <c r="Y48" s="2">
         <f t="shared" si="22"/>
-        <v>2.5386373546296191E-4</v>
+        <v>3.079103752750182E-4</v>
       </c>
       <c r="Z48" s="2">
         <f t="shared" si="23"/>
-        <v>1.492556368386461E-4</v>
+        <v>1.7848173728964912E-4</v>
       </c>
       <c r="AA48" s="2">
         <f t="shared" si="24"/>
-        <v>2.985112736772922E-4</v>
+        <v>3.5696347457929824E-4</v>
       </c>
       <c r="AB48" s="2">
         <f t="shared" si="25"/>
-        <v>8.3298201644683954E-3</v>
+        <v>9.1320437724606296E-3</v>
       </c>
       <c r="AC48" s="2">
         <f t="shared" si="26"/>
-        <v>8.3910109890772064E-3</v>
+        <v>9.1992051679321354E-3</v>
       </c>
       <c r="AD48" s="2">
         <f t="shared" si="27"/>
-        <v>1.0259666694026417E-2</v>
+        <v>1.1199908488301196E-2</v>
       </c>
       <c r="AE48" s="2">
         <f t="shared" si="28"/>
-        <v>1.0335034163290274E-2</v>
+        <v>1.1282277944905848E-2</v>
       </c>
     </row>
     <row r="49" spans="1:31" x14ac:dyDescent="0.3">
@@ -5933,111 +5933,111 @@
       </c>
       <c r="E49" s="2">
         <f t="shared" si="2"/>
-        <v>0.14663519126598734</v>
+        <v>0.14708648765718552</v>
       </c>
       <c r="F49" s="2">
         <f t="shared" si="3"/>
-        <v>0.19327038253197459</v>
+        <v>0.19417297531437114</v>
       </c>
       <c r="G49" s="2">
         <f t="shared" si="4"/>
-        <v>0.24618268809945801</v>
+        <v>0.24670886816562557</v>
       </c>
       <c r="H49" s="2">
         <f t="shared" si="5"/>
-        <v>0.292365376198916</v>
+        <v>0.29341773633125112</v>
       </c>
       <c r="I49" s="2">
         <f t="shared" si="6"/>
-        <v>2.6658797816496826E-2</v>
+        <v>2.6771621914296391E-2</v>
       </c>
       <c r="J49" s="2">
         <f t="shared" si="7"/>
-        <v>0.50666430477006918</v>
+        <v>0.50669250576243297</v>
       </c>
       <c r="K49" s="2">
         <f t="shared" si="8"/>
-        <v>4.1545672024864505E-2</v>
+        <v>4.1677217041406395E-2</v>
       </c>
       <c r="L49" s="2">
         <f t="shared" si="9"/>
-        <v>0.51038492431380977</v>
+        <v>0.51041779633630213</v>
       </c>
       <c r="M49" s="2">
         <f t="shared" si="10"/>
-        <v>0.23211423365652181</v>
+        <v>0.26002053570844191</v>
       </c>
       <c r="N49" s="2">
         <f t="shared" si="11"/>
-        <v>0.28087667572716946</v>
+        <v>0.3089881143749118</v>
       </c>
       <c r="O49" s="2">
         <f t="shared" si="12"/>
-        <v>0.2960942330237043</v>
+        <v>0.33038360815564527</v>
       </c>
       <c r="P49" s="2">
         <f t="shared" si="13"/>
-        <v>0.34459118449112353</v>
+        <v>0.37913261570991791</v>
       </c>
       <c r="Q49" s="2">
         <f t="shared" si="14"/>
-        <v>0.26095921770534491</v>
+        <v>0.28946348922115239</v>
       </c>
       <c r="R49" s="2">
         <f t="shared" si="15"/>
-        <v>0.56487207412481844</v>
+        <v>0.57186478113939632</v>
       </c>
       <c r="S49" s="2">
         <f t="shared" si="16"/>
-        <v>0.3258945243370901</v>
+        <v>0.36091893250909207</v>
       </c>
       <c r="T49" s="2">
         <f t="shared" si="17"/>
-        <v>0.58076011736204702</v>
+        <v>0.58926286349092627</v>
       </c>
       <c r="U49" s="2">
         <f t="shared" si="18"/>
-        <v>2.1041930006279689E-3</v>
+        <v>2.5822733841066661E-3</v>
       </c>
       <c r="V49" s="2">
         <f t="shared" si="19"/>
-        <v>3.2610982781658047E-3</v>
+        <v>3.983929399299869E-3</v>
       </c>
       <c r="W49" s="6">
         <f t="shared" si="20"/>
-        <v>5.365291278793774E-3</v>
+        <v>6.5662027834065351E-3</v>
       </c>
       <c r="X49" s="2">
         <f t="shared" si="21"/>
-        <v>1.1901951142705161E-4</v>
+        <v>1.4638427010710018E-4</v>
       </c>
       <c r="Y49" s="2">
         <f t="shared" si="22"/>
-        <v>2.3803902285410322E-4</v>
+        <v>2.9276854021420036E-4</v>
       </c>
       <c r="Z49" s="2">
         <f t="shared" si="23"/>
-        <v>1.4065476251746227E-4</v>
+        <v>1.7031478032411435E-4</v>
       </c>
       <c r="AA49" s="2">
         <f t="shared" si="24"/>
-        <v>2.8130952503492454E-4</v>
+        <v>3.406295606482287E-4</v>
       </c>
       <c r="AB49" s="2">
         <f t="shared" si="25"/>
-        <v>8.0787683195074206E-3</v>
+        <v>8.9152780793301072E-3</v>
       </c>
       <c r="AC49" s="2">
         <f t="shared" si="26"/>
-        <v>8.1380936420452944E-3</v>
+        <v>8.9808247393154891E-3</v>
       </c>
       <c r="AD49" s="2">
         <f t="shared" si="27"/>
-        <v>9.9626901877845914E-3</v>
+        <v>1.0946829110387314E-2</v>
       </c>
       <c r="AE49" s="2">
         <f t="shared" si="28"/>
-        <v>1.0035849831106466E-2</v>
+        <v>1.1027312083462512E-2</v>
       </c>
     </row>
     <row r="50" spans="1:31" x14ac:dyDescent="0.3">
@@ -6055,111 +6055,111 @@
       </c>
       <c r="E50" s="2">
         <f t="shared" si="2"/>
-        <v>0.14651617175456028</v>
+        <v>0.14696938024109985</v>
       </c>
       <c r="F50" s="2">
         <f t="shared" si="3"/>
-        <v>0.19303234350912049</v>
+        <v>0.19393876048219977</v>
       </c>
       <c r="G50" s="2">
         <f t="shared" si="4"/>
-        <v>0.24604203333694055</v>
+        <v>0.24657261634136626</v>
       </c>
       <c r="H50" s="2">
         <f t="shared" si="5"/>
-        <v>0.29208406667388109</v>
+        <v>0.29314523268273251</v>
       </c>
       <c r="I50" s="2">
         <f t="shared" si="6"/>
-        <v>2.6629042938640067E-2</v>
+        <v>2.674234506027497E-2</v>
       </c>
       <c r="J50" s="2">
         <f t="shared" si="7"/>
-        <v>0.50665686737063276</v>
+        <v>0.50668518785879391</v>
       </c>
       <c r="K50" s="2">
         <f t="shared" si="8"/>
-        <v>4.1510508334235141E-2</v>
+        <v>4.1643154085341569E-2</v>
       </c>
       <c r="L50" s="2">
         <f t="shared" si="9"/>
-        <v>0.51037613718023089</v>
+        <v>0.51040928429113519</v>
       </c>
       <c r="M50" s="2">
         <f t="shared" si="10"/>
-        <v>0.22403546533701441</v>
+        <v>0.25288831324497785</v>
       </c>
       <c r="N50" s="2">
         <f t="shared" si="11"/>
-        <v>0.27273858208512414</v>
+        <v>0.30180345458345942</v>
       </c>
       <c r="O50" s="2">
         <f t="shared" si="12"/>
-        <v>0.28613154283591968</v>
+        <v>0.32162614486733543</v>
       </c>
       <c r="P50" s="2">
         <f t="shared" si="13"/>
-        <v>0.33455533466001708</v>
+        <v>0.37031076604314789</v>
       </c>
       <c r="Q50" s="2">
         <f t="shared" si="14"/>
-        <v>0.25270837103219268</v>
+        <v>0.28217804775436073</v>
       </c>
       <c r="R50" s="2">
         <f t="shared" si="15"/>
-        <v>0.56284301065983167</v>
+        <v>0.57008012028075639</v>
       </c>
       <c r="S50" s="2">
         <f t="shared" si="16"/>
-        <v>0.31571957052599198</v>
+        <v>0.35197325669379065</v>
       </c>
       <c r="T50" s="2">
         <f t="shared" si="17"/>
-        <v>0.57828072595737812</v>
+        <v>0.58709600659780004</v>
       </c>
       <c r="U50" s="2">
         <f t="shared" si="18"/>
-        <v>1.9746219943958584E-3</v>
+        <v>2.4556116292826411E-3</v>
       </c>
       <c r="V50" s="2">
         <f t="shared" si="19"/>
-        <v>3.0639360282070662E-3</v>
+        <v>3.7928571826420137E-3</v>
       </c>
       <c r="W50" s="6">
         <f t="shared" si="20"/>
-        <v>5.038558022602925E-3</v>
+        <v>6.2484688119246543E-3</v>
       </c>
       <c r="X50" s="2">
         <f t="shared" si="21"/>
-        <v>1.1156215510101856E-4</v>
+        <v>1.3915220070963294E-4</v>
       </c>
       <c r="Y50" s="2">
         <f t="shared" si="22"/>
-        <v>2.2312431020203713E-4</v>
+        <v>2.7830440141926588E-4</v>
       </c>
       <c r="Z50" s="2">
         <f t="shared" si="23"/>
-        <v>1.3252730255993163E-4</v>
+        <v>1.6249868862036187E-4</v>
       </c>
       <c r="AA50" s="2">
         <f t="shared" si="24"/>
-        <v>2.6505460511986326E-4</v>
+        <v>3.2499737724072373E-4</v>
       </c>
       <c r="AB50" s="2">
         <f t="shared" si="25"/>
-        <v>7.8342174210181675E-3</v>
+        <v>8.7027492670104095E-3</v>
       </c>
       <c r="AC50" s="2">
         <f t="shared" si="26"/>
-        <v>7.8917268918500417E-3</v>
+        <v>8.7667137922687773E-3</v>
       </c>
       <c r="AD50" s="2">
         <f t="shared" si="27"/>
-        <v>9.6723264495362175E-3</v>
+        <v>1.069780459578089E-2</v>
       </c>
       <c r="AE50" s="2">
         <f t="shared" si="28"/>
-        <v>9.7433291222899284E-3</v>
+        <v>1.0776432621394567E-2</v>
       </c>
     </row>
     <row r="51" spans="1:31" x14ac:dyDescent="0.3">
@@ -6177,111 +6177,111 @@
       </c>
       <c r="E51" s="2">
         <f t="shared" si="2"/>
-        <v>0.14640460959945925</v>
+        <v>0.14685805848053213</v>
       </c>
       <c r="F51" s="2">
         <f t="shared" si="3"/>
-        <v>0.19280921919891844</v>
+        <v>0.19371611696106436</v>
       </c>
       <c r="G51" s="2">
         <f t="shared" si="4"/>
-        <v>0.24590950603438061</v>
+        <v>0.24644261739046996</v>
       </c>
       <c r="H51" s="2">
         <f t="shared" si="5"/>
-        <v>0.29181901206876121</v>
+        <v>0.29288523478093992</v>
       </c>
       <c r="I51" s="2">
         <f t="shared" si="6"/>
-        <v>2.6601152399864811E-2</v>
+        <v>2.6714514620133044E-2</v>
       </c>
       <c r="J51" s="2">
         <f t="shared" si="7"/>
-        <v>0.50664989597058319</v>
+        <v>0.50667823149125535</v>
       </c>
       <c r="K51" s="2">
         <f t="shared" si="8"/>
-        <v>4.1477376508595155E-2</v>
+        <v>4.1610654347617487E-2</v>
       </c>
       <c r="L51" s="2">
         <f t="shared" si="9"/>
-        <v>0.51036785778808758</v>
+        <v>0.51040116287540793</v>
       </c>
       <c r="M51" s="2">
         <f t="shared" si="10"/>
-        <v>0.21620124791599624</v>
+        <v>0.24592611383136953</v>
       </c>
       <c r="N51" s="2">
         <f t="shared" si="11"/>
-        <v>0.26484685519327411</v>
+        <v>0.29479008354964442</v>
       </c>
       <c r="O51" s="2">
         <f t="shared" si="12"/>
-        <v>0.27645921638638349</v>
+        <v>0.31306790119071071</v>
       </c>
       <c r="P51" s="2">
         <f t="shared" si="13"/>
-        <v>0.32481200553772716</v>
+        <v>0.36168961994603221</v>
       </c>
       <c r="Q51" s="2">
         <f t="shared" si="14"/>
-        <v>0.2447076618922529</v>
+        <v>0.27506660988147263</v>
       </c>
       <c r="R51" s="2">
         <f t="shared" si="15"/>
-        <v>0.56087345036093317</v>
+        <v>0.56833632496461917</v>
       </c>
       <c r="S51" s="2">
         <f t="shared" si="16"/>
-        <v>0.30584164067241237</v>
+        <v>0.34323149313240753</v>
       </c>
       <c r="T51" s="2">
         <f t="shared" si="17"/>
-        <v>0.57586992963484163</v>
+        <v>0.58497527706853669</v>
       </c>
       <c r="U51" s="2">
         <f t="shared" si="18"/>
-        <v>1.8527884794224971E-3</v>
+        <v>2.3349266548350163E-3</v>
       </c>
       <c r="V51" s="2">
         <f t="shared" si="19"/>
-        <v>2.8781231113979098E-3</v>
+        <v>3.610398856437289E-3</v>
       </c>
       <c r="W51" s="6">
         <f t="shared" si="20"/>
-        <v>4.7309115908204073E-3</v>
+        <v>5.9453255112723053E-3</v>
       </c>
       <c r="X51" s="2">
         <f t="shared" si="21"/>
-        <v>1.0453723813194818E-4</v>
+        <v>1.3224645888134488E-4</v>
       </c>
       <c r="Y51" s="2">
         <f t="shared" si="22"/>
-        <v>2.0907447626389636E-4</v>
+        <v>2.6449291776268975E-4</v>
       </c>
       <c r="Z51" s="2">
         <f t="shared" si="23"/>
-        <v>1.2485048436013186E-4</v>
+        <v>1.550208924144059E-4</v>
       </c>
       <c r="AA51" s="2">
         <f t="shared" si="24"/>
-        <v>2.4970096872026373E-4</v>
+        <v>3.100417848288118E-4</v>
       </c>
       <c r="AB51" s="2">
         <f t="shared" si="25"/>
-        <v>7.5960961702727561E-3</v>
+        <v>8.4944406019385899E-3</v>
       </c>
       <c r="AC51" s="2">
         <f t="shared" si="26"/>
-        <v>7.6518387959947295E-3</v>
+        <v>8.5568554000140882E-3</v>
       </c>
       <c r="AD51" s="2">
         <f t="shared" si="27"/>
-        <v>9.3886058088145444E-3</v>
+        <v>1.0452888441943198E-2</v>
       </c>
       <c r="AE51" s="2">
         <f t="shared" si="28"/>
-        <v>9.4575024536069068E-3</v>
+        <v>1.0529693372601104E-2</v>
       </c>
     </row>
     <row r="52" spans="1:31" x14ac:dyDescent="0.3">
@@ -6299,111 +6299,111 @@
       </c>
       <c r="E52" s="2">
         <f t="shared" si="2"/>
-        <v>0.1463000723613273</v>
+        <v>0.14675226131342706</v>
       </c>
       <c r="F52" s="2">
         <f t="shared" si="3"/>
-        <v>0.19260014472265455</v>
+        <v>0.19350452262685422</v>
       </c>
       <c r="G52" s="2">
         <f t="shared" si="4"/>
-        <v>0.24578465555002046</v>
+        <v>0.24631860067653844</v>
       </c>
       <c r="H52" s="2">
         <f t="shared" si="5"/>
-        <v>0.29156931110004092</v>
+        <v>0.29263720135307686</v>
       </c>
       <c r="I52" s="2">
         <f t="shared" si="6"/>
-        <v>2.6575018090331821E-2</v>
+        <v>2.6688065328356776E-2</v>
       </c>
       <c r="J52" s="2">
         <f t="shared" si="7"/>
-        <v>0.50664336354775341</v>
+        <v>0.50667162034674995</v>
       </c>
       <c r="K52" s="2">
         <f t="shared" si="8"/>
-        <v>4.1446163887505119E-2</v>
+        <v>4.1579650169134612E-2</v>
       </c>
       <c r="L52" s="2">
         <f t="shared" si="9"/>
-        <v>0.51036005798541362</v>
+        <v>0.51039341518245129</v>
       </c>
       <c r="M52" s="2">
         <f t="shared" si="10"/>
-        <v>0.20860515174572347</v>
+        <v>0.23913056134981867</v>
       </c>
       <c r="N52" s="2">
         <f t="shared" si="11"/>
-        <v>0.25719501639727937</v>
+        <v>0.28794459922963317</v>
       </c>
       <c r="O52" s="2">
         <f t="shared" si="12"/>
-        <v>0.26707061057756892</v>
+        <v>0.30470559043715617</v>
       </c>
       <c r="P52" s="2">
         <f t="shared" si="13"/>
-        <v>0.31535450308412027</v>
+        <v>0.35326586524795134</v>
       </c>
       <c r="Q52" s="2">
         <f t="shared" si="14"/>
-        <v>0.23695047921591778</v>
+        <v>0.26812569637769523</v>
       </c>
       <c r="R52" s="2">
         <f t="shared" si="15"/>
-        <v>0.55896200651798889</v>
+        <v>0.5666327084225885</v>
       </c>
       <c r="S52" s="2">
         <f t="shared" si="16"/>
-        <v>0.29625389492774468</v>
+        <v>0.33469024666679259</v>
       </c>
       <c r="T52" s="2">
         <f t="shared" si="17"/>
-        <v>0.57352649591123117</v>
+        <v>0.58290014656172595</v>
       </c>
       <c r="U52" s="2">
         <f t="shared" si="18"/>
-        <v>1.7382591063136818E-3</v>
+        <v>2.2199589158648485E-3</v>
       </c>
       <c r="V52" s="2">
         <f t="shared" si="19"/>
-        <v>2.7030728004921469E-3</v>
+        <v>3.4362171499778215E-3</v>
       </c>
       <c r="W52" s="6">
         <f t="shared" si="20"/>
-        <v>4.441331906805829E-3</v>
+        <v>5.6561760658426705E-3</v>
       </c>
       <c r="X52" s="2">
         <f t="shared" si="21"/>
-        <v>9.7922916144418631E-5</v>
+        <v>1.2565474727299728E-4</v>
       </c>
       <c r="Y52" s="2">
         <f t="shared" si="22"/>
-        <v>1.9584583228883726E-4</v>
+        <v>2.5130949454599456E-4</v>
       </c>
       <c r="Z52" s="2">
         <f t="shared" si="23"/>
-        <v>1.1760222466286224E-4</v>
+        <v>1.4786902890445046E-4</v>
       </c>
       <c r="AA52" s="2">
         <f t="shared" si="24"/>
-        <v>2.3520444932572447E-4</v>
+        <v>2.9573805780890093E-4</v>
       </c>
       <c r="AB52" s="2">
         <f t="shared" si="25"/>
-        <v>7.364324307994434E-3</v>
+        <v>8.2903299538064409E-3</v>
       </c>
       <c r="AC52" s="2">
         <f t="shared" si="26"/>
-        <v>7.4183483911305177E-3</v>
+        <v>8.3512272015883893E-3</v>
       </c>
       <c r="AD52" s="2">
         <f t="shared" si="27"/>
-        <v>9.1115396249624968E-3</v>
+        <v>1.0212123996691358E-2</v>
       </c>
       <c r="AE52" s="2">
         <f t="shared" si="28"/>
-        <v>9.1783811373144612E-3</v>
+        <v>1.0287137928449401E-2</v>
       </c>
     </row>
     <row r="53" spans="1:31" x14ac:dyDescent="0.3">
@@ -6421,111 +6421,111 @@
       </c>
       <c r="E53" s="2">
         <f t="shared" si="2"/>
-        <v>0.14620214944518289</v>
+        <v>0.14665173751560867</v>
       </c>
       <c r="F53" s="2">
         <f t="shared" si="3"/>
-        <v>0.1924042988903657</v>
+        <v>0.19330347503121742</v>
       </c>
       <c r="G53" s="2">
         <f t="shared" si="4"/>
-        <v>0.2456670533253576</v>
+        <v>0.24620030545341487</v>
       </c>
       <c r="H53" s="2">
         <f t="shared" si="5"/>
-        <v>0.29133410665071519</v>
+        <v>0.29240061090682973</v>
       </c>
       <c r="I53" s="2">
         <f t="shared" si="6"/>
-        <v>2.6550537361295715E-2</v>
+        <v>2.6662934378902176E-2</v>
       </c>
       <c r="J53" s="2">
         <f t="shared" si="7"/>
-        <v>0.50663724444493885</v>
+        <v>0.50666533872692499</v>
       </c>
       <c r="K53" s="2">
         <f t="shared" si="8"/>
-        <v>4.1416763331339403E-2</v>
+        <v>4.1550076363353713E-2</v>
       </c>
       <c r="L53" s="2">
         <f t="shared" si="9"/>
-        <v>0.51035271099972013</v>
+        <v>0.51038602492338858</v>
       </c>
       <c r="M53" s="2">
         <f t="shared" si="10"/>
-        <v>0.20124082743772903</v>
+        <v>0.23249829738677352</v>
       </c>
       <c r="N53" s="2">
         <f t="shared" si="11"/>
-        <v>0.24977666800614887</v>
+        <v>0.28126361746836248</v>
       </c>
       <c r="O53" s="2">
         <f t="shared" si="12"/>
-        <v>0.25795907095260645</v>
+        <v>0.29653589123980306</v>
       </c>
       <c r="P53" s="2">
         <f t="shared" si="13"/>
-        <v>0.30617612194680582</v>
+        <v>0.34503615490519179</v>
       </c>
       <c r="Q53" s="2">
         <f t="shared" si="14"/>
-        <v>0.2294302979442856</v>
+        <v>0.26135184827415303</v>
       </c>
       <c r="R53" s="2">
         <f t="shared" si="15"/>
-        <v>0.55710729159822625</v>
+        <v>0.56496857696679059</v>
       </c>
       <c r="S53" s="2">
         <f t="shared" si="16"/>
-        <v>0.28694948676593823</v>
+        <v>0.3263460893366168</v>
       </c>
       <c r="T53" s="2">
         <f t="shared" si="17"/>
-        <v>0.57124915330869508</v>
+        <v>0.5808700594049605</v>
       </c>
       <c r="U53" s="2">
         <f t="shared" si="18"/>
-        <v>1.6306213768424213E-3</v>
+        <v>2.1104579965448966E-3</v>
       </c>
       <c r="V53" s="2">
         <f t="shared" si="19"/>
-        <v>2.5382209236029674E-3</v>
+        <v>3.2699832540809205E-3</v>
       </c>
       <c r="W53" s="6">
         <f t="shared" si="20"/>
-        <v>4.1688423004453889E-3</v>
+        <v>5.3804412506258167E-3</v>
       </c>
       <c r="X53" s="2">
         <f t="shared" si="21"/>
-        <v>9.1698088612224941E-5</v>
+        <v>1.1936501246459757E-4</v>
       </c>
       <c r="Y53" s="2">
         <f t="shared" si="22"/>
-        <v>1.8339617722444988E-4</v>
+        <v>2.3873002492919514E-4</v>
       </c>
       <c r="Z53" s="2">
         <f t="shared" si="23"/>
-        <v>1.1076116054349264E-4</v>
+        <v>1.4103096432288066E-4</v>
       </c>
       <c r="AA53" s="2">
         <f t="shared" si="24"/>
-        <v>2.2152232108698527E-4</v>
+        <v>2.8206192864576132E-4</v>
       </c>
       <c r="AB53" s="2">
         <f t="shared" si="25"/>
-        <v>7.1388137174830894E-3</v>
+        <v>8.0903902458739647E-3</v>
       </c>
       <c r="AC53" s="2">
         <f t="shared" si="26"/>
-        <v>7.1911668042309489E-3</v>
+        <v>8.1498018554927755E-3</v>
       </c>
       <c r="AD53" s="2">
         <f t="shared" si="27"/>
-        <v>8.8411219441856658E-3</v>
+        <v>9.9755450561066911E-3</v>
       </c>
       <c r="AE53" s="2">
         <f t="shared" si="28"/>
-        <v>8.9059590505187261E-3</v>
+        <v>1.0048800260194101E-2</v>
       </c>
     </row>
     <row r="54" spans="1:31" x14ac:dyDescent="0.3">
@@ -6543,111 +6543,111 @@
       </c>
       <c r="E54" s="2">
         <f t="shared" si="2"/>
-        <v>0.14611045135657066</v>
+        <v>0.14655624550563701</v>
       </c>
       <c r="F54" s="2">
         <f t="shared" si="3"/>
-        <v>0.19222090271314124</v>
+        <v>0.19311249101127406</v>
       </c>
       <c r="G54" s="2">
         <f t="shared" si="4"/>
-        <v>0.24555629216481412</v>
+        <v>0.24608748068195657</v>
       </c>
       <c r="H54" s="2">
         <f t="shared" si="5"/>
-        <v>0.29111258432962822</v>
+        <v>0.29217496136391313</v>
       </c>
       <c r="I54" s="2">
         <f t="shared" si="6"/>
-        <v>2.6527612839142657E-2</v>
+        <v>2.6639061376409257E-2</v>
       </c>
       <c r="J54" s="2">
         <f t="shared" si="7"/>
-        <v>0.50663151432342324</v>
+        <v>0.5066593715359522</v>
       </c>
       <c r="K54" s="2">
         <f t="shared" si="8"/>
-        <v>4.1389073041203525E-2</v>
+        <v>4.1521870170489139E-2</v>
       </c>
       <c r="L54" s="2">
         <f t="shared" si="9"/>
-        <v>0.51034579139301017</v>
+        <v>0.51037897641569641</v>
       </c>
       <c r="M54" s="2">
         <f t="shared" si="10"/>
-        <v>0.19410201372024594</v>
+        <v>0.22602598519007436</v>
       </c>
       <c r="N54" s="2">
         <f t="shared" si="11"/>
-        <v>0.24258550120191791</v>
+        <v>0.27474377598396826</v>
       </c>
       <c r="O54" s="2">
         <f t="shared" si="12"/>
-        <v>0.2491179490084208</v>
+        <v>0.28855545519491771</v>
       </c>
       <c r="P54" s="2">
         <f t="shared" si="13"/>
-        <v>0.2972701628962871</v>
+        <v>0.33699711469703653</v>
       </c>
       <c r="Q54" s="2">
         <f t="shared" si="14"/>
-        <v>0.22214068673567688</v>
+        <v>0.25474163077047862</v>
       </c>
       <c r="R54" s="2">
         <f t="shared" si="15"/>
-        <v>0.55530792089583136</v>
+        <v>0.56334323166695077</v>
       </c>
       <c r="S54" s="2">
         <f t="shared" si="16"/>
-        <v>0.27792158029211622</v>
+        <v>0.31819556803644417</v>
       </c>
       <c r="T54" s="2">
         <f t="shared" si="17"/>
-        <v>0.5690365981765737</v>
+        <v>0.57888443541790402</v>
       </c>
       <c r="U54" s="2">
         <f t="shared" si="18"/>
-        <v>1.5294830569097697E-3</v>
+        <v>2.0061824990064976E-3</v>
       </c>
       <c r="V54" s="2">
         <f t="shared" si="19"/>
-        <v>2.38302594389685E-3</v>
+        <v>3.1113770756007351E-3</v>
       </c>
       <c r="W54" s="6">
         <f t="shared" si="20"/>
-        <v>3.9125090008066202E-3</v>
+        <v>5.1175595746072323E-3</v>
       </c>
       <c r="X54" s="2">
         <f t="shared" si="21"/>
-        <v>8.5842418255241242E-5</v>
+        <v>1.133654626104014E-4</v>
       </c>
       <c r="Y54" s="2">
         <f t="shared" si="22"/>
-        <v>1.7168483651048248E-4</v>
+        <v>2.267309252208028E-4</v>
       </c>
       <c r="Z54" s="2">
         <f t="shared" si="23"/>
-        <v>1.0430667194711652E-4</v>
+        <v>1.3449481287953344E-4</v>
       </c>
       <c r="AA54" s="2">
         <f t="shared" si="24"/>
-        <v>2.0861334389423304E-4</v>
+        <v>2.6898962575906687E-4</v>
       </c>
       <c r="AB54" s="2">
         <f t="shared" si="25"/>
-        <v>6.919469448339554E-3</v>
+        <v>7.8945898837227326E-3</v>
       </c>
       <c r="AC54" s="2">
         <f t="shared" si="26"/>
-        <v>6.9701982837535861E-3</v>
+        <v>7.9525474716107322E-3</v>
       </c>
       <c r="AD54" s="2">
         <f t="shared" si="27"/>
-        <v>8.5773310844696592E-3</v>
+        <v>9.7431764522559715E-3</v>
       </c>
       <c r="AE54" s="2">
         <f t="shared" si="28"/>
-        <v>8.6402142318156069E-3</v>
+        <v>9.8147053111146479E-3</v>
       </c>
     </row>
     <row r="55" spans="1:31" x14ac:dyDescent="0.3">
@@ -6665,111 +6665,111 @@
       </c>
       <c r="E55" s="2">
         <f t="shared" si="2"/>
-        <v>0.14602460893831543</v>
+        <v>0.14646555313554868</v>
       </c>
       <c r="F55" s="2">
         <f t="shared" si="3"/>
-        <v>0.19204921787663076</v>
+        <v>0.19293110627109741</v>
       </c>
       <c r="G55" s="2">
         <f t="shared" si="4"/>
-        <v>0.24545198549286701</v>
+        <v>0.24597988483165295</v>
       </c>
       <c r="H55" s="2">
         <f t="shared" si="5"/>
-        <v>0.29090397098573401</v>
+        <v>0.29195976966330589</v>
       </c>
       <c r="I55" s="2">
         <f t="shared" si="6"/>
-        <v>2.6506152234578848E-2</v>
+        <v>2.6616388283887175E-2</v>
       </c>
       <c r="J55" s="2">
         <f t="shared" si="7"/>
-        <v>0.50662615011529177</v>
+        <v>0.50665370426745504</v>
       </c>
       <c r="K55" s="2">
         <f t="shared" si="8"/>
-        <v>4.1362996373216755E-2</v>
+        <v>4.1494971207913241E-2</v>
       </c>
       <c r="L55" s="2">
         <f t="shared" si="9"/>
-        <v>0.51033927501538234</v>
+        <v>0.51037225457081714</v>
       </c>
       <c r="M55" s="2">
         <f t="shared" si="10"/>
-        <v>0.18718254427190639</v>
+        <v>0.21971031328309618</v>
       </c>
       <c r="N55" s="2">
         <f t="shared" si="11"/>
-        <v>0.23561530291816432</v>
+        <v>0.26838173800667969</v>
       </c>
       <c r="O55" s="2">
         <f t="shared" si="12"/>
-        <v>0.24054061792395115</v>
+        <v>0.28076091403311293</v>
       </c>
       <c r="P55" s="2">
         <f t="shared" si="13"/>
-        <v>0.2886299486644715</v>
+        <v>0.3291453504481448</v>
       </c>
       <c r="Q55" s="2">
         <f t="shared" si="14"/>
-        <v>0.21507531464704677</v>
+        <v>0.24829163680274718</v>
       </c>
       <c r="R55" s="2">
         <f t="shared" si="15"/>
-        <v>0.55356251581451843</v>
+        <v>0.56175596991071697</v>
       </c>
       <c r="S55" s="2">
         <f t="shared" si="16"/>
-        <v>0.26916336595431811</v>
+        <v>0.31023521169811452</v>
       </c>
       <c r="T55" s="2">
         <f t="shared" si="17"/>
-        <v>0.56688750100916885</v>
+        <v>0.576942672600949</v>
       </c>
       <c r="U55" s="2">
         <f t="shared" si="18"/>
-        <v>1.4344715501902684E-3</v>
+        <v>1.9068999098066897E-3</v>
       </c>
       <c r="V55" s="2">
         <f t="shared" si="19"/>
-        <v>2.2369688956257816E-3</v>
+        <v>2.9600874334884141E-3</v>
       </c>
       <c r="W55" s="6">
         <f t="shared" si="20"/>
-        <v>3.6714404458160501E-3</v>
+        <v>4.8669873432951039E-3</v>
       </c>
       <c r="X55" s="2">
         <f t="shared" si="21"/>
-        <v>8.033634315818199E-5</v>
+        <v>1.0764458223418633E-4</v>
       </c>
       <c r="Y55" s="2">
         <f t="shared" si="22"/>
-        <v>1.6067268631636398E-4</v>
+        <v>2.1528916446837267E-4</v>
       </c>
       <c r="Z55" s="2">
         <f t="shared" si="23"/>
-        <v>9.8218896719565302E-5</v>
+        <v>1.2824895279489221E-4</v>
       </c>
       <c r="AA55" s="2">
         <f t="shared" si="24"/>
-        <v>1.964377934391306E-4</v>
+        <v>2.5649790558978443E-4</v>
       </c>
       <c r="AB55" s="2">
         <f t="shared" si="25"/>
-        <v>6.7061906633290079E-3</v>
+        <v>7.7028931624426207E-3</v>
       </c>
       <c r="AC55" s="2">
         <f t="shared" si="26"/>
-        <v>6.755341153352263E-3</v>
+        <v>7.7594280213900768E-3</v>
       </c>
       <c r="AD55" s="2">
         <f t="shared" si="27"/>
-        <v>8.3201311436554865E-3</v>
+        <v>9.5150346281572314E-3</v>
       </c>
       <c r="AE55" s="2">
         <f t="shared" si="28"/>
-        <v>8.3811104004792719E-3</v>
+        <v>9.5848695757852018E-3</v>
       </c>
     </row>
     <row r="56" spans="1:31" x14ac:dyDescent="0.3">
@@ -6787,111 +6787,111 @@
       </c>
       <c r="E56" s="2">
         <f t="shared" si="2"/>
-        <v>0.14594427259515724</v>
+        <v>0.14637943746976134</v>
       </c>
       <c r="F56" s="2">
         <f t="shared" si="3"/>
-        <v>0.1918885451903144</v>
+        <v>0.19275887493952271</v>
       </c>
       <c r="G56" s="2">
         <f t="shared" si="4"/>
-        <v>0.24535376659614744</v>
+        <v>0.24587728566941705</v>
       </c>
       <c r="H56" s="2">
         <f t="shared" si="5"/>
-        <v>0.29070753319229486</v>
+        <v>0.29175457133883409</v>
       </c>
       <c r="I56" s="2">
         <f t="shared" si="6"/>
-        <v>2.6486068148789302E-2</v>
+        <v>2.6594859367440341E-2</v>
       </c>
       <c r="J56" s="2">
         <f t="shared" si="7"/>
-        <v>0.50662112997498554</v>
+        <v>0.50664832299069618</v>
       </c>
       <c r="K56" s="2">
         <f t="shared" si="8"/>
-        <v>4.1338441649036863E-2</v>
+        <v>4.1469321417354266E-2</v>
       </c>
       <c r="L56" s="2">
         <f t="shared" si="9"/>
-        <v>0.51033313895769483</v>
+        <v>0.51036584488097103</v>
       </c>
       <c r="M56" s="2">
         <f t="shared" si="10"/>
-        <v>0.18047635360857739</v>
+        <v>0.21354799875314207</v>
       </c>
       <c r="N56" s="2">
         <f t="shared" si="11"/>
-        <v>0.22885996176481205</v>
+        <v>0.26217419558956762</v>
       </c>
       <c r="O56" s="2">
         <f t="shared" si="12"/>
-        <v>0.23222048678029567</v>
+        <v>0.27314888633058715</v>
       </c>
       <c r="P56" s="2">
         <f t="shared" si="13"/>
-        <v>0.28024883826399222</v>
+        <v>0.32147745478751666</v>
       </c>
       <c r="Q56" s="2">
         <f t="shared" si="14"/>
-        <v>0.2082279568681171</v>
+        <v>0.24199849028435733</v>
       </c>
       <c r="R56" s="2">
         <f t="shared" si="15"/>
-        <v>0.55186970680624159</v>
+        <v>0.56020608685169282</v>
       </c>
       <c r="S56" s="2">
         <f t="shared" si="16"/>
-        <v>0.26066807473648507</v>
+        <v>0.3024615380089834</v>
       </c>
       <c r="T56" s="2">
         <f t="shared" si="17"/>
-        <v>0.56480051227351136</v>
+        <v>0.57504414968865059</v>
       </c>
       <c r="U56" s="2">
         <f t="shared" si="18"/>
-        <v>1.3452332420827325E-3</v>
+        <v>1.8123864469967894E-3</v>
       </c>
       <c r="V56" s="2">
         <f t="shared" si="19"/>
-        <v>2.099553195454748E-3</v>
+        <v>2.8158122012462978E-3</v>
       </c>
       <c r="W56" s="6">
         <f t="shared" si="20"/>
-        <v>3.4447864375374802E-3</v>
+        <v>4.6281986482430877E-3</v>
       </c>
       <c r="X56" s="2">
         <f t="shared" si="21"/>
-        <v>7.5161082484544755E-5</v>
+        <v>1.0219114439135582E-4</v>
       </c>
       <c r="Y56" s="2">
         <f t="shared" si="22"/>
-        <v>1.5032216496908951E-4</v>
+        <v>2.0438228878271163E-4</v>
       </c>
       <c r="Z56" s="2">
         <f t="shared" si="23"/>
-        <v>9.2478739009763599E-5</v>
+        <v>1.2228203963903609E-4</v>
       </c>
       <c r="AA56" s="2">
         <f t="shared" si="24"/>
-        <v>1.849574780195272E-4</v>
+        <v>2.4456407927807218E-4</v>
       </c>
       <c r="AB56" s="2">
         <f t="shared" si="25"/>
-        <v>6.498871511322276E-3</v>
+        <v>7.5152606523986726E-3</v>
       </c>
       <c r="AC56" s="2">
         <f t="shared" si="26"/>
-        <v>6.5464886911045187E-3</v>
+        <v>7.5704037264376764E-3</v>
       </c>
       <c r="AD56" s="2">
         <f t="shared" si="27"/>
-        <v>8.0694734275557449E-3</v>
+        <v>9.2911281978274654E-3</v>
       </c>
       <c r="AE56" s="2">
         <f t="shared" si="28"/>
-        <v>8.1285983950641072E-3</v>
+        <v>9.3593016643000043E-3</v>
       </c>
     </row>
     <row r="57" spans="1:31" x14ac:dyDescent="0.3">
@@ -6909,111 +6909,111 @@
       </c>
       <c r="E57" s="2">
         <f t="shared" si="2"/>
-        <v>0.14586911151267271</v>
+        <v>0.14629768455424827</v>
       </c>
       <c r="F57" s="2">
         <f t="shared" si="3"/>
-        <v>0.19173822302534529</v>
+        <v>0.19259536910849653</v>
       </c>
       <c r="G57" s="2">
         <f t="shared" si="4"/>
-        <v>0.24526128785713766</v>
+        <v>0.24577946003770582</v>
       </c>
       <c r="H57" s="2">
         <f t="shared" si="5"/>
-        <v>0.29052257571427531</v>
+        <v>0.29155892007541162</v>
       </c>
       <c r="I57" s="2">
         <f t="shared" si="6"/>
-        <v>2.6467277878168168E-2</v>
+        <v>2.6574421138562065E-2</v>
       </c>
       <c r="J57" s="2">
         <f t="shared" si="7"/>
-        <v>0.50661643323049965</v>
+        <v>0.50664321433615644</v>
       </c>
       <c r="K57" s="2">
         <f t="shared" si="8"/>
-        <v>4.1315321964284418E-2</v>
+        <v>4.1444865009426457E-2</v>
       </c>
       <c r="L57" s="2">
         <f t="shared" si="9"/>
-        <v>0.5103273615037025</v>
+        <v>0.51035973340529905</v>
       </c>
       <c r="M57" s="2">
         <f t="shared" si="10"/>
-        <v>0.17397748209725511</v>
+        <v>0.20753579023122312</v>
       </c>
       <c r="N57" s="2">
         <f t="shared" si="11"/>
-        <v>0.22231347307370752</v>
+        <v>0.25611787260841745</v>
       </c>
       <c r="O57" s="2">
         <f t="shared" si="12"/>
-        <v>0.22415101335273993</v>
+        <v>0.26571598377232519</v>
       </c>
       <c r="P57" s="2">
         <f t="shared" si="13"/>
-        <v>0.27212023986892808</v>
+        <v>0.31399001345607663</v>
       </c>
       <c r="Q57" s="2">
         <f t="shared" si="14"/>
-        <v>0.20159249958296405</v>
+        <v>0.23585884903730545</v>
       </c>
       <c r="R57" s="2">
         <f t="shared" si="15"/>
-        <v>0.55022813598891207</v>
+        <v>0.55869287674980062</v>
       </c>
       <c r="S57" s="2">
         <f t="shared" si="16"/>
-        <v>0.25242899091383192</v>
+        <v>0.29487105967827437</v>
       </c>
       <c r="T57" s="2">
         <f t="shared" si="17"/>
-        <v>0.56277426776401662</v>
+        <v>0.57318822856812579</v>
       </c>
       <c r="U57" s="2">
         <f t="shared" si="18"/>
-        <v>1.2614328224603219E-3</v>
+        <v>1.7224268905836428E-3</v>
       </c>
       <c r="V57" s="2">
         <f t="shared" si="19"/>
-        <v>1.9703043466542283E-3</v>
+        <v>2.6782584004701121E-3</v>
       </c>
       <c r="W57" s="6">
         <f t="shared" si="20"/>
-        <v>3.2317371691145502E-3</v>
+        <v>4.4006852910537554E-3</v>
       </c>
       <c r="X57" s="2">
         <f t="shared" si="21"/>
-        <v>7.0298636600415378E-5</v>
+        <v>9.699422040922848E-5</v>
       </c>
       <c r="Y57" s="2">
         <f t="shared" si="22"/>
-        <v>1.4059727320083076E-4</v>
+        <v>1.9398844081845696E-4</v>
       </c>
       <c r="Z57" s="2">
         <f t="shared" si="23"/>
-        <v>8.7067871865786082E-5</v>
+        <v>1.1658301718751193E-4</v>
       </c>
       <c r="AA57" s="2">
         <f t="shared" si="24"/>
-        <v>1.7413574373157216E-4</v>
+        <v>2.3316603437502386E-4</v>
       </c>
       <c r="AB57" s="2">
         <f t="shared" si="25"/>
-        <v>6.2974019295470975E-3</v>
+        <v>7.3316495638551587E-3</v>
       </c>
       <c r="AC57" s="2">
         <f t="shared" si="26"/>
-        <v>6.34352993751372E-3</v>
+        <v>7.3854314258071469E-3</v>
       </c>
       <c r="AD57" s="2">
         <f t="shared" si="27"/>
-        <v>7.8252977963664434E-3</v>
+        <v>9.0714584896236985E-3</v>
       </c>
       <c r="AE57" s="2">
         <f t="shared" si="28"/>
-        <v>7.8826175296676255E-3</v>
+        <v>9.1380028496538569E-3</v>
       </c>
     </row>
     <row r="58" spans="1:31" x14ac:dyDescent="0.3">
@@ -7031,111 +7031,111 @@
       </c>
       <c r="E58" s="2">
         <f t="shared" si="2"/>
-        <v>0.1457988128760723</v>
+        <v>0.1462200891779209</v>
       </c>
       <c r="F58" s="2">
         <f t="shared" si="3"/>
-        <v>0.19159762575214445</v>
+        <v>0.19244017835584176</v>
       </c>
       <c r="G58" s="2">
         <f t="shared" si="4"/>
-        <v>0.24517421998527186</v>
+        <v>0.2456861936239558</v>
       </c>
       <c r="H58" s="2">
         <f t="shared" si="5"/>
-        <v>0.29034843997054371</v>
+        <v>0.29137238724791159</v>
       </c>
       <c r="I58" s="2">
         <f t="shared" si="6"/>
-        <v>2.6449703219018062E-2</v>
+        <v>2.6555022294480223E-2</v>
       </c>
       <c r="J58" s="2">
         <f t="shared" si="7"/>
-        <v>0.50661204033457052</v>
+        <v>0.5066383654806268</v>
       </c>
       <c r="K58" s="2">
         <f t="shared" si="8"/>
-        <v>4.1293554996317969E-2</v>
+        <v>4.1421548405988953E-2</v>
       </c>
       <c r="L58" s="2">
         <f t="shared" si="9"/>
-        <v>0.51032192208203109</v>
+        <v>0.51035390675546555</v>
       </c>
       <c r="M58" s="2">
         <f t="shared" si="10"/>
-        <v>0.16768008016770802</v>
+        <v>0.20167047058013898</v>
       </c>
       <c r="N58" s="2">
         <f t="shared" si="11"/>
-        <v>0.2159699431361938</v>
+        <v>0.25020952746777175</v>
       </c>
       <c r="O58" s="2">
         <f t="shared" si="12"/>
-        <v>0.21632571555637348</v>
+        <v>0.25845881698062623</v>
       </c>
       <c r="P58" s="2">
         <f t="shared" si="13"/>
-        <v>0.26423762233926046</v>
+        <v>0.30667961117635356</v>
       </c>
       <c r="Q58" s="2">
         <f t="shared" si="14"/>
-        <v>0.1951629440304363</v>
+        <v>0.22986940743104672</v>
       </c>
       <c r="R58" s="2">
         <f t="shared" si="15"/>
-        <v>0.54863645946548611</v>
+        <v>0.55721563420870623</v>
       </c>
       <c r="S58" s="2">
         <f t="shared" si="16"/>
-        <v>0.24443946345340756</v>
+        <v>0.28746029026522013</v>
       </c>
       <c r="T58" s="2">
         <f t="shared" si="17"/>
-        <v>0.56080739350311803</v>
+        <v>0.57137425656348839</v>
       </c>
       <c r="U58" s="2">
         <f t="shared" si="18"/>
-        <v>1.1827525946689369E-3</v>
+        <v>1.6368143989522375E-3</v>
       </c>
       <c r="V58" s="2">
         <f t="shared" si="19"/>
-        <v>1.8487695523215207E-3</v>
+        <v>2.5471422499953331E-3</v>
       </c>
       <c r="W58" s="6">
         <f t="shared" si="20"/>
-        <v>3.0315221469904576E-3</v>
+        <v>4.1839566489475701E-3</v>
       </c>
       <c r="X58" s="2">
         <f t="shared" si="21"/>
-        <v>6.5731782362333255E-5</v>
+        <v>9.2043187410247151E-5</v>
       </c>
       <c r="Y58" s="2">
         <f t="shared" si="22"/>
-        <v>1.3146356472466651E-4</v>
+        <v>1.840863748204943E-4</v>
       </c>
       <c r="Z58" s="2">
         <f t="shared" si="23"/>
-        <v>8.1968734787635087E-5</v>
+        <v>1.1114112599914981E-4</v>
       </c>
       <c r="AA58" s="2">
         <f t="shared" si="24"/>
-        <v>1.6393746957527017E-4</v>
+        <v>2.2228225199829961E-4</v>
       </c>
       <c r="AB58" s="2">
         <f t="shared" si="25"/>
-        <v>6.1016683785866301E-3</v>
+        <v>7.1520140908454344E-3</v>
       </c>
       <c r="AC58" s="2">
         <f t="shared" si="26"/>
-        <v>6.1463504357517672E-3</v>
+        <v>7.2044649223720909E-3</v>
       </c>
       <c r="AD58" s="2">
         <f t="shared" si="27"/>
-        <v>7.5875339288033463E-3</v>
+        <v>8.856020071432236E-3</v>
       </c>
       <c r="AE58" s="2">
         <f t="shared" si="28"/>
-        <v>7.6430968672840738E-3</v>
+        <v>8.9209675968234328E-3</v>
       </c>
     </row>
     <row r="59" spans="1:31" x14ac:dyDescent="0.3">
@@ -7153,111 +7153,111 @@
       </c>
       <c r="E59" s="2">
         <f t="shared" si="2"/>
-        <v>0.14573308109370997</v>
+        <v>0.14614645462799269</v>
       </c>
       <c r="F59" s="2">
         <f t="shared" si="3"/>
-        <v>0.1914661621874198</v>
+        <v>0.19229290925598536</v>
       </c>
       <c r="G59" s="2">
         <f t="shared" si="4"/>
-        <v>0.24509225125048423</v>
+        <v>0.24559728072315648</v>
       </c>
       <c r="H59" s="2">
         <f t="shared" si="5"/>
-        <v>0.29018450250096844</v>
+        <v>0.29119456144631295</v>
       </c>
       <c r="I59" s="2">
         <f t="shared" si="6"/>
-        <v>2.643327027342748E-2</v>
+        <v>2.6536613656998172E-2</v>
       </c>
       <c r="J59" s="2">
         <f t="shared" si="7"/>
-        <v>0.5066079328161599</v>
+        <v>0.50663376413192396</v>
       </c>
       <c r="K59" s="2">
         <f t="shared" si="8"/>
-        <v>4.127306281262106E-2</v>
+        <v>4.1399320180789123E-2</v>
       </c>
       <c r="L59" s="2">
         <f t="shared" si="9"/>
-        <v>0.5103168012183037</v>
+        <v>0.51034835208082829</v>
       </c>
       <c r="M59" s="2">
         <f t="shared" si="10"/>
-        <v>0.16157841178912138</v>
+        <v>0.19594885930746264</v>
       </c>
       <c r="N59" s="2">
         <f t="shared" si="11"/>
-        <v>0.20982359270044204</v>
+        <v>0.24444595552987408</v>
       </c>
       <c r="O59" s="2">
         <f t="shared" si="12"/>
-        <v>0.20873818162757013</v>
+        <v>0.25137400092348045</v>
       </c>
       <c r="P59" s="2">
         <f t="shared" si="13"/>
-        <v>0.25659452547197636</v>
+        <v>0.29954283709889484</v>
       </c>
       <c r="Q59" s="2">
         <f t="shared" si="14"/>
-        <v>0.18893340983122681</v>
+        <v>0.22402689874579124</v>
       </c>
       <c r="R59" s="2">
         <f t="shared" si="15"/>
-        <v>0.5470933493661212</v>
+        <v>0.55577365531509271</v>
       </c>
       <c r="S59" s="2">
         <f t="shared" si="16"/>
-        <v>0.23669291614313498</v>
+        <v>0.28022574958380164</v>
       </c>
       <c r="T59" s="2">
         <f t="shared" si="17"/>
-        <v>0.55889851020857495</v>
+        <v>0.56960156858815225</v>
       </c>
       <c r="U59" s="2">
         <f t="shared" si="18"/>
-        <v>1.1088917772597738E-3</v>
+        <v>1.5553503136033844E-3</v>
       </c>
       <c r="V59" s="2">
         <f t="shared" si="19"/>
-        <v>1.7345172523948037E-3</v>
+        <v>2.4221891749656309E-3</v>
       </c>
       <c r="W59" s="6">
         <f t="shared" si="20"/>
-        <v>2.8434090296545773E-3</v>
+        <v>3.9775394885690155E-3</v>
       </c>
       <c r="X59" s="2">
         <f t="shared" si="21"/>
-        <v>6.1444064262416464E-5</v>
+        <v>8.7327733815072345E-5</v>
       </c>
       <c r="Y59" s="2">
         <f t="shared" si="22"/>
-        <v>1.2288812852483293E-4</v>
+        <v>1.7465546763014469E-4</v>
       </c>
       <c r="Z59" s="2">
         <f t="shared" si="23"/>
-        <v>7.7164526939592988E-5</v>
+        <v>1.0594590991348178E-4</v>
       </c>
       <c r="AA59" s="2">
         <f t="shared" si="24"/>
-        <v>1.5432905387918598E-4</v>
+        <v>2.1189181982696355E-4</v>
       </c>
       <c r="AB59" s="2">
         <f t="shared" si="25"/>
-        <v>5.9115545136903223E-3</v>
+        <v>6.9763057347682267E-3</v>
       </c>
       <c r="AC59" s="2">
         <f t="shared" si="26"/>
-        <v>5.9548329077365771E-3</v>
+        <v>7.0274553087699594E-3</v>
       </c>
       <c r="AD59" s="2">
         <f t="shared" si="27"/>
-        <v>7.3561025043779584E-3</v>
+        <v>8.6448012565733257E-3</v>
       </c>
       <c r="AE59" s="2">
         <f t="shared" si="28"/>
-        <v>7.4099564106714444E-3</v>
+        <v>8.7081840724094594E-3</v>
       </c>
     </row>
     <row r="60" spans="1:31" x14ac:dyDescent="0.3">
@@ -7275,111 +7275,111 @@
       </c>
       <c r="E60" s="2">
         <f t="shared" si="2"/>
-        <v>0.14567163702944755</v>
+        <v>0.14607659244094065</v>
       </c>
       <c r="F60" s="2">
         <f t="shared" si="3"/>
-        <v>0.19134327405889495</v>
+        <v>0.19215318488188124</v>
       </c>
       <c r="G60" s="2">
         <f t="shared" si="4"/>
-        <v>0.24501508672354463</v>
+        <v>0.24551252399522569</v>
       </c>
       <c r="H60" s="2">
         <f t="shared" si="5"/>
-        <v>0.29003017344708926</v>
+        <v>0.29102504799045137</v>
       </c>
       <c r="I60" s="2">
         <f t="shared" si="6"/>
-        <v>2.6417909257361871E-2</v>
+        <v>2.6519148110235157E-2</v>
       </c>
       <c r="J60" s="2">
         <f t="shared" si="7"/>
-        <v>0.50660409323248912</v>
+        <v>0.50662939851333089</v>
       </c>
       <c r="K60" s="2">
         <f t="shared" si="8"/>
-        <v>4.1253771680886162E-2</v>
+        <v>4.1378130998806426E-2</v>
       </c>
       <c r="L60" s="2">
         <f t="shared" si="9"/>
-        <v>0.510311980487689</v>
+        <v>0.51034305705328731</v>
       </c>
       <c r="M60" s="2">
         <f t="shared" si="10"/>
-        <v>0.15566685727543106</v>
+        <v>0.19036781471964806</v>
       </c>
       <c r="N60" s="2">
         <f t="shared" si="11"/>
-        <v>0.20386875979270547</v>
+        <v>0.23882399128285811</v>
       </c>
       <c r="O60" s="2">
         <f t="shared" si="12"/>
-        <v>0.20138207912319217</v>
+        <v>0.24445815991822178</v>
       </c>
       <c r="P60" s="2">
         <f t="shared" si="13"/>
-        <v>0.24918456906130493</v>
+        <v>0.29257628984096729</v>
       </c>
       <c r="Q60" s="2">
         <f t="shared" si="14"/>
-        <v>0.18289813764575552</v>
+        <v>0.21832809727667396</v>
       </c>
       <c r="R60" s="2">
         <f t="shared" si="15"/>
-        <v>0.54559749563431392</v>
+        <v>0.55436623868458546</v>
       </c>
       <c r="S60" s="2">
         <f t="shared" si="16"/>
-        <v>0.229182856532124</v>
+        <v>0.27316396869979226</v>
       </c>
       <c r="T60" s="2">
         <f t="shared" si="17"/>
-        <v>0.55704623734926983</v>
+        <v>0.56786948916748914</v>
       </c>
       <c r="U60" s="2">
         <f t="shared" si="18"/>
-        <v>1.0395658040606387E-3</v>
+        <v>1.477843954354658E-3</v>
       </c>
       <c r="V60" s="2">
         <f t="shared" si="19"/>
-        <v>1.6271365978546143E-3</v>
+        <v>2.3031337799279627E-3</v>
       </c>
       <c r="W60" s="6">
         <f t="shared" si="20"/>
-        <v>2.6667024019152528E-3</v>
+        <v>3.7809777342826204E-3</v>
       </c>
       <c r="X60" s="2">
         <f t="shared" si="21"/>
-        <v>5.7419782063610026E-5</v>
+        <v>8.2837863013886801E-5</v>
       </c>
       <c r="Y60" s="2">
         <f t="shared" si="22"/>
-        <v>1.1483956412722005E-4</v>
+        <v>1.656757260277736E-4</v>
       </c>
       <c r="Z60" s="2">
         <f t="shared" si="23"/>
-        <v>7.2639196665238707E-5</v>
+        <v>1.0098722065713334E-4</v>
       </c>
       <c r="AA60" s="2">
         <f t="shared" si="24"/>
-        <v>1.4527839333047741E-4</v>
+        <v>2.0197444131426668E-4</v>
       </c>
       <c r="AB60" s="2">
         <f t="shared" si="25"/>
-        <v>5.7269417960265426E-3</v>
+        <v>6.804473608267028E-3</v>
       </c>
       <c r="AC60" s="2">
         <f t="shared" si="26"/>
-        <v>5.7688578697030601E-3</v>
+        <v>6.8543512734783258E-3</v>
       </c>
       <c r="AD60" s="2">
         <f t="shared" si="27"/>
-        <v>7.1309163050465273E-3</v>
+        <v>8.43778458957062E-3</v>
       </c>
       <c r="AE60" s="2">
         <f t="shared" si="28"/>
-        <v>7.1831082119785646E-3</v>
+        <v>8.49963463398439E-3</v>
       </c>
     </row>
     <row r="61" spans="1:31" x14ac:dyDescent="0.3">
@@ -7397,111 +7397,111 @@
       </c>
       <c r="E61" s="2">
         <f t="shared" si="2"/>
-        <v>0.14561421724738394</v>
+        <v>0.14601032215052953</v>
       </c>
       <c r="F61" s="2">
         <f t="shared" si="3"/>
-        <v>0.19122843449476773</v>
+        <v>0.19202064430105903</v>
       </c>
       <c r="G61" s="2">
         <f t="shared" si="4"/>
-        <v>0.24494244752687941</v>
+        <v>0.24543173421869999</v>
       </c>
       <c r="H61" s="2">
         <f t="shared" si="5"/>
-        <v>0.28988489505375881</v>
+        <v>0.29086346843739996</v>
       </c>
       <c r="I61" s="2">
         <f t="shared" si="6"/>
-        <v>2.6403554311845972E-2</v>
+        <v>2.6502580537632381E-2</v>
       </c>
       <c r="J61" s="2">
         <f t="shared" si="7"/>
-        <v>0.50660050512184729</v>
+        <v>0.50662525734785246</v>
       </c>
       <c r="K61" s="2">
         <f t="shared" si="8"/>
-        <v>4.1235611881719855E-2</v>
+        <v>4.1357933554675E-2</v>
       </c>
       <c r="L61" s="2">
         <f t="shared" si="9"/>
-        <v>0.51030744246810533</v>
+        <v>0.51033800985189914</v>
       </c>
       <c r="M61" s="2">
         <f t="shared" si="10"/>
-        <v>0.14993991547940452</v>
+        <v>0.18492423583303444</v>
       </c>
       <c r="N61" s="2">
         <f t="shared" si="11"/>
-        <v>0.19809990192300242</v>
+        <v>0.23334051026407546</v>
       </c>
       <c r="O61" s="2">
         <f t="shared" si="12"/>
-        <v>0.19425116281814564</v>
+        <v>0.23770793224656528</v>
       </c>
       <c r="P61" s="2">
         <f t="shared" si="13"/>
-        <v>0.24200146084932636</v>
+        <v>0.28577658213377977</v>
       </c>
       <c r="Q61" s="2">
         <f t="shared" si="14"/>
-        <v>0.17705149122330327</v>
+        <v>0.21276982019476093</v>
       </c>
       <c r="R61" s="2">
         <f t="shared" si="15"/>
-        <v>0.54414760757704972</v>
+        <v>0.55299268641911048</v>
       </c>
       <c r="S61" s="2">
         <f t="shared" si="16"/>
-        <v>0.22190288376374384</v>
+        <v>0.26627149453647297</v>
       </c>
       <c r="T61" s="2">
         <f t="shared" si="17"/>
-        <v>0.5552491968119958</v>
+        <v>0.5661773343348766</v>
       </c>
       <c r="U61" s="2">
         <f t="shared" si="18"/>
-        <v>9.7450562738858886E-4</v>
+        <v>1.4041124069570881E-3</v>
       </c>
       <c r="V61" s="2">
         <f t="shared" si="19"/>
-        <v>1.5262368741853238E-3</v>
+        <v>2.1897197898350187E-3</v>
       </c>
       <c r="W61" s="6">
         <f t="shared" si="20"/>
-        <v>2.5007425015739129E-3</v>
+        <v>3.5938321967921068E-3</v>
       </c>
       <c r="X61" s="2">
         <f t="shared" si="21"/>
-        <v>5.3643975499133322E-5</v>
+        <v>7.85638953849557E-5</v>
       </c>
       <c r="Y61" s="2">
         <f t="shared" si="22"/>
-        <v>1.0728795099826664E-4</v>
+        <v>1.571277907699114E-4</v>
       </c>
       <c r="Z61" s="2">
         <f t="shared" si="23"/>
-        <v>6.8377427889776331E-5</v>
+        <v>9.62552207395667E-5</v>
       </c>
       <c r="AA61" s="2">
         <f t="shared" si="24"/>
-        <v>1.3675485577955266E-4</v>
+        <v>1.925104414791334E-4</v>
       </c>
       <c r="AB61" s="2">
         <f t="shared" si="25"/>
-        <v>5.5477100475165861E-3</v>
+        <v>6.6364647200102492E-3</v>
       </c>
       <c r="AC61" s="2">
         <f t="shared" si="26"/>
-        <v>5.5883041909361711E-3</v>
+        <v>6.685099387646486E-3</v>
       </c>
       <c r="AD61" s="2">
         <f t="shared" si="27"/>
-        <v>6.9118812381315673E-3</v>
+        <v>8.2349473111874953E-3</v>
       </c>
       <c r="AE61" s="2">
         <f t="shared" si="28"/>
-        <v>6.9624574030494601E-3</v>
+        <v>8.2952962985442611E-3</v>
       </c>
     </row>
     <row r="62" spans="1:31" x14ac:dyDescent="0.3">
@@ -7519,111 +7519,111 @@
       </c>
       <c r="E62" s="2">
         <f t="shared" si="2"/>
-        <v>0.14556057327188479</v>
+        <v>0.14594747103422157</v>
       </c>
       <c r="F62" s="2">
         <f t="shared" si="3"/>
-        <v>0.19112114654376947</v>
+        <v>0.1918949420684431</v>
       </c>
       <c r="G62" s="2">
         <f t="shared" si="4"/>
-        <v>0.24487407009898962</v>
+        <v>0.24535473004210834</v>
       </c>
       <c r="H62" s="2">
         <f t="shared" si="5"/>
-        <v>0.28974814019797923</v>
+        <v>0.29070946008421666</v>
       </c>
       <c r="I62" s="2">
         <f t="shared" si="6"/>
-        <v>2.6390143317971189E-2</v>
+        <v>2.6486867758555389E-2</v>
       </c>
       <c r="J62" s="2">
         <f t="shared" si="7"/>
-        <v>0.5065971529573543</v>
+        <v>0.50662132984237163</v>
       </c>
       <c r="K62" s="2">
         <f t="shared" si="8"/>
-        <v>4.1218517524747408E-2</v>
+        <v>4.1338682510527081E-2</v>
       </c>
       <c r="L62" s="2">
         <f t="shared" si="9"/>
-        <v>0.51030317069427167</v>
+        <v>0.51033319914734954</v>
       </c>
       <c r="M62" s="2">
         <f t="shared" si="10"/>
-        <v>0.14439220543188794</v>
+        <v>0.17961506405702624</v>
       </c>
       <c r="N62" s="2">
         <f t="shared" si="11"/>
-        <v>0.19251159773206625</v>
+        <v>0.22799243075395828</v>
       </c>
       <c r="O62" s="2">
         <f t="shared" si="12"/>
-        <v>0.18733928158001406</v>
+        <v>0.23111997439761528</v>
       </c>
       <c r="P62" s="2">
         <f t="shared" si="13"/>
-        <v>0.2350390034462769</v>
+        <v>0.27914034509494434</v>
       </c>
       <c r="Q62" s="2">
         <f t="shared" si="14"/>
-        <v>0.17138795889912142</v>
+        <v>0.20734892918034148</v>
       </c>
       <c r="R62" s="2">
         <f t="shared" si="15"/>
-        <v>0.54274241519805477</v>
+        <v>0.55165230498041262</v>
       </c>
       <c r="S62" s="2">
         <f t="shared" si="16"/>
-        <v>0.21484669538096821</v>
+        <v>0.25954489410585285</v>
       </c>
       <c r="T62" s="2">
         <f t="shared" si="17"/>
-        <v>0.55350601620204931</v>
+        <v>0.56452441340462756</v>
       </c>
       <c r="U62" s="2">
         <f t="shared" si="18"/>
-        <v>9.1345702848145179E-4</v>
+        <v>1.3339803048947794E-3</v>
       </c>
       <c r="V62" s="2">
         <f t="shared" si="19"/>
-        <v>1.4314468849069817E-3</v>
+        <v>2.08169996260564E-3</v>
       </c>
       <c r="W62" s="6">
         <f t="shared" si="20"/>
-        <v>2.3449039133884336E-3</v>
+        <v>3.4156802675004193E-3</v>
       </c>
       <c r="X62" s="2">
         <f t="shared" si="21"/>
-        <v>5.0102406553654168E-5</v>
+        <v>7.4496468829767231E-5</v>
       </c>
       <c r="Y62" s="2">
         <f t="shared" si="22"/>
-        <v>1.0020481310730834E-4</v>
+        <v>1.4899293765953446E-4</v>
       </c>
       <c r="Z62" s="2">
         <f t="shared" si="23"/>
-        <v>6.4364623937931658E-5</v>
+        <v>9.174038480907798E-5</v>
       </c>
       <c r="AA62" s="2">
         <f t="shared" si="24"/>
-        <v>1.2872924787586332E-4</v>
+        <v>1.8348076961815596E-4</v>
       </c>
       <c r="AB62" s="2">
         <f t="shared" si="25"/>
-        <v>5.3737379528567926E-3</v>
+        <v>6.4722242410372209E-3</v>
       </c>
       <c r="AC62" s="2">
         <f t="shared" si="26"/>
-        <v>5.4130495993012602E-3</v>
+        <v>6.5196443733532344E-3</v>
       </c>
       <c r="AD62" s="2">
         <f t="shared" si="27"/>
-        <v>6.6988972829448053E-3</v>
+        <v>8.036261802356991E-3</v>
       </c>
       <c r="AE62" s="2">
         <f t="shared" si="28"/>
-        <v>6.7479031488551318E-3</v>
+        <v>8.0951411896899653E-3</v>
       </c>
     </row>
     <row r="63" spans="1:31" x14ac:dyDescent="0.3">
@@ -7641,111 +7641,111 @@
       </c>
       <c r="E63" s="2">
         <f t="shared" si="2"/>
-        <v>0.14551047086533114</v>
+        <v>0.14588787385915775</v>
       </c>
       <c r="F63" s="2">
         <f t="shared" si="3"/>
-        <v>0.19102094173066217</v>
+        <v>0.19177574771831546</v>
       </c>
       <c r="G63" s="2">
         <f t="shared" si="4"/>
-        <v>0.24480970547505168</v>
+        <v>0.24528133773426108</v>
       </c>
       <c r="H63" s="2">
         <f t="shared" si="5"/>
-        <v>0.28961941095010335</v>
+        <v>0.29056267546852216</v>
       </c>
       <c r="I63" s="2">
         <f t="shared" si="6"/>
-        <v>2.6377617716332777E-2</v>
+        <v>2.6471968464789435E-2</v>
       </c>
       <c r="J63" s="2">
         <f t="shared" si="7"/>
-        <v>0.50659402210183058</v>
+        <v>0.50661760567177783</v>
       </c>
       <c r="K63" s="2">
         <f t="shared" si="8"/>
-        <v>4.1202426368762923E-2</v>
+        <v>4.1320334433565267E-2</v>
       </c>
       <c r="L63" s="2">
         <f t="shared" si="9"/>
-        <v>0.5102991496127709</v>
+        <v>0.51032861408635588</v>
       </c>
       <c r="M63" s="2">
         <f t="shared" si="10"/>
-        <v>0.13901846747903115</v>
+        <v>0.17443728466419645</v>
       </c>
       <c r="N63" s="2">
         <f t="shared" si="11"/>
-        <v>0.187098548132765</v>
+        <v>0.2227767152552757</v>
       </c>
       <c r="O63" s="2">
         <f t="shared" si="12"/>
-        <v>0.18064038429706925</v>
+        <v>0.22469096495572968</v>
       </c>
       <c r="P63" s="2">
         <f t="shared" si="13"/>
-        <v>0.22829110029742178</v>
+        <v>0.27266423214319235</v>
       </c>
       <c r="Q63" s="2">
         <f t="shared" si="14"/>
-        <v>0.16590215459256899</v>
+        <v>0.20206233184339711</v>
       </c>
       <c r="R63" s="2">
         <f t="shared" si="15"/>
-        <v>0.54138067033224646</v>
+        <v>0.55034440598438061</v>
       </c>
       <c r="S63" s="2">
         <f t="shared" si="16"/>
-        <v>0.20800809318101077</v>
+        <v>0.25298075838250889</v>
       </c>
       <c r="T63" s="2">
         <f t="shared" si="17"/>
-        <v>0.55181533180045828</v>
+        <v>0.5629100306256668</v>
       </c>
       <c r="U63" s="2">
         <f t="shared" si="18"/>
-        <v>8.5617993857303124E-4</v>
+        <v>1.2672796069600693E-3</v>
       </c>
       <c r="V63" s="2">
         <f t="shared" si="19"/>
-        <v>1.3424143047957914E-3</v>
+        <v>1.9788359766611673E-3</v>
       </c>
       <c r="W63" s="6">
         <f t="shared" si="20"/>
-        <v>2.1985942433688224E-3</v>
+        <v>3.2461155836212363E-3</v>
       </c>
       <c r="X63" s="2">
         <f t="shared" si="21"/>
-        <v>4.6781539789920225E-5</v>
+        <v>7.0626537984105585E-5</v>
       </c>
       <c r="Y63" s="2">
         <f t="shared" si="22"/>
-        <v>9.3563079579840451E-5</v>
+        <v>1.4125307596821117E-4</v>
       </c>
       <c r="Z63" s="2">
         <f t="shared" si="23"/>
-        <v>6.0586889241874125E-5</v>
+        <v>8.7433499630171587E-5</v>
       </c>
       <c r="AA63" s="2">
         <f t="shared" si="24"/>
-        <v>1.2117377848374825E-4</v>
+        <v>1.7486699926034317E-4</v>
       </c>
       <c r="AB63" s="2">
         <f t="shared" si="25"/>
-        <v>5.2049035122658377E-3</v>
+        <v>6.3116957533708284E-3</v>
       </c>
       <c r="AC63" s="2">
         <f t="shared" si="26"/>
-        <v>5.2429711371364878E-3</v>
+        <v>6.3579293539973939E-3</v>
       </c>
       <c r="AD63" s="2">
         <f t="shared" si="27"/>
-        <v>6.4918593639515547E-3</v>
+        <v>7.8416960068304568E-3</v>
       </c>
       <c r="AE63" s="2">
         <f t="shared" si="28"/>
-        <v>6.5393395269166387E-3</v>
+        <v>7.8991369633627968E-3</v>
       </c>
     </row>
     <row r="64" spans="1:31" x14ac:dyDescent="0.3">
@@ -7763,111 +7763,111 @@
       </c>
       <c r="E64" s="2">
         <f t="shared" si="2"/>
-        <v>0.14546368932554121</v>
+        <v>0.14583137262877047</v>
       </c>
       <c r="F64" s="2">
         <f t="shared" si="3"/>
-        <v>0.19092737865108234</v>
+        <v>0.1916627452575409</v>
       </c>
       <c r="G64" s="2">
         <f t="shared" si="4"/>
-        <v>0.24474911858580981</v>
+        <v>0.24521139093455696</v>
       </c>
       <c r="H64" s="2">
         <f t="shared" si="5"/>
-        <v>0.2894982371716196</v>
+        <v>0.29042278186911391</v>
       </c>
       <c r="I64" s="2">
         <f t="shared" si="6"/>
-        <v>2.6365922331385294E-2</v>
+        <v>2.6457843157192615E-2</v>
       </c>
       <c r="J64" s="2">
         <f t="shared" si="7"/>
-        <v>0.50659109876389685</v>
+        <v>0.50661407496313404</v>
       </c>
       <c r="K64" s="2">
         <f t="shared" si="8"/>
-        <v>4.1187279646452454E-2</v>
+        <v>4.1302847733639243E-2</v>
       </c>
       <c r="L64" s="2">
         <f t="shared" si="9"/>
-        <v>0.5102953645382533</v>
+        <v>0.51032424427607115</v>
       </c>
       <c r="M64" s="2">
         <f t="shared" si="10"/>
-        <v>0.1338135639667653</v>
+        <v>0.16938792806149977</v>
       </c>
       <c r="N64" s="2">
         <f t="shared" si="11"/>
-        <v>0.18185557699562852</v>
+        <v>0.21769037177207778</v>
       </c>
       <c r="O64" s="2">
         <f t="shared" si="12"/>
-        <v>0.17414852493311769</v>
+        <v>0.21841760815026531</v>
       </c>
       <c r="P64" s="2">
         <f t="shared" si="13"/>
-        <v>0.22175176077050515</v>
+        <v>0.26634492257250214</v>
       </c>
       <c r="Q64" s="2">
         <f t="shared" si="14"/>
-        <v>0.16058881835573527</v>
+        <v>0.19690698294556117</v>
       </c>
       <c r="R64" s="2">
         <f t="shared" si="15"/>
-        <v>0.54006114759847734</v>
+        <v>0.54906830692072583</v>
       </c>
       <c r="S64" s="2">
         <f t="shared" si="16"/>
-        <v>0.20138098819336445</v>
+        <v>0.24657570583728777</v>
       </c>
       <c r="T64" s="2">
         <f t="shared" si="17"/>
-        <v>0.55017579120042392</v>
+        <v>0.56133348672010941</v>
       </c>
       <c r="U64" s="2">
         <f t="shared" si="18"/>
-        <v>8.024477734534935E-4</v>
+        <v>1.2038493720332754E-3</v>
       </c>
       <c r="V64" s="2">
         <f t="shared" si="19"/>
-        <v>1.2588050112942695E-3</v>
+        <v>1.8808982966229187E-3</v>
       </c>
       <c r="W64" s="6">
         <f t="shared" si="20"/>
-        <v>2.0612527847477628E-3</v>
+        <v>3.0847476686561943E-3</v>
       </c>
       <c r="X64" s="2">
         <f t="shared" si="21"/>
-        <v>4.3668521133881629E-5</v>
+        <v>6.6945372254325269E-5</v>
       </c>
       <c r="Y64" s="2">
         <f t="shared" si="22"/>
-        <v>8.7337042267763258E-5</v>
+        <v>1.3389074450865054E-4</v>
       </c>
       <c r="Z64" s="2">
         <f t="shared" si="23"/>
-        <v>5.7031009362792724E-5</v>
+        <v>8.3325662833507786E-5</v>
       </c>
       <c r="AA64" s="2">
         <f t="shared" si="24"/>
-        <v>1.1406201872558545E-4</v>
+        <v>1.6665132566701557E-4</v>
       </c>
       <c r="AB64" s="2">
         <f t="shared" si="25"/>
-        <v>5.0410844483983865E-3</v>
+        <v>6.154821481623083E-3</v>
       </c>
       <c r="AC64" s="2">
         <f t="shared" si="26"/>
-        <v>5.0779455709751686E-3</v>
+        <v>6.1998960875534175E-3</v>
       </c>
       <c r="AD64" s="2">
         <f t="shared" si="27"/>
-        <v>6.290658153621626E-3</v>
+        <v>7.6512138325427435E-3</v>
       </c>
       <c r="AE64" s="2">
         <f t="shared" si="28"/>
-        <v>6.3366563358903142E-3</v>
+        <v>7.7072472121330875E-3</v>
       </c>
     </row>
     <row r="65" spans="1:31" x14ac:dyDescent="0.3">
@@ -7885,111 +7885,111 @@
       </c>
       <c r="E65" s="2">
         <f t="shared" si="2"/>
-        <v>0.14542002080440733</v>
+        <v>0.14577781633096701</v>
       </c>
       <c r="F65" s="2">
         <f t="shared" si="3"/>
-        <v>0.19084004160881457</v>
+        <v>0.19155563266193398</v>
       </c>
       <c r="G65" s="2">
         <f t="shared" si="4"/>
-        <v>0.244692087576447</v>
+        <v>0.24514473040429016</v>
       </c>
       <c r="H65" s="2">
         <f t="shared" si="5"/>
-        <v>0.289384175152894</v>
+        <v>0.29028946080858031</v>
       </c>
       <c r="I65" s="2">
         <f t="shared" si="6"/>
-        <v>2.6355005201101827E-2</v>
+        <v>2.644445408274175E-2</v>
       </c>
       <c r="J65" s="2">
         <f t="shared" si="7"/>
-        <v>0.50658836995539791</v>
+        <v>0.50661072827994336</v>
       </c>
       <c r="K65" s="2">
         <f t="shared" si="8"/>
-        <v>4.1173021894111754E-2</v>
+        <v>4.1286182601072544E-2</v>
       </c>
       <c r="L65" s="2">
         <f t="shared" si="9"/>
-        <v>0.51029180161088894</v>
+        <v>0.51032007976854987</v>
       </c>
       <c r="M65" s="2">
         <f t="shared" si="10"/>
-        <v>0.12877247951836693</v>
+        <v>0.1644640708762013</v>
       </c>
       <c r="N65" s="2">
         <f t="shared" si="11"/>
-        <v>0.17677763142465336</v>
+        <v>0.21273045490203504</v>
       </c>
       <c r="O65" s="2">
         <f t="shared" si="12"/>
-        <v>0.16785786677949607</v>
+        <v>0.21229663708423113</v>
       </c>
       <c r="P65" s="2">
         <f t="shared" si="13"/>
-        <v>0.21541510443461484</v>
+        <v>0.26017912480279565</v>
       </c>
       <c r="Q65" s="2">
         <f t="shared" si="14"/>
-        <v>0.15544281651851644</v>
+        <v>0.19187988543728296</v>
       </c>
       <c r="R65" s="2">
         <f t="shared" si="15"/>
-        <v>0.53878264518664398</v>
+        <v>0.5478233318024387</v>
       </c>
       <c r="S65" s="2">
         <f t="shared" si="16"/>
-        <v>0.19495940485215266</v>
+        <v>0.24032638564809933</v>
       </c>
       <c r="T65" s="2">
         <f t="shared" si="17"/>
-        <v>0.54858605564510288</v>
+        <v>0.55979408031112521</v>
       </c>
       <c r="U65" s="2">
         <f t="shared" si="18"/>
-        <v>7.5204678383655982E-4</v>
+        <v>1.1435355323430722E-3</v>
       </c>
       <c r="V65" s="2">
         <f t="shared" si="19"/>
-        <v>1.1803024015745165E-3</v>
+        <v>1.7876660201266456E-3</v>
       </c>
       <c r="W65" s="6">
         <f t="shared" si="20"/>
-        <v>1.9323491854110763E-3</v>
+        <v>2.931201552469718E-3</v>
       </c>
       <c r="X65" s="2">
         <f t="shared" si="21"/>
-        <v>4.0751155483963815E-5</v>
+        <v>6.3444552818042101E-5</v>
       </c>
       <c r="Y65" s="2">
         <f t="shared" si="22"/>
-        <v>8.150231096792763E-5</v>
+        <v>1.268891056360842E-4</v>
       </c>
       <c r="Z65" s="2">
         <f t="shared" si="23"/>
-        <v>5.3684429702144326E-5</v>
+        <v>7.9408280579681609E-5</v>
       </c>
       <c r="AA65" s="2">
         <f t="shared" si="24"/>
-        <v>1.0736885940428865E-4</v>
+        <v>1.5881656115936322E-4</v>
       </c>
       <c r="AB65" s="2">
         <f t="shared" si="25"/>
-        <v>4.8821585707467885E-3</v>
+        <v>6.0015425083358035E-3</v>
       </c>
       <c r="AC65" s="2">
         <f t="shared" si="26"/>
-        <v>4.9178497584454368E-3</v>
+        <v>6.0454851834402462E-3</v>
       </c>
       <c r="AD65" s="2">
         <f t="shared" si="27"/>
-        <v>6.0951808083276734E-3</v>
+        <v>7.4647755318423183E-3</v>
       </c>
       <c r="AE65" s="2">
         <f t="shared" si="28"/>
-        <v>6.1397398367030974E-3</v>
+        <v>7.5194318481922795E-3</v>
       </c>
     </row>
     <row r="66" spans="1:31" x14ac:dyDescent="0.3">
@@ -8007,111 +8007,111 @@
       </c>
       <c r="E66" s="2">
         <f t="shared" si="2"/>
-        <v>0.14537926964892336</v>
+        <v>0.14572706068871258</v>
       </c>
       <c r="F66" s="2">
         <f t="shared" si="3"/>
-        <v>0.19075853929784664</v>
+        <v>0.19145412137742512</v>
       </c>
       <c r="G66" s="2">
         <f t="shared" si="4"/>
-        <v>0.24463840314674487</v>
+        <v>0.24508120377982642</v>
       </c>
       <c r="H66" s="2">
         <f t="shared" si="5"/>
-        <v>0.28927680629348973</v>
+        <v>0.29016240755965284</v>
       </c>
       <c r="I66" s="2">
         <f t="shared" si="6"/>
-        <v>2.6344817412230836E-2</v>
+        <v>2.6431765172178143E-2</v>
       </c>
       <c r="J66" s="2">
         <f t="shared" si="7"/>
-        <v>0.50658582345022685</v>
+        <v>0.50660755660656365</v>
       </c>
       <c r="K66" s="2">
         <f t="shared" si="8"/>
-        <v>4.1159600786686221E-2</v>
+        <v>4.1270300944956609E-2</v>
       </c>
       <c r="L66" s="2">
         <f t="shared" si="9"/>
-        <v>0.51028844775514892</v>
+        <v>0.51031611104533114</v>
       </c>
       <c r="M66" s="2">
         <f t="shared" si="10"/>
-        <v>0.12389032094762013</v>
+        <v>0.15966283686953264</v>
       </c>
       <c r="N66" s="2">
         <f t="shared" si="11"/>
-        <v>0.17185978166620791</v>
+        <v>0.20789406675528285</v>
       </c>
       <c r="O66" s="2">
         <f t="shared" si="12"/>
-        <v>0.16176268597116841</v>
+        <v>0.20632481665875727</v>
       </c>
       <c r="P66" s="2">
         <f t="shared" si="13"/>
-        <v>0.20927536459791174</v>
+        <v>0.25416357932424183</v>
       </c>
       <c r="Q66" s="2">
         <f t="shared" si="14"/>
-        <v>0.15045914147275108</v>
+        <v>0.1869780913233007</v>
       </c>
       <c r="R66" s="2">
         <f t="shared" si="15"/>
-        <v>0.53754398549422844</v>
+        <v>0.54660881174931297</v>
       </c>
       <c r="S66" s="2">
         <f t="shared" si="16"/>
-        <v>0.18873748443028604</v>
+        <v>0.23422948060489887</v>
       </c>
       <c r="T66" s="2">
         <f t="shared" si="17"/>
-        <v>0.54704480208823825</v>
+        <v>0.55829110924463121</v>
       </c>
       <c r="U66" s="2">
         <f t="shared" si="18"/>
-        <v>7.0477542339541773E-4</v>
+        <v>1.0861906663414474E-3</v>
       </c>
       <c r="V66" s="2">
         <f t="shared" si="19"/>
-        <v>1.1066067017607528E-3</v>
+        <v>1.6989267084847651E-3</v>
       </c>
       <c r="W66" s="6">
         <f t="shared" si="20"/>
-        <v>1.8113821251561704E-3</v>
+        <v>2.7851173748262128E-3</v>
       </c>
       <c r="X66" s="2">
         <f t="shared" si="21"/>
-        <v>3.8017883466220901E-5</v>
+        <v>6.0115968718531474E-5</v>
       </c>
       <c r="Y66" s="2">
         <f t="shared" si="22"/>
-        <v>7.6035766932441802E-5</v>
+        <v>1.2023193743706295E-4</v>
       </c>
       <c r="Z66" s="2">
         <f t="shared" si="23"/>
-        <v>5.05352332343474E-5</v>
+        <v>7.5673064268251601E-5</v>
       </c>
       <c r="AA66" s="2">
         <f t="shared" si="24"/>
-        <v>1.010704664686948E-4</v>
+        <v>1.513461285365032E-4</v>
       </c>
       <c r="AB66" s="2">
         <f t="shared" si="25"/>
-        <v>4.7280041007186583E-3</v>
+        <v>5.851798973806892E-3</v>
       </c>
       <c r="AC66" s="2">
         <f t="shared" si="26"/>
-        <v>4.7625609755594569E-3</v>
+        <v>5.8946363037599868E-3</v>
       </c>
       <c r="AD66" s="2">
         <f t="shared" si="27"/>
-        <v>5.9053116407907207E-3</v>
+        <v>7.2823380608625305E-3</v>
       </c>
       <c r="AE66" s="2">
         <f t="shared" si="28"/>
-        <v>5.9484734297654161E-3</v>
+        <v>7.3356474653276339E-3</v>
       </c>
     </row>
     <row r="67" spans="1:31" x14ac:dyDescent="0.3">
@@ -8129,111 +8129,111 @@
       </c>
       <c r="E67" s="2">
         <f t="shared" si="2"/>
-        <v>0.14534125176545715</v>
+        <v>0.14567896791373774</v>
       </c>
       <c r="F67" s="2">
         <f t="shared" si="3"/>
-        <v>0.1906825035309142</v>
+        <v>0.19135793582747548</v>
       </c>
       <c r="G67" s="2">
         <f t="shared" si="4"/>
-        <v>0.24458786791351053</v>
+        <v>0.24502066532841182</v>
       </c>
       <c r="H67" s="2">
         <f t="shared" si="5"/>
-        <v>0.28917573582702105</v>
+        <v>0.29004133065682364</v>
       </c>
       <c r="I67" s="2">
         <f t="shared" si="6"/>
-        <v>2.6335312941364281E-2</v>
+        <v>2.6419741978434438E-2</v>
       </c>
       <c r="J67" s="2">
         <f t="shared" si="7"/>
-        <v>0.50658344774459951</v>
+        <v>0.50660455133281934</v>
       </c>
       <c r="K67" s="2">
         <f t="shared" si="8"/>
-        <v>4.1146966978377636E-2</v>
+        <v>4.1255166332102952E-2</v>
       </c>
       <c r="L67" s="2">
         <f t="shared" si="9"/>
-        <v>0.5102852906399773</v>
+        <v>0.51031232900218526</v>
       </c>
       <c r="M67" s="2">
         <f t="shared" si="10"/>
-        <v>0.11916231684690147</v>
+        <v>0.15498139769048713</v>
       </c>
       <c r="N67" s="2">
         <f t="shared" si="11"/>
-        <v>0.16709722069064845</v>
+        <v>0.20317835771227485</v>
       </c>
       <c r="O67" s="2">
         <f t="shared" si="12"/>
-        <v>0.15585737433037769</v>
+        <v>0.20049894621006725</v>
       </c>
       <c r="P67" s="2">
         <f t="shared" si="13"/>
-        <v>0.20332689116814631</v>
+        <v>0.24829506135197971</v>
       </c>
       <c r="Q67" s="2">
         <f t="shared" si="14"/>
-        <v>0.1456329111347977</v>
+        <v>0.18219870236891256</v>
       </c>
       <c r="R67" s="2">
         <f t="shared" si="15"/>
-        <v>0.53634401562634393</v>
+        <v>0.5454240855096828</v>
       </c>
       <c r="S67" s="2">
         <f t="shared" si="16"/>
-        <v>0.18270948779936397</v>
+        <v>0.22828170972572345</v>
       </c>
       <c r="T67" s="2">
         <f t="shared" si="17"/>
-        <v>0.54555072499839408</v>
+        <v>0.55682387180946213</v>
       </c>
       <c r="U67" s="2">
         <f t="shared" si="18"/>
-        <v>6.6044373592396579E-4</v>
+        <v>1.0316737721954873E-3</v>
       </c>
       <c r="V67" s="2">
         <f t="shared" si="19"/>
-        <v>1.0374342739396616E-3</v>
+        <v>1.6144762037090927E-3</v>
       </c>
       <c r="W67" s="6">
         <f t="shared" si="20"/>
-        <v>1.6978780098636274E-3</v>
+        <v>2.6461499759045798E-3</v>
       </c>
       <c r="X67" s="2">
         <f t="shared" si="21"/>
-        <v>3.5457757616631231E-5</v>
+        <v>5.6951812172422825E-5</v>
       </c>
       <c r="Y67" s="2">
         <f t="shared" si="22"/>
-        <v>7.0915515233262462E-5</v>
+        <v>1.1390362434484565E-4</v>
       </c>
       <c r="Z67" s="2">
         <f t="shared" si="23"/>
-        <v>4.7572117551844125E-5</v>
+        <v>7.2112026413789955E-5</v>
       </c>
       <c r="AA67" s="2">
         <f t="shared" si="24"/>
-        <v>9.5144235103688249E-5</v>
+        <v>1.4422405282757991E-4</v>
       </c>
       <c r="AB67" s="2">
         <f t="shared" si="25"/>
-        <v>4.578499960431478E-3</v>
+        <v>5.7055302611541403E-3</v>
       </c>
       <c r="AC67" s="2">
         <f t="shared" si="26"/>
-        <v>4.6119572074565639E-3</v>
+        <v>5.7472883496642859E-3</v>
       </c>
       <c r="AD67" s="2">
         <f t="shared" si="27"/>
-        <v>5.7209327326451396E-3</v>
+        <v>7.103855418419157E-3</v>
       </c>
       <c r="AE67" s="2">
         <f t="shared" si="28"/>
-        <v>5.7627382718619556E-3</v>
+        <v>7.1558476802682115E-3</v>
       </c>
     </row>
     <row r="68" spans="1:31" x14ac:dyDescent="0.3">
@@ -8251,111 +8251,111 @@
       </c>
       <c r="E68" s="2">
         <f t="shared" si="2"/>
-        <v>0.14530579400784052</v>
+        <v>0.1456334064639998</v>
       </c>
       <c r="F68" s="2">
         <f t="shared" si="3"/>
-        <v>0.19061158801568095</v>
+        <v>0.1912668129279996</v>
       </c>
       <c r="G68" s="2">
         <f t="shared" si="4"/>
-        <v>0.24454029579595868</v>
+        <v>0.24496297570728079</v>
       </c>
       <c r="H68" s="2">
         <f t="shared" si="5"/>
-        <v>0.28908059159191735</v>
+        <v>0.28992595141456157</v>
       </c>
       <c r="I68" s="2">
         <f t="shared" si="6"/>
-        <v>2.6326448501960125E-2</v>
+        <v>2.6408351615999952E-2</v>
       </c>
       <c r="J68" s="2">
         <f t="shared" si="7"/>
-        <v>0.50658123201881988</v>
+        <v>0.50660170423884532</v>
       </c>
       <c r="K68" s="2">
         <f t="shared" si="8"/>
-        <v>4.1135073948989673E-2</v>
+        <v>4.12407439268202E-2</v>
       </c>
       <c r="L68" s="2">
         <f t="shared" si="9"/>
-        <v>0.51028231864039719</v>
+        <v>0.51030872493406676</v>
       </c>
       <c r="M68" s="2">
         <f t="shared" si="10"/>
-        <v>0.11458381688646999</v>
+        <v>0.15041697348156383</v>
       </c>
       <c r="N68" s="2">
         <f t="shared" si="11"/>
-        <v>0.16248526348319189</v>
+        <v>0.19858052703254342</v>
       </c>
       <c r="O68" s="2">
         <f t="shared" si="12"/>
-        <v>0.15013644159773254</v>
+        <v>0.19481586187533192</v>
       </c>
       <c r="P68" s="2">
         <f t="shared" si="13"/>
-        <v>0.19756415289628435</v>
+        <v>0.24257038320776514</v>
       </c>
       <c r="Q68" s="2">
         <f t="shared" si="14"/>
-        <v>0.14095936812286586</v>
+        <v>0.17753887065892165</v>
       </c>
       <c r="R68" s="2">
         <f t="shared" si="15"/>
-        <v>0.53518160777239199</v>
+        <v>0.54426849992435933</v>
       </c>
       <c r="S68" s="2">
         <f t="shared" si="16"/>
-        <v>0.17686979757564286</v>
+        <v>0.22247983060032522</v>
       </c>
       <c r="T68" s="2">
         <f t="shared" si="17"/>
-        <v>0.54410253792670393</v>
+        <v>0.55539166786073058</v>
       </c>
       <c r="U68" s="2">
         <f t="shared" si="18"/>
-        <v>6.1887276272521612E-4</v>
+        <v>9.7985004277650087E-4</v>
       </c>
       <c r="V68" s="2">
         <f t="shared" si="19"/>
-        <v>9.7251692578817939E-4</v>
+        <v>1.5341184341967464E-3</v>
       </c>
       <c r="W68" s="6">
         <f t="shared" si="20"/>
-        <v>1.5913896885133955E-3</v>
+        <v>2.5139684769732475E-3</v>
       </c>
       <c r="X68" s="2">
         <f t="shared" si="21"/>
-        <v>3.3060418234766649E-5</v>
+        <v>5.3944573200871015E-5</v>
       </c>
       <c r="Y68" s="2">
         <f t="shared" si="22"/>
-        <v>6.6120836469533298E-5</v>
+        <v>1.0788914640174203E-4</v>
       </c>
       <c r="Z68" s="2">
         <f t="shared" si="23"/>
-        <v>4.4784371475998789E-5</v>
+        <v>6.8717475801348041E-5</v>
       </c>
       <c r="AA68" s="2">
         <f t="shared" si="24"/>
-        <v>8.9568742951997578E-5</v>
+        <v>1.3743495160269608E-4</v>
       </c>
       <c r="AB68" s="2">
         <f t="shared" si="25"/>
-        <v>4.4335260281121516E-3</v>
+        <v>5.5626751673636806E-3</v>
       </c>
       <c r="AC68" s="2">
         <f t="shared" si="26"/>
-        <v>4.4659174055101426E-3</v>
+        <v>5.6033796336014997E-3</v>
       </c>
       <c r="AD68" s="2">
         <f t="shared" si="27"/>
-        <v>5.5419244907147606E-3</v>
+        <v>6.9292789649102841E-3</v>
       </c>
       <c r="AE68" s="2">
         <f t="shared" si="28"/>
-        <v>5.5824138363398156E-3</v>
+        <v>6.9799834538825014E-3</v>
       </c>
     </row>
     <row r="69" spans="1:31" x14ac:dyDescent="0.3">
@@ -8373,111 +8373,111 @@
       </c>
       <c r="E69" s="2">
         <f t="shared" si="2"/>
-        <v>0.14527273358960577</v>
+        <v>0.14559025080543911</v>
       </c>
       <c r="F69" s="2">
         <f t="shared" si="3"/>
-        <v>0.19054546717921142</v>
+        <v>0.19118050161087821</v>
       </c>
       <c r="G69" s="2">
         <f t="shared" si="4"/>
-        <v>0.24449551142448267</v>
+        <v>0.24490800172663971</v>
       </c>
       <c r="H69" s="2">
         <f t="shared" si="5"/>
-        <v>0.28899102284896533</v>
+        <v>0.2898160034532794</v>
       </c>
       <c r="I69" s="2">
         <f t="shared" si="6"/>
-        <v>2.6318183397401433E-2</v>
+        <v>2.6397562701359775E-2</v>
       </c>
       <c r="J69" s="2">
         <f t="shared" si="7"/>
-        <v>0.50657916610055109</v>
+        <v>0.50659900748020104</v>
       </c>
       <c r="K69" s="2">
         <f t="shared" si="8"/>
-        <v>4.1123877856120664E-2</v>
+        <v>4.122700043165993E-2</v>
       </c>
       <c r="L69" s="2">
         <f t="shared" si="9"/>
-        <v>0.51027952080057681</v>
+        <v>0.51030529052030882</v>
       </c>
       <c r="M69" s="2">
         <f t="shared" si="10"/>
-        <v>0.11015029085835784</v>
+        <v>0.14596683334767288</v>
       </c>
       <c r="N69" s="2">
         <f t="shared" si="11"/>
-        <v>0.15801934607768175</v>
+        <v>0.19409782332566222</v>
       </c>
       <c r="O69" s="2">
         <f t="shared" si="12"/>
-        <v>0.14459451710701779</v>
+        <v>0.18927243870340371</v>
       </c>
       <c r="P69" s="2">
         <f t="shared" si="13"/>
-        <v>0.19198173905994453</v>
+        <v>0.23698639644465913</v>
       </c>
       <c r="Q69" s="2">
         <f t="shared" si="14"/>
-        <v>0.13643387868250001</v>
+        <v>0.17299579902052065</v>
       </c>
       <c r="R69" s="2">
         <f t="shared" si="15"/>
-        <v>0.53405565947150213</v>
+        <v>0.54314141033659935</v>
       </c>
       <c r="S69" s="2">
         <f t="shared" si="16"/>
-        <v>0.1712129197087548</v>
+        <v>0.21682064147755437</v>
       </c>
       <c r="T69" s="2">
         <f t="shared" si="17"/>
-        <v>0.54269897485712826</v>
+        <v>0.55399379985109864</v>
       </c>
       <c r="U69" s="2">
         <f t="shared" si="18"/>
-        <v>5.7989397101945641E-4</v>
+        <v>9.3059064291542068E-4</v>
       </c>
       <c r="V69" s="2">
         <f t="shared" si="19"/>
-        <v>9.1160122692483553E-4</v>
+        <v>1.4576652111802501E-3</v>
       </c>
       <c r="W69" s="6">
         <f t="shared" si="20"/>
-        <v>1.4914951979442918E-3</v>
+        <v>2.3882558540956706E-3</v>
       </c>
       <c r="X69" s="2">
         <f t="shared" si="21"/>
-        <v>3.0816069119371106E-5</v>
+        <v>5.1087033685324137E-5</v>
       </c>
       <c r="Y69" s="2">
         <f t="shared" si="22"/>
-        <v>6.1632138238742212E-5</v>
+        <v>1.0217406737064827E-4</v>
       </c>
       <c r="Z69" s="2">
         <f t="shared" si="23"/>
-        <v>4.2161851453145713E-5</v>
+        <v>6.5482012024678163E-5</v>
       </c>
       <c r="AA69" s="2">
         <f t="shared" si="24"/>
-        <v>8.4323702906291426E-5</v>
+        <v>1.3096402404935633E-4</v>
       </c>
       <c r="AB69" s="2">
         <f t="shared" si="25"/>
-        <v>4.2929633628313252E-3</v>
+        <v>5.4231720610615711E-3</v>
       </c>
       <c r="AC69" s="2">
         <f t="shared" si="26"/>
-        <v>4.3243217135486896E-3</v>
+        <v>5.4628480381888741E-3</v>
       </c>
       <c r="AD69" s="2">
         <f t="shared" si="27"/>
-        <v>5.3681661505657063E-3</v>
+        <v>6.7585577217683917E-3</v>
       </c>
       <c r="AE69" s="2">
         <f t="shared" si="28"/>
-        <v>5.4073784201871967E-3</v>
+        <v>6.8080033927821835E-3</v>
       </c>
     </row>
     <row r="70" spans="1:31" x14ac:dyDescent="0.3">
@@ -8495,111 +8495,111 @@
       </c>
       <c r="E70" s="2">
         <f t="shared" si="2"/>
-        <v>0.1452419175204864</v>
+        <v>0.14554938117849084</v>
       </c>
       <c r="F70" s="2">
         <f t="shared" si="3"/>
-        <v>0.19048383504097269</v>
+        <v>0.1910987623569817</v>
       </c>
       <c r="G70" s="2">
         <f t="shared" si="4"/>
-        <v>0.24445334957302953</v>
+        <v>0.24485561611701998</v>
       </c>
       <c r="H70" s="2">
         <f t="shared" si="5"/>
-        <v>0.28890669914605904</v>
+        <v>0.28971123223403994</v>
       </c>
       <c r="I70" s="2">
         <f t="shared" si="6"/>
-        <v>2.6310479380121592E-2</v>
+        <v>2.6387345294622715E-2</v>
       </c>
       <c r="J70" s="2">
         <f t="shared" si="7"/>
-        <v>0.50657724042960528</v>
+        <v>0.50659645357328098</v>
       </c>
       <c r="K70" s="2">
         <f t="shared" si="8"/>
-        <v>4.1113337393257385E-2</v>
+        <v>4.1213904029254997E-2</v>
       </c>
       <c r="L70" s="2">
         <f t="shared" si="9"/>
-        <v>0.51027688679837113</v>
+        <v>0.51030201781009099</v>
       </c>
       <c r="M70" s="2">
         <f t="shared" si="10"/>
-        <v>0.10585732749552651</v>
+        <v>0.14162829569882363</v>
       </c>
       <c r="N70" s="2">
         <f t="shared" si="11"/>
-        <v>0.15369502436413307</v>
+        <v>0.18972754489511112</v>
       </c>
       <c r="O70" s="2">
         <f t="shared" si="12"/>
-        <v>0.13922635095645208</v>
+        <v>0.183865592525989</v>
       </c>
       <c r="P70" s="2">
         <f t="shared" si="13"/>
-        <v>0.18657436063975733</v>
+        <v>0.23153999373043338</v>
       </c>
       <c r="Q70" s="2">
         <f t="shared" si="14"/>
-        <v>0.13205193139086643</v>
+        <v>0.16856674132078187</v>
       </c>
       <c r="R70" s="2">
         <f t="shared" si="15"/>
-        <v>0.53296509377803003</v>
+        <v>0.5420421809517636</v>
       </c>
       <c r="S70" s="2">
         <f t="shared" si="16"/>
-        <v>0.16573348456625514</v>
+        <v>0.21130098311219198</v>
       </c>
       <c r="T70" s="2">
         <f t="shared" si="17"/>
-        <v>0.54133879135725105</v>
+        <v>0.55262957377467015</v>
       </c>
       <c r="U70" s="2">
         <f t="shared" si="18"/>
-        <v>5.4334870389715706E-4</v>
+        <v>8.8377248959041694E-4</v>
       </c>
       <c r="V70" s="2">
         <f t="shared" si="19"/>
-        <v>8.54447835439167E-4</v>
+        <v>1.3849360178517238E-3</v>
       </c>
       <c r="W70" s="6">
         <f t="shared" si="20"/>
-        <v>1.3977965393363241E-3</v>
+        <v>2.2687085074421407E-3</v>
       </c>
       <c r="X70" s="2">
         <f t="shared" si="21"/>
-        <v>2.8715453365896184E-5</v>
+        <v>4.8372260940337036E-5</v>
       </c>
       <c r="Y70" s="2">
         <f t="shared" si="22"/>
-        <v>5.7430906731792369E-5</v>
+        <v>9.6744521880674073E-5</v>
       </c>
       <c r="Z70" s="2">
         <f t="shared" si="23"/>
-        <v>3.9694957924135173E-5</v>
+        <v>6.2398519501871379E-5</v>
       </c>
       <c r="AA70" s="2">
         <f t="shared" si="24"/>
-        <v>7.9389915848270345E-5</v>
+        <v>1.2479703900374276E-4</v>
       </c>
       <c r="AB70" s="2">
         <f t="shared" si="25"/>
-        <v>4.1566944011433033E-3</v>
+        <v>5.286959027732299E-3</v>
       </c>
       <c r="AC70" s="2">
         <f t="shared" si="26"/>
-        <v>4.1870516657812043E-3</v>
+        <v>5.32563116243924E-3</v>
       </c>
       <c r="AD70" s="2">
         <f t="shared" si="27"/>
-        <v>5.199536230839341E-3</v>
+        <v>6.5916386520750037E-3</v>
       </c>
       <c r="AE70" s="2">
         <f t="shared" si="28"/>
-        <v>5.2375096015327763E-3</v>
+        <v>6.6398540319475173E-3</v>
       </c>
     </row>
     <row r="71" spans="1:31" x14ac:dyDescent="0.3">
@@ -8617,111 +8617,111 @@
       </c>
       <c r="E71" s="2">
         <f t="shared" si="2"/>
-        <v>0.14521320206712052</v>
+        <v>0.14551068336973857</v>
       </c>
       <c r="F71" s="2">
         <f t="shared" si="3"/>
-        <v>0.19042640413424089</v>
+        <v>0.19102136673947717</v>
       </c>
       <c r="G71" s="2">
         <f t="shared" si="4"/>
-        <v>0.24441365461510539</v>
+        <v>0.24480569730141849</v>
       </c>
       <c r="H71" s="2">
         <f t="shared" si="5"/>
-        <v>0.28882730923021077</v>
+        <v>0.28961139460283697</v>
       </c>
       <c r="I71" s="2">
         <f t="shared" si="6"/>
-        <v>2.6303300516780117E-2</v>
+        <v>2.6377670842434649E-2</v>
       </c>
       <c r="J71" s="2">
         <f t="shared" si="7"/>
-        <v>0.50657544602424343</v>
+        <v>0.50659403538104608</v>
       </c>
       <c r="K71" s="2">
         <f t="shared" si="8"/>
-        <v>4.1103413653776351E-2</v>
+        <v>4.1201424325354619E-2</v>
       </c>
       <c r="L71" s="2">
         <f t="shared" si="9"/>
-        <v>0.51027440691133774</v>
+        <v>0.51029889920820548</v>
       </c>
       <c r="M71" s="2">
         <f t="shared" si="10"/>
-        <v>0.10170063309438321</v>
+        <v>0.13739872847663778</v>
       </c>
       <c r="N71" s="2">
         <f t="shared" si="11"/>
-        <v>0.14950797269835187</v>
+        <v>0.18546703996515973</v>
       </c>
       <c r="O71" s="2">
         <f t="shared" si="12"/>
-        <v>0.13402681472561273</v>
+        <v>0.178592281604329</v>
       </c>
       <c r="P71" s="2">
         <f t="shared" si="13"/>
-        <v>0.18133685103822456</v>
+        <v>0.22622811050487537</v>
       </c>
       <c r="Q71" s="2">
         <f t="shared" si="14"/>
-        <v>0.12780913566790308</v>
+        <v>0.16424900264882986</v>
       </c>
       <c r="R71" s="2">
         <f t="shared" si="15"/>
-        <v>0.53190885933752841</v>
+        <v>0.54097018515016571</v>
       </c>
       <c r="S71" s="2">
         <f t="shared" si="16"/>
-        <v>0.16042624756353555</v>
+        <v>0.20591774038643534</v>
       </c>
       <c r="T71" s="2">
         <f t="shared" si="17"/>
-        <v>0.54002076554665768</v>
+        <v>0.55129830002815627</v>
       </c>
       <c r="U71" s="2">
         <f t="shared" si="18"/>
-        <v>5.0908765211108689E-4</v>
+        <v>8.3927803561942922E-4</v>
       </c>
       <c r="V71" s="2">
         <f t="shared" si="19"/>
-        <v>8.0083083747027107E-4</v>
+        <v>1.315757792889369E-3</v>
       </c>
       <c r="W71" s="6">
         <f t="shared" si="20"/>
-        <v>1.3099184895813579E-3</v>
+        <v>2.1550358285087985E-3</v>
       </c>
       <c r="X71" s="2">
         <f t="shared" si="21"/>
-        <v>2.6749829378598938E-5</v>
+        <v>4.5793600887633718E-5</v>
       </c>
       <c r="Y71" s="2">
         <f t="shared" si="22"/>
-        <v>5.3499658757197877E-5</v>
+        <v>9.1587201775267436E-5</v>
       </c>
       <c r="Z71" s="2">
         <f t="shared" si="23"/>
-        <v>3.737461182779444E-5</v>
+        <v>5.9460161054799817E-5</v>
       </c>
       <c r="AA71" s="2">
         <f t="shared" si="24"/>
-        <v>7.474922365558888E-5</v>
+        <v>1.1892032210959963E-4</v>
       </c>
       <c r="AB71" s="2">
         <f t="shared" si="25"/>
-        <v>4.0246031280432373E-3</v>
+        <v>5.1539740030923497E-3</v>
       </c>
       <c r="AC71" s="2">
         <f t="shared" si="26"/>
-        <v>4.0539903588566253E-3</v>
+        <v>5.1916664560558235E-3</v>
       </c>
       <c r="AD71" s="2">
         <f t="shared" si="27"/>
-        <v>5.0359129417775492E-3</v>
+        <v>6.4284669229943778E-3</v>
       </c>
       <c r="AE71" s="2">
         <f t="shared" si="28"/>
-        <v>5.0726846510039687E-3</v>
+        <v>6.475480099036173E-3</v>
       </c>
     </row>
     <row r="72" spans="1:31" x14ac:dyDescent="0.3">
@@ -8739,111 +8739,111 @@
       </c>
       <c r="E72" s="2">
         <f t="shared" si="2"/>
-        <v>0.14518645223774193</v>
+        <v>0.14547404848902848</v>
       </c>
       <c r="F72" s="2">
         <f t="shared" si="3"/>
-        <v>0.19037290447548369</v>
+        <v>0.19094809697805695</v>
       </c>
       <c r="G72" s="2">
         <f t="shared" si="4"/>
-        <v>0.2443762800032776</v>
+        <v>0.24475812917257464</v>
       </c>
       <c r="H72" s="2">
         <f t="shared" si="5"/>
-        <v>0.28875256000655519</v>
+        <v>0.28951625834514927</v>
       </c>
       <c r="I72" s="2">
         <f t="shared" si="6"/>
-        <v>2.6296613059435467E-2</v>
+        <v>2.6368512122257121E-2</v>
       </c>
       <c r="J72" s="2">
         <f t="shared" si="7"/>
-        <v>0.50657377444897589</v>
+        <v>0.50659174609909652</v>
       </c>
       <c r="K72" s="2">
         <f t="shared" si="8"/>
-        <v>4.1094070000819397E-2</v>
+        <v>4.1189532293143663E-2</v>
       </c>
       <c r="L72" s="2">
         <f t="shared" si="9"/>
-        <v>0.51027207198422242</v>
+        <v>0.51029592746114483</v>
       </c>
       <c r="M72" s="2">
         <f t="shared" si="10"/>
-        <v>9.7676029966339978E-2</v>
+        <v>0.13327554927416391</v>
       </c>
       <c r="N72" s="2">
         <f t="shared" si="11"/>
-        <v>0.14545398233949525</v>
+        <v>0.18131370680031508</v>
       </c>
       <c r="O72" s="2">
         <f t="shared" si="12"/>
-        <v>0.12899090178383518</v>
+        <v>0.17344950806593348</v>
       </c>
       <c r="P72" s="2">
         <f t="shared" si="13"/>
-        <v>0.17626416638722059</v>
+        <v>0.22104772642564643</v>
       </c>
       <c r="Q72" s="2">
         <f t="shared" si="14"/>
-        <v>0.12370122011997084</v>
+        <v>0.16003993939219974</v>
       </c>
       <c r="R72" s="2">
         <f t="shared" si="15"/>
-        <v>0.53088593038279741</v>
+        <v>0.53992480575643809</v>
       </c>
       <c r="S72" s="2">
         <f t="shared" si="16"/>
-        <v>0.15528608938519328</v>
+        <v>0.20066784372070323</v>
       </c>
       <c r="T72" s="2">
         <f t="shared" si="17"/>
-        <v>0.53874369889893914</v>
+        <v>0.54999929419389104</v>
       </c>
       <c r="U72" s="2">
         <f t="shared" si="18"/>
-        <v>4.7697034780550413E-4</v>
+        <v>7.9699505734465593E-4</v>
       </c>
       <c r="V72" s="2">
         <f t="shared" si="19"/>
-        <v>7.5053710218582893E-4</v>
+        <v>1.2499647099436333E-3</v>
       </c>
       <c r="W72" s="6">
         <f t="shared" si="20"/>
-        <v>1.2275074499913331E-3</v>
+        <v>2.0469597672882894E-3</v>
       </c>
       <c r="X72" s="2">
         <f t="shared" si="21"/>
-        <v>2.4910947225237012E-5</v>
+        <v>4.3344670907811928E-5</v>
       </c>
       <c r="Y72" s="2">
         <f t="shared" si="22"/>
-        <v>4.9821894450474024E-5</v>
+        <v>8.6689341815623857E-5</v>
       </c>
       <c r="Z72" s="2">
         <f t="shared" si="23"/>
-        <v>3.5192231373662327E-5</v>
+        <v>5.6660371130901642E-5</v>
       </c>
       <c r="AA72" s="2">
         <f t="shared" si="24"/>
-        <v>7.0384462747324653E-5</v>
+        <v>1.1332074226180328E-4</v>
       </c>
       <c r="AB72" s="2">
         <f t="shared" si="25"/>
-        <v>3.8965752244979664E-3</v>
+        <v>5.0241548953064716E-3</v>
       </c>
       <c r="AC72" s="2">
         <f t="shared" si="26"/>
-        <v>3.9250226003305164E-3</v>
+        <v>5.0608913424881391E-3</v>
       </c>
       <c r="AD72" s="2">
         <f t="shared" si="27"/>
-        <v>4.8771745512395442E-3</v>
+        <v>6.2689861507177966E-3</v>
       </c>
       <c r="AE72" s="2">
         <f t="shared" si="28"/>
-        <v>4.9127809002682439E-3</v>
+        <v>6.3148247610726634E-3</v>
       </c>
     </row>
     <row r="73" spans="1:31" x14ac:dyDescent="0.3">
@@ -8861,111 +8861,111 @@
       </c>
       <c r="E73" s="2">
         <f t="shared" si="2"/>
-        <v>0.1451615412905167</v>
+        <v>0.14543937275230223</v>
       </c>
       <c r="F73" s="2">
         <f t="shared" si="3"/>
-        <v>0.19032308258103323</v>
+        <v>0.19087874550460446</v>
       </c>
       <c r="G73" s="2">
         <f t="shared" si="4"/>
-        <v>0.24434108777190394</v>
+        <v>0.24471280087566991</v>
       </c>
       <c r="H73" s="2">
         <f t="shared" si="5"/>
-        <v>0.28868217554380787</v>
+        <v>0.2894256017513398</v>
       </c>
       <c r="I73" s="2">
         <f t="shared" si="6"/>
-        <v>2.6290385322629159E-2</v>
+        <v>2.6359843188075556E-2</v>
       </c>
       <c r="J73" s="2">
         <f t="shared" si="7"/>
-        <v>0.50657221778383921</v>
+        <v>0.50658957924210224</v>
       </c>
       <c r="K73" s="2">
         <f t="shared" si="8"/>
-        <v>4.1085271942975989E-2</v>
+        <v>4.117820021891748E-2</v>
       </c>
       <c r="L73" s="2">
         <f t="shared" si="9"/>
-        <v>0.51026987339789409</v>
+        <v>0.51029309564352721</v>
       </c>
       <c r="M73" s="2">
         <f t="shared" si="10"/>
-        <v>9.3779454741842017E-2</v>
+        <v>0.12925622535791872</v>
       </c>
       <c r="N73" s="2">
         <f t="shared" si="11"/>
-        <v>0.14152895973916474</v>
+        <v>0.17726499372632457</v>
       </c>
       <c r="O73" s="2">
         <f t="shared" si="12"/>
-        <v>0.12411372723259564</v>
+        <v>0.16843431914535925</v>
       </c>
       <c r="P73" s="2">
         <f t="shared" si="13"/>
-        <v>0.17135138548695233</v>
+        <v>0.2159958666167883</v>
       </c>
       <c r="Q73" s="2">
         <f t="shared" si="14"/>
-        <v>0.11972403073937332</v>
+        <v>0.155936959216327</v>
       </c>
       <c r="R73" s="2">
         <f t="shared" si="15"/>
-        <v>0.5298953066588421</v>
+        <v>0.53890543526857593</v>
       </c>
       <c r="S73" s="2">
         <f t="shared" si="16"/>
-        <v>0.15030801584061537</v>
+        <v>0.19554827028786481</v>
       </c>
       <c r="T73" s="2">
         <f t="shared" si="17"/>
-        <v>0.53750641689236978</v>
+        <v>0.54873187774917609</v>
       </c>
       <c r="U73" s="2">
         <f t="shared" si="18"/>
-        <v>4.4686468011310445E-4</v>
+        <v>7.5681644671867583E-4</v>
       </c>
       <c r="V73" s="2">
         <f t="shared" si="19"/>
-        <v>7.0336565405212047E-4</v>
+        <v>1.1873979544803218E-3</v>
       </c>
       <c r="W73" s="6">
         <f t="shared" si="20"/>
-        <v>1.1502303341652249E-3</v>
+        <v>1.9442144011989977E-3</v>
       </c>
       <c r="X73" s="2">
         <f t="shared" si="21"/>
-        <v>2.3191025440495483E-5</v>
+        <v>4.1019352438733093E-5</v>
       </c>
       <c r="Y73" s="2">
         <f t="shared" si="22"/>
-        <v>4.6382050880990967E-5</v>
+        <v>8.2038704877466186E-5</v>
       </c>
       <c r="Z73" s="2">
         <f t="shared" si="23"/>
-        <v>3.3139709196969308E-5</v>
+        <v>5.3992848738446427E-5</v>
       </c>
       <c r="AA73" s="2">
         <f t="shared" si="24"/>
-        <v>6.6279418393938615E-5</v>
+        <v>1.0798569747689285E-4</v>
       </c>
       <c r="AB73" s="2">
         <f t="shared" si="25"/>
-        <v>3.7724981936536335E-3</v>
+        <v>4.897439696712691E-3</v>
       </c>
       <c r="AC73" s="2">
         <f t="shared" si="26"/>
-        <v>3.800035035657724E-3</v>
+        <v>4.9332433314201018E-3</v>
       </c>
       <c r="AD73" s="2">
         <f t="shared" si="27"/>
-        <v>4.7231997113787103E-3</v>
+        <v>6.1131386286351966E-3</v>
       </c>
       <c r="AE73" s="2">
         <f t="shared" si="28"/>
-        <v>4.7576760709498829E-3</v>
+        <v>6.1578298542407581E-3</v>
       </c>
     </row>
     <row r="74" spans="1:31" x14ac:dyDescent="0.3">
@@ -8983,111 +8983,111 @@
       </c>
       <c r="E74" s="2">
         <f t="shared" si="2"/>
-        <v>0.14513835026507621</v>
+        <v>0.14540655727035123</v>
       </c>
       <c r="F74" s="2">
         <f t="shared" si="3"/>
-        <v>0.19027670053015225</v>
+        <v>0.19081311454070249</v>
       </c>
       <c r="G74" s="2">
         <f t="shared" si="4"/>
-        <v>0.24430794806270698</v>
+        <v>0.24466960659667916</v>
       </c>
       <c r="H74" s="2">
         <f t="shared" si="5"/>
-        <v>0.28861589612541394</v>
+        <v>0.28933921319335831</v>
       </c>
       <c r="I74" s="2">
         <f t="shared" si="6"/>
-        <v>2.6284587566269037E-2</v>
+        <v>2.6351639317587813E-2</v>
       </c>
       <c r="J74" s="2">
         <f t="shared" si="7"/>
-        <v>0.50657076859512251</v>
+        <v>0.50658752863060241</v>
       </c>
       <c r="K74" s="2">
         <f t="shared" si="8"/>
-        <v>4.1076987015676747E-2</v>
+        <v>4.1167401649169794E-2</v>
       </c>
       <c r="L74" s="2">
         <f t="shared" si="9"/>
-        <v>0.51026780303970687</v>
+        <v>0.51029039714487534</v>
       </c>
       <c r="M74" s="2">
         <f t="shared" si="10"/>
-        <v>9.0006956548188383E-2</v>
+        <v>0.12533827360054858</v>
       </c>
       <c r="N74" s="2">
         <f t="shared" si="11"/>
-        <v>0.13772892470350701</v>
+        <v>0.17331839906118848</v>
       </c>
       <c r="O74" s="2">
         <f t="shared" si="12"/>
-        <v>0.11939052752121693</v>
+        <v>0.1635438082424511</v>
       </c>
       <c r="P74" s="2">
         <f t="shared" si="13"/>
-        <v>0.16659370941600246</v>
+        <v>0.2110696027333957</v>
       </c>
       <c r="Q74" s="2">
         <f t="shared" si="14"/>
-        <v>0.11587352898100331</v>
+        <v>0.15193752095557606</v>
       </c>
       <c r="R74" s="2">
         <f t="shared" si="15"/>
-        <v>0.52893601328484574</v>
+        <v>0.53791147604965972</v>
       </c>
       <c r="S74" s="2">
         <f t="shared" si="16"/>
-        <v>0.1454871573933389</v>
+        <v>0.19055604504441598</v>
       </c>
       <c r="T74" s="2">
         <f t="shared" si="17"/>
-        <v>0.53630776952332893</v>
+        <v>0.54749537870631415</v>
       </c>
       <c r="U74" s="2">
         <f t="shared" si="18"/>
-        <v>4.1864643241038457E-4</v>
+        <v>7.1864000813196135E-4</v>
       </c>
       <c r="V74" s="2">
         <f t="shared" si="19"/>
-        <v>6.5912706387958643E-4</v>
+        <v>1.1279054992280998E-3</v>
       </c>
       <c r="W74" s="6">
         <f t="shared" si="20"/>
-        <v>1.0777734962899711E-3</v>
+        <v>1.8465455073600613E-3</v>
       </c>
       <c r="X74" s="2">
         <f t="shared" si="21"/>
-        <v>2.1582728364868572E-5</v>
+        <v>3.881178338274434E-5</v>
       </c>
       <c r="Y74" s="2">
         <f t="shared" si="22"/>
-        <v>4.3165456729737144E-5</v>
+        <v>7.7623566765488679E-5</v>
       </c>
       <c r="Z74" s="2">
         <f t="shared" si="23"/>
-        <v>3.1209389988949587E-5</v>
+        <v>5.145155015946387E-5</v>
       </c>
       <c r="AA74" s="2">
         <f t="shared" si="24"/>
-        <v>6.2418779977899174E-5</v>
+        <v>1.0290310031892774E-4</v>
       </c>
       <c r="AB74" s="2">
         <f t="shared" si="25"/>
-        <v>3.6522614676766955E-3</v>
+        <v>4.7737665856991199E-3</v>
       </c>
       <c r="AC74" s="2">
         <f t="shared" si="26"/>
-        <v>3.6789162556820822E-3</v>
+        <v>4.8086601213383744E-3</v>
       </c>
       <c r="AD74" s="2">
         <f t="shared" si="27"/>
-        <v>4.5738677490062517E-3</v>
+        <v>5.960865539466188E-3</v>
       </c>
       <c r="AE74" s="2">
         <f t="shared" si="28"/>
-        <v>4.6072485669716176E-3</v>
+        <v>6.0044360975167761E-3</v>
       </c>
     </row>
     <row r="75" spans="1:31" x14ac:dyDescent="0.3">
@@ -9105,111 +9105,111 @@
       </c>
       <c r="E75" s="2">
         <f t="shared" si="2"/>
-        <v>0.14511676753671135</v>
+        <v>0.14537550784364503</v>
       </c>
       <c r="F75" s="2">
         <f t="shared" si="3"/>
-        <v>0.1902335350734225</v>
+        <v>0.19075101568729011</v>
       </c>
       <c r="G75" s="2">
         <f t="shared" si="4"/>
-        <v>0.24427673867271801</v>
+        <v>0.24462844535655159</v>
       </c>
       <c r="H75" s="2">
         <f t="shared" si="5"/>
-        <v>0.28855347734543602</v>
+        <v>0.28925689071310318</v>
       </c>
       <c r="I75" s="2">
         <f t="shared" si="6"/>
-        <v>2.6279191884177818E-2</v>
+        <v>2.6343876960911262E-2</v>
       </c>
       <c r="J75" s="2">
         <f t="shared" si="7"/>
-        <v>0.50656941990751059</v>
+        <v>0.50658558837818568</v>
       </c>
       <c r="K75" s="2">
         <f t="shared" si="8"/>
-        <v>4.1069184668179506E-2</v>
+        <v>4.1157111339137901E-2</v>
       </c>
       <c r="L75" s="2">
         <f t="shared" si="9"/>
-        <v>0.51026585327526053</v>
+        <v>0.51028782565675934</v>
       </c>
       <c r="M75" s="2">
         <f t="shared" si="10"/>
-        <v>8.635469508051169E-2</v>
+        <v>0.12151926033198929</v>
       </c>
       <c r="N75" s="2">
         <f t="shared" si="11"/>
-        <v>0.13405000844782491</v>
+        <v>0.16947147096411777</v>
       </c>
       <c r="O75" s="2">
         <f t="shared" si="12"/>
-        <v>0.11481665977221067</v>
+        <v>0.15877511581087814</v>
       </c>
       <c r="P75" s="2">
         <f t="shared" si="13"/>
-        <v>0.16198646084903084</v>
+        <v>0.20626605385538227</v>
       </c>
       <c r="Q75" s="2">
         <f t="shared" si="14"/>
-        <v>0.11214578973541003</v>
+        <v>0.14803913442369498</v>
       </c>
       <c r="R75" s="2">
         <f t="shared" si="15"/>
-        <v>0.52800710056058497</v>
+        <v>0.53694234048508827</v>
       </c>
       <c r="S75" s="2">
         <f t="shared" si="16"/>
-        <v>0.14081876840069707</v>
+        <v>0.1856882415915313</v>
       </c>
       <c r="T75" s="2">
         <f t="shared" si="17"/>
-        <v>0.53514663169557442</v>
+        <v>0.54628913218755915</v>
       </c>
       <c r="U75" s="2">
         <f t="shared" si="18"/>
-        <v>3.9219884090535957E-4</v>
+        <v>6.8236826025809571E-4</v>
       </c>
       <c r="V75" s="2">
         <f t="shared" si="19"/>
-        <v>6.1764285977217799E-4</v>
+        <v>1.071341879338662E-3</v>
       </c>
       <c r="W75" s="6">
         <f t="shared" si="20"/>
-        <v>1.0098417006775375E-3</v>
+        <v>1.7537101395967577E-3</v>
       </c>
       <c r="X75" s="2">
         <f t="shared" si="21"/>
-        <v>2.0079144088585012E-5</v>
+        <v>3.6716350378437776E-5</v>
       </c>
       <c r="Y75" s="2">
         <f t="shared" si="22"/>
-        <v>4.0158288177170024E-5</v>
+        <v>7.3432700756875552E-5</v>
       </c>
       <c r="Z75" s="2">
         <f t="shared" si="23"/>
-        <v>2.9394048677976157E-5</v>
+        <v>4.903068149800924E-5</v>
       </c>
       <c r="AA75" s="2">
         <f t="shared" si="24"/>
-        <v>5.8788097355952314E-5</v>
+        <v>9.8061362996018479E-5</v>
       </c>
       <c r="AB75" s="2">
         <f t="shared" si="25"/>
-        <v>3.5357564970433771E-3</v>
+        <v>4.6530740193501605E-3</v>
       </c>
       <c r="AC75" s="2">
         <f t="shared" si="26"/>
-        <v>3.561556886451597E-3</v>
+        <v>4.6870796928031927E-3</v>
       </c>
       <c r="AD75" s="2">
         <f t="shared" si="27"/>
-        <v>4.4290589225173633E-3</v>
+        <v>5.8121071520907761E-3</v>
       </c>
       <c r="AE75" s="2">
         <f t="shared" si="28"/>
-        <v>4.4613777332183982E-3</v>
+        <v>5.8545832908897958E-3</v>
       </c>
     </row>
     <row r="76" spans="1:31" x14ac:dyDescent="0.3">
@@ -9227,111 +9227,111 @@
       </c>
       <c r="E76" s="2">
         <f t="shared" si="2"/>
-        <v>0.14509668839262277</v>
+        <v>0.14534613476334227</v>
       </c>
       <c r="F76" s="2">
         <f t="shared" si="3"/>
-        <v>0.19019337678524534</v>
+        <v>0.19069226952668461</v>
       </c>
       <c r="G76" s="2">
         <f t="shared" si="4"/>
-        <v>0.24424734462404005</v>
+        <v>0.24458922081135318</v>
       </c>
       <c r="H76" s="2">
         <f t="shared" si="5"/>
-        <v>0.28849468924808008</v>
+        <v>0.28917844162270634</v>
       </c>
       <c r="I76" s="2">
         <f t="shared" si="6"/>
-        <v>2.6274172098155676E-2</v>
+        <v>2.6336533690835578E-2</v>
       </c>
       <c r="J76" s="2">
         <f t="shared" si="7"/>
-        <v>0.50656816517760395</v>
+        <v>0.50658375287905544</v>
       </c>
       <c r="K76" s="2">
         <f t="shared" si="8"/>
-        <v>4.1061836156010015E-2</v>
+        <v>4.1147305202838297E-2</v>
       </c>
       <c r="L76" s="2">
         <f t="shared" si="9"/>
-        <v>0.51026401692152268</v>
+        <v>0.51028537516031236</v>
       </c>
       <c r="M76" s="2">
         <f t="shared" si="10"/>
-        <v>8.281893858346831E-2</v>
+        <v>0.11779680111650916</v>
       </c>
       <c r="N76" s="2">
         <f t="shared" si="11"/>
-        <v>0.13048845156137331</v>
+        <v>0.16572180720987523</v>
       </c>
       <c r="O76" s="2">
         <f t="shared" si="12"/>
-        <v>0.1103876008496933</v>
+        <v>0.15412543008920551</v>
       </c>
       <c r="P76" s="2">
         <f t="shared" si="13"/>
-        <v>0.15752508311581245</v>
+        <v>0.20158238722267044</v>
       </c>
       <c r="Q76" s="2">
         <f t="shared" si="14"/>
-        <v>0.1085369992157601</v>
+        <v>0.14423936015108507</v>
       </c>
       <c r="R76" s="2">
         <f t="shared" si="15"/>
-        <v>0.52710764372406871</v>
+        <v>0.5359974511080009</v>
       </c>
       <c r="S76" s="2">
         <f t="shared" si="16"/>
-        <v>0.13629822609735803</v>
+        <v>0.18094198287831997</v>
       </c>
       <c r="T76" s="2">
         <f t="shared" si="17"/>
-        <v>0.53402190349755729</v>
+        <v>0.5451124809390695</v>
       </c>
       <c r="U76" s="2">
         <f t="shared" si="18"/>
-        <v>3.6741217413552079E-4</v>
+        <v>6.4790824313645757E-4</v>
       </c>
       <c r="V76" s="2">
         <f t="shared" si="19"/>
-        <v>5.7874495879855061E-4</v>
+        <v>1.0175679682389545E-3</v>
       </c>
       <c r="W76" s="6">
         <f t="shared" si="20"/>
-        <v>9.461571329340714E-4</v>
+        <v>1.6654762113754121E-3</v>
       </c>
       <c r="X76" s="2">
         <f t="shared" si="21"/>
-        <v>1.867376305512697E-5</v>
+        <v>3.4727680986664074E-5</v>
       </c>
       <c r="Y76" s="2">
         <f t="shared" si="22"/>
-        <v>3.7347526110253941E-5</v>
+        <v>6.9455361973328147E-5</v>
       </c>
       <c r="Z76" s="2">
         <f t="shared" si="23"/>
-        <v>2.7686869221527274E-5</v>
+        <v>4.6724691115380706E-5</v>
       </c>
       <c r="AA76" s="2">
         <f t="shared" si="24"/>
-        <v>5.5373738443054548E-5</v>
+        <v>9.3449382230761412E-5</v>
       </c>
       <c r="AB76" s="2">
         <f t="shared" si="25"/>
-        <v>3.422876823956473E-3</v>
+        <v>4.5353008174547297E-3</v>
       </c>
       <c r="AC76" s="2">
         <f t="shared" si="26"/>
-        <v>3.4478496630503059E-3</v>
+        <v>4.5684403930188536E-3</v>
       </c>
       <c r="AD76" s="2">
         <f t="shared" si="27"/>
-        <v>4.2886546481016464E-3</v>
+        <v>5.6668030038214204E-3</v>
       </c>
       <c r="AE76" s="2">
         <f t="shared" si="28"/>
-        <v>4.3199440832652125E-3</v>
+        <v>5.7082104989162087E-3</v>
       </c>
     </row>
     <row r="77" spans="1:31" x14ac:dyDescent="0.3">
@@ -9349,111 +9349,111 @@
       </c>
       <c r="E77" s="2">
         <f t="shared" si="2"/>
-        <v>0.14507801462956765</v>
+        <v>0.14531835261855294</v>
       </c>
       <c r="F77" s="2">
         <f t="shared" si="3"/>
-        <v>0.19015602925913508</v>
+        <v>0.19063670523710594</v>
       </c>
       <c r="G77" s="2">
         <f t="shared" si="4"/>
-        <v>0.24421965775481852</v>
+        <v>0.24455184105846087</v>
       </c>
       <c r="H77" s="2">
         <f t="shared" si="5"/>
-        <v>0.28843931550963703</v>
+        <v>0.28910368211692172</v>
       </c>
       <c r="I77" s="2">
         <f t="shared" si="6"/>
-        <v>2.6269503657391891E-2</v>
+        <v>2.6329588154638241E-2</v>
       </c>
       <c r="J77" s="2">
         <f t="shared" si="7"/>
-        <v>0.50656699826877738</v>
+        <v>0.50658201679598669</v>
       </c>
       <c r="K77" s="2">
         <f t="shared" si="8"/>
-        <v>4.1054914438704633E-2</v>
+        <v>4.113796026461522E-2</v>
       </c>
       <c r="L77" s="2">
         <f t="shared" si="9"/>
-        <v>0.51026228722127676</v>
+        <v>0.51028303991412327</v>
       </c>
       <c r="M77" s="2">
         <f t="shared" si="10"/>
-        <v>7.9396061759511832E-2</v>
+        <v>0.11416856046254537</v>
       </c>
       <c r="N77" s="2">
         <f t="shared" si="11"/>
-        <v>0.127040601898323</v>
+        <v>0.16206705489546014</v>
       </c>
       <c r="O77" s="2">
         <f t="shared" si="12"/>
-        <v>0.10609894620159166</v>
+        <v>0.14959198768614837</v>
       </c>
       <c r="P77" s="2">
         <f t="shared" si="13"/>
-        <v>0.15320513903254723</v>
+        <v>0.19701581882353747</v>
       </c>
       <c r="Q77" s="2">
         <f t="shared" si="14"/>
-        <v>0.10504345277448435</v>
+        <v>0.14053580905579527</v>
       </c>
       <c r="R77" s="2">
         <f t="shared" si="15"/>
-        <v>0.52623674266659726</v>
+        <v>0.53507624069541326</v>
       </c>
       <c r="S77" s="2">
         <f t="shared" si="16"/>
-        <v>0.13192102935362204</v>
+        <v>0.17631444175901428</v>
       </c>
       <c r="T77" s="2">
         <f t="shared" si="17"/>
-        <v>0.53293251037906608</v>
+        <v>0.54396477578779734</v>
       </c>
       <c r="U77" s="2">
         <f t="shared" si="18"/>
-        <v>3.4418333287662245E-4</v>
+        <v>6.1517133066128272E-4</v>
       </c>
       <c r="V77" s="2">
         <f t="shared" si="19"/>
-        <v>5.4227511993364759E-4</v>
+        <v>9.6645075503564554E-4</v>
       </c>
       <c r="W77" s="6">
         <f t="shared" si="20"/>
-        <v>8.8645845281027009E-4</v>
+        <v>1.5816220856969283E-3</v>
       </c>
       <c r="X77" s="2">
         <f t="shared" si="21"/>
-        <v>1.7360457365754027E-5</v>
+        <v>3.2840635834963637E-5</v>
       </c>
       <c r="Y77" s="2">
         <f t="shared" si="22"/>
-        <v>3.4720914731508055E-5</v>
+        <v>6.5681271669927274E-5</v>
       </c>
       <c r="Z77" s="2">
         <f t="shared" si="23"/>
-        <v>2.6081424055430147E-5</v>
+        <v>4.4528261998273457E-5</v>
       </c>
       <c r="AA77" s="2">
         <f t="shared" si="24"/>
-        <v>5.2162848110860295E-5</v>
+        <v>8.9056523996546914E-5</v>
       </c>
       <c r="AB77" s="2">
         <f t="shared" si="25"/>
-        <v>3.3135181414411935E-3</v>
+        <v>4.420386238443103E-3</v>
       </c>
       <c r="AC77" s="2">
         <f t="shared" si="26"/>
-        <v>3.337689489009866E-3</v>
+        <v>4.4526810122746804E-3</v>
       </c>
       <c r="AD77" s="2">
         <f t="shared" si="27"/>
-        <v>4.1525376978013675E-3</v>
+        <v>5.5248920688535296E-3</v>
       </c>
       <c r="AE77" s="2">
         <f t="shared" si="28"/>
-        <v>4.1828294987516154E-3</v>
+        <v>5.5652562203513728E-3</v>
       </c>
     </row>
     <row r="78" spans="1:31" x14ac:dyDescent="0.3">
@@ -9471,111 +9471,111 @@
       </c>
       <c r="E78" s="2">
         <f t="shared" si="2"/>
-        <v>0.1450606541722019</v>
+        <v>0.14529208010988498</v>
       </c>
       <c r="F78" s="2">
         <f t="shared" si="3"/>
-        <v>0.19012130834440358</v>
+        <v>0.19058416021976998</v>
       </c>
       <c r="G78" s="2">
         <f t="shared" si="4"/>
-        <v>0.24419357633076308</v>
+        <v>0.24451621844886226</v>
       </c>
       <c r="H78" s="2">
         <f t="shared" si="5"/>
-        <v>0.28838715266152615</v>
+        <v>0.28903243689772451</v>
       </c>
       <c r="I78" s="2">
         <f t="shared" si="6"/>
-        <v>2.6265163543050453E-2</v>
+        <v>2.6323020027471247E-2</v>
       </c>
       <c r="J78" s="2">
         <f t="shared" si="7"/>
-        <v>0.50656591342733059</v>
+        <v>0.50658037504867448</v>
       </c>
       <c r="K78" s="2">
         <f t="shared" si="8"/>
-        <v>4.1048394082690773E-2</v>
+        <v>4.1129054612215568E-2</v>
       </c>
       <c r="L78" s="2">
         <f t="shared" si="9"/>
-        <v>0.51026065781885255</v>
+        <v>0.51028081444251139</v>
       </c>
       <c r="M78" s="2">
         <f t="shared" si="10"/>
-        <v>7.6082543618070639E-2</v>
+        <v>0.11063225147179089</v>
       </c>
       <c r="N78" s="2">
         <f t="shared" si="11"/>
-        <v>0.12370291240931314</v>
+        <v>0.15850491008564038</v>
       </c>
       <c r="O78" s="2">
         <f t="shared" si="12"/>
-        <v>0.10194640850379029</v>
+        <v>0.14517207403106555</v>
       </c>
       <c r="P78" s="2">
         <f t="shared" si="13"/>
-        <v>0.14902230953379561</v>
+        <v>0.19256361384725637</v>
       </c>
       <c r="Q78" s="2">
         <f t="shared" si="14"/>
-        <v>0.10166155266384669</v>
+        <v>0.13692614205469672</v>
       </c>
       <c r="R78" s="2">
         <f t="shared" si="15"/>
-        <v>0.5253935216108776</v>
+        <v>0.53417815233744059</v>
       </c>
       <c r="S78" s="2">
         <f t="shared" si="16"/>
-        <v>0.12768279723675752</v>
+        <v>0.17180284141522237</v>
       </c>
       <c r="T78" s="2">
         <f t="shared" si="17"/>
-        <v>0.53187740323764499</v>
+        <v>0.54284537604508942</v>
       </c>
       <c r="U78" s="2">
         <f t="shared" si="18"/>
-        <v>3.2241546990105388E-4</v>
+        <v>5.8407304860064798E-4</v>
       </c>
       <c r="V78" s="2">
         <f t="shared" si="19"/>
-        <v>5.0808441858770953E-4</v>
+        <v>9.1786312422256126E-4</v>
       </c>
       <c r="W78" s="6">
         <f t="shared" si="20"/>
-        <v>8.3049988848876342E-4</v>
+        <v>1.5019361728232092E-3</v>
       </c>
       <c r="X78" s="2">
         <f t="shared" si="21"/>
-        <v>1.6133460815031234E-5</v>
+        <v>3.1050300759450218E-5</v>
       </c>
       <c r="Y78" s="2">
         <f t="shared" si="22"/>
-        <v>3.2266921630062468E-5</v>
+        <v>6.2100601518900436E-5</v>
       </c>
       <c r="Z78" s="2">
         <f t="shared" si="23"/>
-        <v>2.4571654235012295E-5</v>
+        <v>4.243630410064893E-5</v>
       </c>
       <c r="AA78" s="2">
         <f t="shared" si="24"/>
-        <v>4.9143308470024589E-5</v>
+        <v>8.4872608201297861E-5</v>
       </c>
       <c r="AB78" s="2">
         <f t="shared" si="25"/>
-        <v>3.2075783395491822E-3</v>
+        <v>4.3082700477925064E-3</v>
       </c>
       <c r="AC78" s="2">
         <f t="shared" si="26"/>
-        <v>3.2309734827403887E-3</v>
+        <v>4.3397408528007093E-3</v>
       </c>
       <c r="AD78" s="2">
         <f t="shared" si="27"/>
-        <v>4.0205923718255529E-3</v>
+        <v>5.3863129136222029E-3</v>
       </c>
       <c r="AE78" s="2">
         <f t="shared" si="28"/>
-        <v>4.0499174028287089E-3</v>
+        <v>5.4256585445917899E-3</v>
       </c>
     </row>
     <row r="79" spans="1:31" x14ac:dyDescent="0.3">
@@ -9593,111 +9593,111 @@
       </c>
       <c r="E79" s="2">
         <f t="shared" si="2"/>
-        <v>0.14504452071138688</v>
+        <v>0.14526723986927742</v>
       </c>
       <c r="F79" s="2">
         <f t="shared" si="3"/>
-        <v>0.19008904142277352</v>
+        <v>0.19053447973855486</v>
       </c>
       <c r="G79" s="2">
         <f t="shared" si="4"/>
-        <v>0.24416900467652808</v>
+        <v>0.24448226940558174</v>
       </c>
       <c r="H79" s="2">
         <f t="shared" si="5"/>
-        <v>0.28833800935305615</v>
+        <v>0.28896453881116346</v>
       </c>
       <c r="I79" s="2">
         <f t="shared" si="6"/>
-        <v>2.6261130177846696E-2</v>
+        <v>2.631680996731936E-2</v>
       </c>
       <c r="J79" s="2">
         <f t="shared" si="7"/>
-        <v>0.50656490525988629</v>
+        <v>0.50657882280247701</v>
       </c>
       <c r="K79" s="2">
         <f t="shared" si="8"/>
-        <v>4.1042251169132023E-2</v>
+        <v>4.1120567351395437E-2</v>
       </c>
       <c r="L79" s="2">
         <f t="shared" si="9"/>
-        <v>0.51025912273709884</v>
+        <v>0.51027869352418365</v>
       </c>
       <c r="M79" s="2">
         <f t="shared" si="10"/>
-        <v>7.2874965278521456E-2</v>
+        <v>0.10718563543355689</v>
       </c>
       <c r="N79" s="2">
         <f t="shared" si="11"/>
-        <v>0.12047193892657275</v>
+        <v>0.15503311740339981</v>
       </c>
       <c r="O79" s="2">
         <f t="shared" si="12"/>
-        <v>9.7925816131964744E-2</v>
+        <v>0.14086302370016779</v>
       </c>
       <c r="P79" s="2">
         <f t="shared" si="13"/>
-        <v>0.14497239213096691</v>
+        <v>0.18822308701158294</v>
       </c>
       <c r="Q79" s="2">
         <f t="shared" si="14"/>
-        <v>9.8387805753242075E-2</v>
+        <v>0.13340806962085494</v>
       </c>
       <c r="R79" s="2">
         <f t="shared" si="15"/>
-        <v>0.52457712875731832</v>
+        <v>0.53330263948183965</v>
       </c>
       <c r="S79" s="2">
         <f t="shared" si="16"/>
-        <v>0.12357926740123162</v>
+        <v>0.1674044556537877</v>
       </c>
       <c r="T79" s="2">
         <f t="shared" si="17"/>
-        <v>0.5308555584244119</v>
+        <v>0.54175364986061292</v>
       </c>
       <c r="U79" s="2">
         <f t="shared" si="18"/>
-        <v>3.0201762897690167E-4</v>
+        <v>5.5453289822869243E-4</v>
       </c>
       <c r="V79" s="2">
         <f t="shared" si="19"/>
-        <v>4.7603274284114806E-4</v>
+        <v>8.7168363834133058E-4</v>
       </c>
       <c r="W79" s="6">
         <f t="shared" si="20"/>
-        <v>7.7805037181804973E-4</v>
+        <v>1.4262165365700229E-3</v>
       </c>
       <c r="X79" s="2">
         <f t="shared" si="21"/>
-        <v>1.4987349677498836E-5</v>
+        <v>2.9351978978461147E-5</v>
       </c>
       <c r="Y79" s="2">
         <f t="shared" si="22"/>
-        <v>2.9974699354997671E-5</v>
+        <v>5.8703957956922294E-5</v>
       </c>
       <c r="Z79" s="2">
         <f t="shared" si="23"/>
-        <v>2.3151850292547031E-5</v>
+        <v>4.0443946695296651E-5</v>
       </c>
       <c r="AA79" s="2">
         <f t="shared" si="24"/>
-        <v>4.6303700585094061E-5</v>
+        <v>8.0887893390593302E-5</v>
       </c>
       <c r="AB79" s="2">
         <f t="shared" si="25"/>
-        <v>3.1049575399854537E-3</v>
+        <v>4.1988925794155044E-3</v>
       </c>
       <c r="AC79" s="2">
         <f t="shared" si="26"/>
-        <v>3.1276010123048249E-3</v>
+        <v>4.2295597905559678E-3</v>
       </c>
       <c r="AD79" s="2">
         <f t="shared" si="27"/>
-        <v>3.8927046473725339E-3</v>
+        <v>5.251003839779729E-3</v>
       </c>
       <c r="AE79" s="2">
         <f t="shared" si="28"/>
-        <v>3.9210929099478351E-3</v>
+        <v>5.2893552956477241E-3</v>
       </c>
     </row>
     <row r="80" spans="1:31" x14ac:dyDescent="0.3">
@@ -9715,111 +9715,111 @@
       </c>
       <c r="E80" s="2">
         <f t="shared" si="2"/>
-        <v>0.14502953336170937</v>
+        <v>0.14524375828609465</v>
       </c>
       <c r="F80" s="2">
         <f t="shared" si="3"/>
-        <v>0.19005906672341852</v>
+        <v>0.19048751657218932</v>
       </c>
       <c r="G80" s="2">
         <f t="shared" si="4"/>
-        <v>0.24414585282623552</v>
+        <v>0.24444991424822549</v>
       </c>
       <c r="H80" s="2">
         <f t="shared" si="5"/>
-        <v>0.28829170565247103</v>
+        <v>0.28889982849645096</v>
       </c>
       <c r="I80" s="2">
         <f t="shared" si="6"/>
-        <v>2.625738334042732E-2</v>
+        <v>2.6310939571523667E-2</v>
       </c>
       <c r="J80" s="2">
         <f t="shared" si="7"/>
-        <v>0.5065639687119895</v>
+        <v>0.50657735545754756</v>
       </c>
       <c r="K80" s="2">
         <f t="shared" si="8"/>
-        <v>4.1036463206558876E-2</v>
+        <v>4.1112478562056375E-2</v>
       </c>
       <c r="L80" s="2">
         <f t="shared" si="9"/>
-        <v>0.51025767635555042</v>
+        <v>0.51027667218127382</v>
       </c>
       <c r="M80" s="2">
         <f t="shared" si="10"/>
-        <v>6.9770007738536005E-2</v>
+        <v>0.10382652137002449</v>
       </c>
       <c r="N80" s="2">
         <f t="shared" si="11"/>
-        <v>0.11734433791426792</v>
+        <v>0.15164946957095504</v>
       </c>
       <c r="O80" s="2">
         <f t="shared" si="12"/>
-        <v>9.4033111484592216E-2</v>
+        <v>0.13666222062834402</v>
       </c>
       <c r="P80" s="2">
         <f t="shared" si="13"/>
-        <v>0.14105129922101908</v>
+        <v>0.18399160277506477</v>
       </c>
       <c r="Q80" s="2">
         <f t="shared" si="14"/>
-        <v>9.5218821214713881E-2</v>
+        <v>0.12997935129270585</v>
       </c>
       <c r="R80" s="2">
         <f t="shared" si="15"/>
-        <v>0.52378673590315217</v>
+        <v>0.53244916595596237</v>
       </c>
       <c r="S80" s="2">
         <f t="shared" si="16"/>
-        <v>0.11960629433142064</v>
+        <v>0.1631166090902213</v>
       </c>
       <c r="T80" s="2">
         <f t="shared" si="17"/>
-        <v>0.52986597767814114</v>
+        <v>0.54068897453005593</v>
       </c>
       <c r="U80" s="2">
         <f t="shared" si="18"/>
-        <v>2.8290440246315417E-4</v>
+        <v>5.2647418561879353E-4</v>
       </c>
       <c r="V80" s="2">
         <f t="shared" si="19"/>
-        <v>4.4598831133561248E-4</v>
+        <v>8.2779632415377023E-4</v>
       </c>
       <c r="W80" s="6">
         <f t="shared" si="20"/>
-        <v>7.288927137987667E-4</v>
+        <v>1.3542705097725639E-3</v>
       </c>
       <c r="X80" s="2">
         <f t="shared" si="21"/>
-        <v>1.3917024257159165E-5</v>
+        <v>2.7741183327957918E-5</v>
       </c>
       <c r="Y80" s="2">
         <f t="shared" si="22"/>
-        <v>2.783404851431833E-5</v>
+        <v>5.5482366655915836E-5</v>
       </c>
       <c r="Z80" s="2">
         <f t="shared" si="23"/>
-        <v>2.1816633826559606E-5</v>
+        <v>3.8546530766655243E-5</v>
       </c>
       <c r="AA80" s="2">
         <f t="shared" si="24"/>
-        <v>4.3633267653119212E-5</v>
+        <v>7.7093061533310486E-5</v>
       </c>
       <c r="AB80" s="2">
         <f t="shared" si="25"/>
-        <v>3.0055581203654006E-3</v>
+        <v>4.0921947905192321E-3</v>
       </c>
       <c r="AC80" s="2">
         <f t="shared" si="26"/>
-        <v>3.0274737197527549E-3</v>
+        <v>4.1220783304410672E-3</v>
       </c>
       <c r="AD80" s="2">
         <f t="shared" si="27"/>
-        <v>3.7687623060635466E-3</v>
+        <v>5.1189030154916611E-3</v>
       </c>
       <c r="AE80" s="2">
         <f t="shared" si="28"/>
-        <v>3.7962429541089785E-3</v>
+        <v>5.1562841643494443E-3</v>
       </c>
     </row>
     <row r="81" spans="1:31" x14ac:dyDescent="0.3">
@@ -9837,111 +9837,111 @@
       </c>
       <c r="E81" s="2">
         <f t="shared" si="2"/>
-        <v>0.14501561633745222</v>
+        <v>0.14522156533943228</v>
       </c>
       <c r="F81" s="2">
         <f t="shared" si="3"/>
-        <v>0.19003123267490421</v>
+        <v>0.19044313067886459</v>
       </c>
       <c r="G81" s="2">
         <f t="shared" si="4"/>
-        <v>0.24412403619240897</v>
+        <v>0.24441907702361215</v>
       </c>
       <c r="H81" s="2">
         <f t="shared" si="5"/>
-        <v>0.28824807238481792</v>
+        <v>0.28883815404722429</v>
       </c>
       <c r="I81" s="2">
         <f t="shared" si="6"/>
-        <v>2.6253904084363032E-2</v>
+        <v>2.6305391334858076E-2</v>
       </c>
       <c r="J81" s="2">
         <f t="shared" si="7"/>
-        <v>0.50656309904785968</v>
+        <v>0.50657596863835608</v>
       </c>
       <c r="K81" s="2">
         <f t="shared" si="8"/>
-        <v>4.1031009048102245E-2</v>
+        <v>4.1104769255903034E-2</v>
       </c>
       <c r="L81" s="2">
         <f t="shared" si="9"/>
-        <v>0.51025631338974609</v>
+        <v>0.51027474566876263</v>
       </c>
       <c r="M81" s="2">
         <f t="shared" si="10"/>
-        <v>6.6764449618170602E-2</v>
+        <v>0.1005527655376091</v>
       </c>
       <c r="N81" s="2">
         <f t="shared" si="11"/>
-        <v>0.11431686419451516</v>
+        <v>0.14835180690660218</v>
       </c>
       <c r="O81" s="2">
         <f t="shared" si="12"/>
-        <v>9.0264349178528672E-2</v>
+        <v>0.1325670982159507</v>
       </c>
       <c r="P81" s="2">
         <f t="shared" si="13"/>
-        <v>0.13725505626691009</v>
+        <v>0.1798665754435852</v>
       </c>
       <c r="Q81" s="2">
         <f t="shared" si="14"/>
-        <v>9.2151308186974756E-2</v>
+        <v>0.12663779514024764</v>
       </c>
       <c r="R81" s="2">
         <f t="shared" si="15"/>
-        <v>0.52302153803859619</v>
+        <v>0.53161720596808215</v>
       </c>
       <c r="S81" s="2">
         <f t="shared" si="16"/>
-        <v>0.11575984745826931</v>
+        <v>0.15893667722710805</v>
       </c>
       <c r="T81" s="2">
         <f t="shared" si="17"/>
-        <v>0.52890768799574484</v>
+        <v>0.53965073675988784</v>
       </c>
       <c r="U81" s="2">
         <f t="shared" si="18"/>
-        <v>2.6499560683126565E-4</v>
+        <v>4.9982385661406477E-4</v>
       </c>
       <c r="V81" s="2">
         <f t="shared" si="19"/>
-        <v>4.1782721262966502E-4</v>
+        <v>7.8609046280096035E-4</v>
       </c>
       <c r="W81" s="6">
         <f t="shared" si="20"/>
-        <v>6.8282281946093067E-4</v>
+        <v>1.2859143194150252E-3</v>
       </c>
       <c r="X81" s="2">
         <f t="shared" si="21"/>
-        <v>1.2917691204236097E-5</v>
+        <v>2.6213628584699551E-5</v>
       </c>
       <c r="Y81" s="2">
         <f t="shared" si="22"/>
-        <v>2.5835382408472193E-5</v>
+        <v>5.2427257169399103E-5</v>
       </c>
       <c r="Z81" s="2">
         <f t="shared" si="23"/>
-        <v>2.0560939831003101E-5</v>
+        <v>3.6739601472416999E-5</v>
       </c>
       <c r="AA81" s="2">
         <f t="shared" si="24"/>
-        <v>4.1121879662006202E-5</v>
+        <v>7.3479202944833999E-5</v>
       </c>
       <c r="AB81" s="2">
         <f t="shared" si="25"/>
-        <v>2.9092847292084695E-3</v>
+        <v>3.9881183103979657E-3</v>
       </c>
       <c r="AC81" s="2">
         <f t="shared" si="26"/>
-        <v>2.9304955361281592E-3</v>
+        <v>4.0172376554010337E-3</v>
       </c>
       <c r="AD81" s="2">
         <f t="shared" si="27"/>
-        <v>3.6486550419429246E-3</v>
+        <v>4.9899485957300479E-3</v>
       </c>
       <c r="AE81" s="2">
         <f t="shared" si="28"/>
-        <v>3.6752563975387584E-3</v>
+        <v>5.0263828294707562E-3</v>
       </c>
     </row>
     <row r="82" spans="1:31" x14ac:dyDescent="0.3">
@@ -9959,111 +9959,111 @@
       </c>
       <c r="E82" s="2">
         <f t="shared" si="2"/>
-        <v>0.14500269864624798</v>
+        <v>0.14520059443656452</v>
       </c>
       <c r="F82" s="2">
         <f t="shared" si="3"/>
-        <v>0.19000539729249574</v>
+        <v>0.19040118887312907</v>
       </c>
       <c r="G82" s="2">
         <f t="shared" si="4"/>
-        <v>0.24410347525257797</v>
+        <v>0.24438968534243422</v>
       </c>
       <c r="H82" s="2">
         <f t="shared" si="5"/>
-        <v>0.28820695050515593</v>
+        <v>0.28877937068486842</v>
       </c>
       <c r="I82" s="2">
         <f t="shared" si="6"/>
-        <v>2.6250674661561973E-2</v>
+        <v>2.6300148609141136E-2</v>
       </c>
       <c r="J82" s="2">
         <f t="shared" si="7"/>
-        <v>0.50656229183124735</v>
+        <v>0.50657465818359482</v>
       </c>
       <c r="K82" s="2">
         <f t="shared" si="8"/>
-        <v>4.1025868813144496E-2</v>
+        <v>4.1097421335608557E-2</v>
       </c>
       <c r="L82" s="2">
         <f t="shared" si="9"/>
-        <v>0.51025502887165042</v>
+        <v>0.51027290946427328</v>
       </c>
       <c r="M82" s="2">
         <f t="shared" si="10"/>
-        <v>6.3855164888962132E-2</v>
+        <v>9.7362270889290725E-2</v>
       </c>
       <c r="N82" s="2">
         <f t="shared" si="11"/>
-        <v>0.111386368658387</v>
+        <v>0.14513801678228136</v>
       </c>
       <c r="O82" s="2">
         <f t="shared" si="12"/>
-        <v>8.661569413658575E-2</v>
+        <v>0.12857513933936665</v>
       </c>
       <c r="P82" s="2">
         <f t="shared" si="13"/>
-        <v>0.13357979986937132</v>
+        <v>0.1758454691800086</v>
       </c>
       <c r="Q82" s="2">
         <f t="shared" si="14"/>
-        <v>8.9182073427108405E-2</v>
+        <v>0.12338125719309023</v>
       </c>
       <c r="R82" s="2">
         <f t="shared" si="15"/>
-        <v>0.52228075292384835</v>
+        <v>0.53080624408992616</v>
       </c>
       <c r="S82" s="2">
         <f t="shared" si="16"/>
-        <v>0.11203600916939857</v>
+        <v>0.15486208643634092</v>
       </c>
       <c r="T82" s="2">
         <f t="shared" si="17"/>
-        <v>0.52797974144661175</v>
+        <v>0.53863833289229957</v>
       </c>
       <c r="U82" s="2">
         <f t="shared" si="18"/>
-        <v>2.4821597542678831E-4</v>
+        <v>4.7451233746405525E-4</v>
       </c>
       <c r="V82" s="2">
         <f t="shared" si="19"/>
-        <v>3.9143296570962169E-4</v>
+        <v>7.4646038434807919E-4</v>
       </c>
       <c r="W82" s="6">
         <f t="shared" si="20"/>
-        <v>6.3964894113640995E-4</v>
+        <v>1.2209727218121344E-3</v>
       </c>
       <c r="X82" s="2">
         <f t="shared" si="21"/>
-        <v>1.198484659755468E-5</v>
+        <v>2.4765223899599315E-5</v>
       </c>
       <c r="Y82" s="2">
         <f t="shared" si="22"/>
-        <v>2.396969319510936E-5</v>
+        <v>4.953044779919863E-5</v>
       </c>
       <c r="Z82" s="2">
         <f t="shared" si="23"/>
-        <v>1.9379999765890814E-5</v>
+        <v>3.5018900697748877E-5</v>
       </c>
       <c r="AA82" s="2">
         <f t="shared" si="24"/>
-        <v>3.8759999531781628E-5</v>
+        <v>7.0037801395497754E-5</v>
       </c>
       <c r="AB82" s="2">
         <f t="shared" si="25"/>
-        <v>2.8160442926803732E-3</v>
+        <v>3.8866054835963648E-3</v>
       </c>
       <c r="AC82" s="2">
         <f t="shared" si="26"/>
-        <v>2.8365726881703014E-3</v>
+        <v>3.9149796698589407E-3</v>
       </c>
       <c r="AD82" s="2">
         <f t="shared" si="27"/>
-        <v>3.532274551860508E-3</v>
+        <v>4.8640788322207211E-3</v>
       </c>
       <c r="AE82" s="2">
         <f t="shared" si="28"/>
-        <v>3.5580241216268929E-3</v>
+        <v>4.899589068431672E-3</v>
       </c>
     </row>
     <row r="83" spans="1:31" x14ac:dyDescent="0.3">
@@ -10081,111 +10081,111 @@
       </c>
       <c r="E83" s="2">
         <f t="shared" si="2"/>
-        <v>0.14499071379965042</v>
+        <v>0.14518078225744485</v>
       </c>
       <c r="F83" s="2">
         <f t="shared" si="3"/>
-        <v>0.18998142759930065</v>
+        <v>0.1903615645148897</v>
       </c>
       <c r="G83" s="2">
         <f t="shared" si="4"/>
-        <v>0.24408409525281208</v>
+        <v>0.24436167022187602</v>
       </c>
       <c r="H83" s="2">
         <f t="shared" si="5"/>
-        <v>0.28816819050562414</v>
+        <v>0.28872334044375203</v>
       </c>
       <c r="I83" s="2">
         <f t="shared" si="6"/>
-        <v>2.6247678449912586E-2</v>
+        <v>2.6295195564361211E-2</v>
       </c>
       <c r="J83" s="2">
         <f t="shared" si="7"/>
-        <v>0.50656154290734812</v>
+        <v>0.50657342013646045</v>
       </c>
       <c r="K83" s="2">
         <f t="shared" si="8"/>
-        <v>4.1021023813203022E-2</v>
+        <v>4.1090417555469008E-2</v>
       </c>
       <c r="L83" s="2">
         <f t="shared" si="9"/>
-        <v>0.51025381813113224</v>
+        <v>0.51027115925824007</v>
       </c>
       <c r="M83" s="2">
         <f t="shared" si="10"/>
-        <v>6.1039120596281762E-2</v>
+        <v>9.4252986502413635E-2</v>
       </c>
       <c r="N83" s="2">
         <f t="shared" si="11"/>
-        <v>0.10854979597021669</v>
+        <v>0.1420060330463942</v>
       </c>
       <c r="O83" s="2">
         <f t="shared" si="12"/>
-        <v>8.3083419584725246E-2</v>
+        <v>0.12468387627359008</v>
       </c>
       <c r="P83" s="2">
         <f t="shared" si="13"/>
-        <v>0.13002177574774443</v>
+        <v>0.17192579792526325</v>
       </c>
       <c r="Q83" s="2">
         <f t="shared" si="14"/>
-        <v>8.630801895811864E-2</v>
+        <v>0.12020764083485083</v>
       </c>
       <c r="R83" s="2">
         <f t="shared" si="15"/>
-        <v>0.52156362065035289</v>
+        <v>0.53001577522212728</v>
       </c>
       <c r="S83" s="2">
         <f t="shared" si="16"/>
-        <v>0.10843097273033345</v>
+        <v>0.15089031385350582</v>
       </c>
       <c r="T83" s="2">
         <f t="shared" si="17"/>
-        <v>0.52708121493762006</v>
+        <v>0.53765116909328159</v>
       </c>
       <c r="U83" s="2">
         <f t="shared" si="18"/>
-        <v>2.3249486777616275E-4</v>
+        <v>4.504733810926351E-4</v>
       </c>
       <c r="V83" s="2">
         <f t="shared" si="19"/>
-        <v>3.6669610124878785E-4</v>
+        <v>7.0880526704544138E-4</v>
       </c>
       <c r="W83" s="6">
         <f t="shared" si="20"/>
-        <v>5.9919096902495065E-4</v>
+        <v>1.1592786481380765E-3</v>
       </c>
       <c r="X83" s="2">
         <f t="shared" si="21"/>
-        <v>1.1114259785763386E-5</v>
+        <v>2.3392065360393281E-5</v>
       </c>
       <c r="Y83" s="2">
         <f t="shared" si="22"/>
-        <v>2.2228519571526771E-5</v>
+        <v>4.6784130720786563E-5</v>
       </c>
       <c r="Z83" s="2">
         <f t="shared" si="23"/>
-        <v>1.8269325365554287E-5</v>
+        <v>3.3380359722601494E-5</v>
       </c>
       <c r="AA83" s="2">
         <f t="shared" si="24"/>
-        <v>3.6538650731108573E-5</v>
+        <v>6.6760719445202988E-5</v>
       </c>
       <c r="AB83" s="2">
         <f t="shared" si="25"/>
-        <v>2.7257460140090294E-3</v>
+        <v>3.7875994078563568E-3</v>
       </c>
       <c r="AC83" s="2">
         <f t="shared" si="26"/>
-        <v>2.7456136976395152E-3</v>
+        <v>3.8152470378964151E-3</v>
       </c>
       <c r="AD83" s="2">
         <f t="shared" si="27"/>
-        <v>3.4195146099166985E-3</v>
+        <v>4.7412321736783856E-3</v>
       </c>
       <c r="AE83" s="2">
         <f t="shared" si="28"/>
-        <v>3.4444391018137719E-3</v>
+        <v>4.775840858218779E-3</v>
       </c>
     </row>
     <row r="84" spans="1:31" x14ac:dyDescent="0.3">
@@ -10203,111 +10203,111 @@
       </c>
       <c r="E84" s="2">
         <f t="shared" si="2"/>
-        <v>0.14497959953986467</v>
+        <v>0.14516206860515654</v>
       </c>
       <c r="F84" s="2">
         <f t="shared" si="3"/>
-        <v>0.18995919907972911</v>
+        <v>0.19032413721031308</v>
       </c>
       <c r="G84" s="2">
         <f t="shared" si="4"/>
-        <v>0.24406582592744652</v>
+        <v>0.24433496593409795</v>
       </c>
       <c r="H84" s="2">
         <f t="shared" si="5"/>
-        <v>0.28813165185489303</v>
+        <v>0.28866993186819589</v>
       </c>
       <c r="I84" s="2">
         <f t="shared" si="6"/>
-        <v>2.6244899884966144E-2</v>
+        <v>2.6290517151289137E-2</v>
       </c>
       <c r="J84" s="2">
         <f t="shared" si="7"/>
-        <v>0.50656084838572679</v>
+        <v>0.50657225073530998</v>
       </c>
       <c r="K84" s="2">
         <f t="shared" si="8"/>
-        <v>4.1016456481861634E-2</v>
+        <v>4.1083741483524491E-2</v>
       </c>
       <c r="L84" s="2">
         <f t="shared" si="9"/>
-        <v>0.51025267677845632</v>
+        <v>0.51026949094444318</v>
       </c>
       <c r="M84" s="2">
         <f t="shared" si="10"/>
-        <v>5.8313374582272731E-2</v>
+        <v>9.1222906976128545E-2</v>
       </c>
       <c r="N84" s="2">
         <f t="shared" si="11"/>
-        <v>0.10580418227257718</v>
+        <v>0.13895383541607706</v>
       </c>
       <c r="O84" s="2">
         <f t="shared" si="12"/>
-        <v>7.9663904974808547E-2</v>
+        <v>0.12089089053464737</v>
       </c>
       <c r="P84" s="2">
         <f t="shared" si="13"/>
-        <v>0.12657733664593065</v>
+        <v>0.16810512523868823</v>
       </c>
       <c r="Q84" s="2">
         <f t="shared" si="14"/>
-        <v>8.3526139719568959E-2</v>
+        <v>0.11711489616805484</v>
       </c>
       <c r="R84" s="2">
         <f t="shared" si="15"/>
-        <v>0.5208694031894181</v>
+        <v>0.52924530454419305</v>
       </c>
       <c r="S84" s="2">
         <f t="shared" si="16"/>
-        <v>0.10494104013283284</v>
+        <v>0.14701888719222961</v>
       </c>
       <c r="T84" s="2">
         <f t="shared" si="17"/>
-        <v>0.52621120993504955</v>
+        <v>0.5366886615066413</v>
       </c>
       <c r="U84" s="2">
         <f t="shared" si="18"/>
-        <v>2.1776599474124719E-4</v>
+        <v>4.2764391894129937E-4</v>
       </c>
       <c r="V84" s="2">
         <f t="shared" si="19"/>
-        <v>3.4351376312962014E-4</v>
+        <v>6.7302894157445143E-4</v>
       </c>
       <c r="W84" s="6">
         <f t="shared" si="20"/>
-        <v>5.6127975787086733E-4</v>
+        <v>1.1006728605157507E-3</v>
       </c>
       <c r="X84" s="2">
         <f t="shared" si="21"/>
-        <v>1.0301957976364663E-5</v>
+        <v>2.2090428699776389E-5</v>
       </c>
       <c r="Y84" s="2">
         <f t="shared" si="22"/>
-        <v>2.0603915952729325E-5</v>
+        <v>4.4180857399552778E-5</v>
       </c>
       <c r="Z84" s="2">
         <f t="shared" si="23"/>
-        <v>1.7224693176167429E-5</v>
+        <v>3.1820092019528557E-5</v>
       </c>
       <c r="AA84" s="2">
         <f t="shared" si="24"/>
-        <v>3.4449386352334858E-5</v>
+        <v>6.3640184039057113E-5</v>
       </c>
       <c r="AB84" s="2">
         <f t="shared" si="25"/>
-        <v>2.6383013664173813E-3</v>
+        <v>3.6910439672368407E-3</v>
       </c>
       <c r="AC84" s="2">
         <f t="shared" si="26"/>
-        <v>2.6575293741170603E-3</v>
+        <v>3.7179832165730171E-3</v>
       </c>
       <c r="AD84" s="2">
         <f t="shared" si="27"/>
-        <v>3.3102711275231679E-3</v>
+        <v>4.6213473569393778E-3</v>
       </c>
       <c r="AE84" s="2">
         <f t="shared" si="28"/>
-        <v>3.3343964679934542E-3</v>
+        <v>4.655076467137669E-3</v>
       </c>
     </row>
     <row r="85" spans="1:31" x14ac:dyDescent="0.3">
@@ -10325,111 +10325,111 @@
       </c>
       <c r="E85" s="2">
         <f t="shared" si="2"/>
-        <v>0.14496929758188831</v>
+        <v>0.14514439626219672</v>
       </c>
       <c r="F85" s="2">
         <f t="shared" si="3"/>
-        <v>0.18993859516377637</v>
+        <v>0.19028879252439343</v>
       </c>
       <c r="G85" s="2">
         <f t="shared" si="4"/>
-        <v>0.24404860123427036</v>
+        <v>0.24430950986048233</v>
       </c>
       <c r="H85" s="2">
         <f t="shared" si="5"/>
-        <v>0.2880972024685407</v>
+        <v>0.28861901972096465</v>
       </c>
       <c r="I85" s="2">
         <f t="shared" si="6"/>
-        <v>2.6242324395472052E-2</v>
+        <v>2.6286099065549181E-2</v>
       </c>
       <c r="J85" s="2">
         <f t="shared" si="7"/>
-        <v>0.50656020462420359</v>
+        <v>0.50657114640467993</v>
       </c>
       <c r="K85" s="2">
         <f t="shared" si="8"/>
-        <v>4.1012150308567592E-2</v>
+        <v>4.1077377465120586E-2</v>
       </c>
       <c r="L85" s="2">
         <f t="shared" si="9"/>
-        <v>0.51025160068773889</v>
+        <v>0.51026790061090321</v>
       </c>
       <c r="M85" s="2">
         <f t="shared" si="10"/>
-        <v>5.5675073215855353E-2</v>
+        <v>8.8270071802339076E-2</v>
       </c>
       <c r="N85" s="2">
         <f t="shared" si="11"/>
-        <v>0.10314665289846012</v>
+        <v>0.13597944884281865</v>
       </c>
       <c r="O85" s="2">
         <f t="shared" si="12"/>
-        <v>7.6353633847285385E-2</v>
+        <v>0.11719381264909587</v>
       </c>
       <c r="P85" s="2">
         <f t="shared" si="13"/>
-        <v>0.1232429401779372</v>
+        <v>0.1643810640649781</v>
       </c>
       <c r="Q85" s="2">
         <f t="shared" si="14"/>
-        <v>8.0833521227713076E-2</v>
+        <v>0.11410101935338711</v>
       </c>
       <c r="R85" s="2">
         <f t="shared" si="15"/>
-        <v>0.52019738393095805</v>
+        <v>0.52849434745048196</v>
       </c>
       <c r="S85" s="2">
         <f t="shared" si="16"/>
-        <v>0.10156261988473811</v>
+        <v>0.14324538448581053</v>
       </c>
       <c r="T85" s="2">
         <f t="shared" si="17"/>
-        <v>0.5253688521490617</v>
+        <v>0.53575023637660102</v>
       </c>
       <c r="U85" s="2">
         <f t="shared" si="18"/>
-        <v>2.0396715882726115E-4</v>
+        <v>4.0596391831439389E-4</v>
       </c>
       <c r="V85" s="2">
         <f t="shared" si="19"/>
-        <v>3.2178932968047634E-4</v>
+        <v>6.3903970049142332E-4</v>
       </c>
       <c r="W85" s="6">
         <f t="shared" si="20"/>
-        <v>5.2575648850773746E-4</v>
+        <v>1.0450036188058172E-3</v>
       </c>
       <c r="X85" s="2">
         <f t="shared" si="21"/>
-        <v>9.5442115580260588E-6</v>
+        <v>2.0856762162474292E-5</v>
       </c>
       <c r="Y85" s="2">
         <f t="shared" si="22"/>
-        <v>1.9088423116052118E-5</v>
+        <v>4.1713524324948583E-5</v>
       </c>
       <c r="Z85" s="2">
         <f t="shared" si="23"/>
-        <v>1.6242129810432268E-5</v>
+        <v>3.0334386196676548E-5</v>
       </c>
       <c r="AA85" s="2">
         <f t="shared" si="24"/>
-        <v>3.2484259620864537E-5</v>
+        <v>6.0668772393353096E-5</v>
       </c>
       <c r="AB85" s="2">
         <f t="shared" si="25"/>
-        <v>2.5536240803412736E-3</v>
+        <v>3.5968838607726892E-3</v>
       </c>
       <c r="AC85" s="2">
         <f t="shared" si="26"/>
-        <v>2.5722328020526719E-3</v>
+        <v>3.623132484753704E-3</v>
       </c>
       <c r="AD85" s="2">
         <f t="shared" si="27"/>
-        <v>3.2044422005106142E-3</v>
+        <v>4.5043634895762007E-3</v>
       </c>
       <c r="AE85" s="2">
         <f t="shared" si="28"/>
-        <v>3.2277935518738084E-3</v>
+        <v>4.5372345379859486E-3</v>
       </c>
     </row>
     <row r="86" spans="1:31" x14ac:dyDescent="0.3">
@@ -10447,111 +10447,111 @@
       </c>
       <c r="E86" s="2">
         <f t="shared" si="2"/>
-        <v>0.14495975337033029</v>
+        <v>0.14512771085246673</v>
       </c>
       <c r="F86" s="2">
         <f t="shared" si="3"/>
-        <v>0.18991950674066033</v>
+        <v>0.19025542170493348</v>
       </c>
       <c r="G86" s="2">
         <f t="shared" si="4"/>
-        <v>0.24403235910445992</v>
+        <v>0.24428524235152499</v>
       </c>
       <c r="H86" s="2">
         <f t="shared" si="5"/>
-        <v>0.28806471820891982</v>
+        <v>0.28857048470304997</v>
       </c>
       <c r="I86" s="2">
         <f t="shared" si="6"/>
-        <v>2.6239938342582547E-2</v>
+        <v>2.6281927713116684E-2</v>
       </c>
       <c r="J86" s="2">
         <f t="shared" si="7"/>
-        <v>0.50655960821365875</v>
+        <v>0.506570103746662</v>
       </c>
       <c r="K86" s="2">
         <f t="shared" si="8"/>
-        <v>4.1008089776114975E-2</v>
+        <v>4.107131058788125E-2</v>
       </c>
       <c r="L86" s="2">
         <f t="shared" si="9"/>
-        <v>0.51025058598132644</v>
+        <v>0.51026638453112849</v>
       </c>
       <c r="M86" s="2">
         <f t="shared" si="10"/>
-        <v>5.312144913551408E-2</v>
+        <v>8.539256471372092E-2</v>
       </c>
       <c r="N86" s="2">
         <f t="shared" si="11"/>
-        <v>0.10057442009640745</v>
+        <v>0.13308094285501568</v>
       </c>
       <c r="O86" s="2">
         <f t="shared" si="12"/>
-        <v>7.3149191646774775E-2</v>
+        <v>0.11359032185743491</v>
       </c>
       <c r="P86" s="2">
         <f t="shared" si="13"/>
-        <v>0.1200151466260634</v>
+        <v>0.16075127643458934</v>
       </c>
       <c r="Q86" s="2">
         <f t="shared" si="14"/>
-        <v>7.8227337250751802E-2</v>
+        <v>0.11116405192684573</v>
       </c>
       <c r="R86" s="2">
         <f t="shared" si="15"/>
-        <v>0.51954686721484</v>
+        <v>0.52776242947357088</v>
       </c>
       <c r="S86" s="2">
         <f t="shared" si="16"/>
-        <v>9.8292224754319729E-2</v>
+        <v>0.13956743376297942</v>
       </c>
       <c r="T86" s="2">
         <f t="shared" si="17"/>
-        <v>0.52455329118590222</v>
+        <v>0.53483533014147011</v>
       </c>
       <c r="U86" s="2">
         <f t="shared" si="18"/>
-        <v>1.9104000895729347E-4</v>
+        <v>3.8537624513749862E-4</v>
       </c>
       <c r="V86" s="2">
         <f t="shared" si="19"/>
-        <v>3.0143205402985169E-4</v>
+        <v>6.0675011303260799E-4</v>
       </c>
       <c r="W86" s="6">
         <f t="shared" si="20"/>
-        <v>4.9247206298714511E-4</v>
+        <v>9.9212635817010671E-4</v>
       </c>
       <c r="X86" s="2">
         <f t="shared" si="21"/>
-        <v>8.8375201388196819E-6</v>
+        <v>1.9687679542301488E-5</v>
       </c>
       <c r="Y86" s="2">
         <f t="shared" si="22"/>
-        <v>1.7675040277639364E-5</v>
+        <v>3.9375359084602976E-5</v>
       </c>
       <c r="Z86" s="2">
         <f t="shared" si="23"/>
-        <v>1.5317897904265127E-5</v>
+        <v>2.8919699098113996E-5</v>
       </c>
       <c r="AA86" s="2">
         <f t="shared" si="24"/>
-        <v>3.0635795808530253E-5</v>
+        <v>5.7839398196227991E-5</v>
       </c>
       <c r="AB86" s="2">
         <f t="shared" si="25"/>
-        <v>2.4716301256306901E-3</v>
+        <v>3.5050646270171019E-3</v>
       </c>
       <c r="AC86" s="2">
         <f t="shared" si="26"/>
-        <v>2.4896393227630299E-3</v>
+        <v>3.5306399677909341E-3</v>
       </c>
       <c r="AD86" s="2">
         <f t="shared" si="27"/>
-        <v>3.1019281446007861E-3</v>
+        <v>4.3902201245527373E-3</v>
       </c>
       <c r="AE86" s="2">
         <f t="shared" si="28"/>
-        <v>3.1245299226205512E-3</v>
+        <v>4.4222541632098584E-3</v>
       </c>
     </row>
     <row r="87" spans="1:31" x14ac:dyDescent="0.3">
@@ -10569,111 +10569,111 @@
       </c>
       <c r="E87" s="2">
         <f t="shared" si="2"/>
-        <v>0.14495091585019146</v>
+        <v>0.14511196070883289</v>
       </c>
       <c r="F87" s="2">
         <f t="shared" si="3"/>
-        <v>0.18990183170038269</v>
+        <v>0.19022392141766581</v>
       </c>
       <c r="G87" s="2">
         <f t="shared" si="4"/>
-        <v>0.24401704120655565</v>
+        <v>0.24426210659224651</v>
       </c>
       <c r="H87" s="2">
         <f t="shared" si="5"/>
-        <v>0.28803408241311129</v>
+        <v>0.28852421318449301</v>
       </c>
       <c r="I87" s="2">
         <f t="shared" si="6"/>
-        <v>2.6237728962547842E-2</v>
+        <v>2.6277990177208228E-2</v>
       </c>
       <c r="J87" s="2">
         <f t="shared" si="7"/>
-        <v>0.50655905596370832</v>
+        <v>0.50656911953262818</v>
       </c>
       <c r="K87" s="2">
         <f t="shared" si="8"/>
-        <v>4.1004260301638909E-2</v>
+        <v>4.1065526648061623E-2</v>
       </c>
       <c r="L87" s="2">
         <f t="shared" si="9"/>
-        <v>0.51024962901505</v>
+        <v>0.51026493915570725</v>
       </c>
       <c r="M87" s="2">
         <f t="shared" si="10"/>
-        <v>5.0649819009883391E-2</v>
+        <v>8.2588513012107234E-2</v>
       </c>
       <c r="N87" s="2">
         <f t="shared" si="11"/>
-        <v>9.8084780773644423E-2</v>
+        <v>0.13025643088078293</v>
       </c>
       <c r="O87" s="2">
         <f t="shared" si="12"/>
-        <v>7.0047263502173995E-2</v>
+        <v>0.11007814575779272</v>
       </c>
       <c r="P87" s="2">
         <f t="shared" si="13"/>
-        <v>0.11689061670344285</v>
+        <v>0.15721347310402145</v>
       </c>
       <c r="Q87" s="2">
         <f t="shared" si="14"/>
-        <v>7.5704847504153794E-2</v>
+        <v>0.10830208009807445</v>
       </c>
       <c r="R87" s="2">
         <f t="shared" si="15"/>
-        <v>0.51891717785705882</v>
+        <v>0.52704908619630364</v>
       </c>
       <c r="S87" s="2">
         <f t="shared" si="16"/>
-        <v>9.5126469480774495E-2</v>
+        <v>0.13598271266419029</v>
       </c>
       <c r="T87" s="2">
         <f t="shared" si="17"/>
-        <v>0.52376370017250429</v>
+        <v>0.53394338950073628</v>
       </c>
       <c r="U87" s="2">
         <f t="shared" si="18"/>
-        <v>1.7892980903779827E-4</v>
+        <v>3.6582653202753203E-4</v>
       </c>
       <c r="V87" s="2">
         <f t="shared" si="19"/>
-        <v>2.8235672294434013E-4</v>
+        <v>5.7607684539934679E-4</v>
       </c>
       <c r="W87" s="6">
         <f t="shared" si="20"/>
-        <v>4.612865319821384E-4</v>
+        <v>9.4190337742687882E-4</v>
       </c>
       <c r="X87" s="2">
         <f t="shared" si="21"/>
-        <v>8.1785992807973094E-6</v>
+        <v>1.8579953398086796E-5</v>
       </c>
       <c r="Y87" s="2">
         <f t="shared" si="22"/>
-        <v>1.6357198561594619E-5</v>
+        <v>3.7159906796173592E-5</v>
       </c>
       <c r="Z87" s="2">
         <f t="shared" si="23"/>
-        <v>1.4448482757868165E-5</v>
+        <v>2.7572649071431069E-5</v>
       </c>
       <c r="AA87" s="2">
         <f t="shared" si="24"/>
-        <v>2.8896965515736331E-5</v>
+        <v>5.5145298142862139E-5</v>
       </c>
       <c r="AB87" s="2">
         <f t="shared" si="25"/>
-        <v>2.3922376893687381E-3</v>
+        <v>3.4155326647907027E-3</v>
       </c>
       <c r="AC87" s="2">
         <f t="shared" si="26"/>
-        <v>2.4096665120200119E-3</v>
+        <v>3.4404516583871688E-3</v>
       </c>
       <c r="AD87" s="2">
         <f t="shared" si="27"/>
-        <v>3.0026315204525864E-3</v>
+        <v>4.2788573274530322E-3</v>
       </c>
       <c r="AE87" s="2">
         <f t="shared" si="28"/>
-        <v>3.0245074120036899E-3</v>
+        <v>4.3100749525813598E-3</v>
       </c>
     </row>
     <row r="88" spans="1:31" x14ac:dyDescent="0.3">
@@ -10691,111 +10691,111 @@
       </c>
       <c r="E88" s="2">
         <f t="shared" si="2"/>
-        <v>0.14494273725091067</v>
+        <v>0.14509709674611443</v>
       </c>
       <c r="F88" s="2">
         <f t="shared" si="3"/>
-        <v>0.18988547450182108</v>
+        <v>0.19019419349222888</v>
       </c>
       <c r="G88" s="2">
         <f t="shared" si="4"/>
-        <v>0.24400259272379779</v>
+        <v>0.24424004847298936</v>
       </c>
       <c r="H88" s="2">
         <f t="shared" si="5"/>
-        <v>0.28800518544759557</v>
+        <v>0.2884800969459787</v>
       </c>
       <c r="I88" s="2">
         <f t="shared" si="6"/>
-        <v>2.6235684312727641E-2</v>
+        <v>2.6274274186528612E-2</v>
       </c>
       <c r="J88" s="2">
         <f t="shared" si="7"/>
-        <v>0.50655854488920971</v>
+        <v>0.50656819069529291</v>
       </c>
       <c r="K88" s="2">
         <f t="shared" si="8"/>
-        <v>4.1000648180949451E-2</v>
+        <v>4.1060012118247342E-2</v>
       </c>
       <c r="L88" s="2">
         <f t="shared" si="9"/>
-        <v>0.51024872636431529</v>
+        <v>0.51026356110423599</v>
       </c>
       <c r="M88" s="2">
         <f t="shared" si="10"/>
-        <v>4.825758132051465E-2</v>
+        <v>7.9856086880274665E-2</v>
       </c>
       <c r="N88" s="2">
         <f t="shared" si="11"/>
-        <v>9.5675114261624408E-2</v>
+        <v>0.1275040695540732</v>
       </c>
       <c r="O88" s="2">
         <f t="shared" si="12"/>
-        <v>6.7044631981721406E-2</v>
+        <v>0.1066550598958303</v>
       </c>
       <c r="P88" s="2">
         <f t="shared" si="13"/>
-        <v>0.11386610929143916</v>
+        <v>0.15376541314195635</v>
       </c>
       <c r="Q88" s="2">
         <f t="shared" si="14"/>
-        <v>7.326339537034679E-2</v>
+        <v>0.10551323403289044</v>
       </c>
       <c r="R88" s="2">
         <f t="shared" si="15"/>
-        <v>0.51830766067271172</v>
+        <v>0.52635386315371424</v>
       </c>
       <c r="S88" s="2">
         <f t="shared" si="16"/>
-        <v>9.2062068461310126E-2</v>
+        <v>0.13248894800440758</v>
       </c>
       <c r="T88" s="2">
         <f t="shared" si="17"/>
-        <v>0.52299927535772806</v>
+        <v>0.53307387145777974</v>
       </c>
       <c r="U88" s="2">
         <f t="shared" si="18"/>
-        <v>1.6758521965357773E-4</v>
+        <v>3.4726305156234857E-4</v>
       </c>
       <c r="V88" s="2">
         <f t="shared" si="19"/>
-        <v>2.6448333349029845E-4</v>
+        <v>5.4694048660286856E-4</v>
       </c>
       <c r="W88" s="6">
         <f t="shared" si="20"/>
-        <v>4.3206855314387616E-4</v>
+        <v>8.9420353816521713E-4</v>
       </c>
       <c r="X88" s="2">
         <f t="shared" si="21"/>
-        <v>7.5643679095720042E-6</v>
+        <v>1.7530508455405221E-5</v>
       </c>
       <c r="Y88" s="2">
         <f t="shared" si="22"/>
-        <v>1.5128735819144008E-5</v>
+        <v>3.5061016910810441E-5</v>
       </c>
       <c r="Z88" s="2">
         <f t="shared" si="23"/>
-        <v>1.3630579641637207E-5</v>
+        <v>2.6290009410529817E-5</v>
       </c>
       <c r="AA88" s="2">
         <f t="shared" si="24"/>
-        <v>2.7261159283274415E-5</v>
+        <v>5.2580018821059635E-5</v>
       </c>
       <c r="AB88" s="2">
         <f t="shared" si="25"/>
-        <v>2.3153671498826593E-3</v>
+        <v>3.3282352504399666E-3</v>
       </c>
       <c r="AC88" s="2">
         <f t="shared" si="26"/>
-        <v>2.3322341538070208E-3</v>
+        <v>3.3525144339425785E-3</v>
       </c>
       <c r="AD88" s="2">
         <f t="shared" si="27"/>
-        <v>2.9064571493912414E-3</v>
+        <v>4.1702157367906542E-3</v>
       </c>
       <c r="AE88" s="2">
         <f t="shared" si="28"/>
-        <v>2.9276301301633207E-3</v>
+        <v>4.2006370939064513E-3</v>
       </c>
     </row>
     <row r="89" spans="1:31" x14ac:dyDescent="0.3">
@@ -10813,111 +10813,111 @@
       </c>
       <c r="E89" s="2">
         <f t="shared" si="2"/>
-        <v>0.14493517288300109</v>
+        <v>0.14508307233935011</v>
       </c>
       <c r="F89" s="2">
         <f t="shared" si="3"/>
-        <v>0.18987034576600195</v>
+        <v>0.19016614467870024</v>
       </c>
       <c r="G89" s="2">
         <f t="shared" si="4"/>
-        <v>0.24398896214415616</v>
+        <v>0.24421901646546093</v>
       </c>
       <c r="H89" s="2">
         <f t="shared" si="5"/>
-        <v>0.28797792428831231</v>
+        <v>0.28843803293092185</v>
       </c>
       <c r="I89" s="2">
         <f t="shared" si="6"/>
-        <v>2.6233793220750253E-2</v>
+        <v>2.6270768084837533E-2</v>
       </c>
       <c r="J89" s="2">
         <f t="shared" si="7"/>
-        <v>0.50655807219755389</v>
+        <v>0.50656731432110724</v>
       </c>
       <c r="K89" s="2">
         <f t="shared" si="8"/>
-        <v>4.0997240536039044E-2</v>
+        <v>4.1054754116365236E-2</v>
       </c>
       <c r="L89" s="2">
         <f t="shared" si="9"/>
-        <v>0.51024787481098455</v>
+        <v>0.51026224715757607</v>
       </c>
       <c r="M89" s="2">
         <f t="shared" si="10"/>
-        <v>4.594221417063199E-2</v>
+        <v>7.7193498679922687E-2</v>
       </c>
       <c r="N89" s="2">
         <f t="shared" si="11"/>
-        <v>9.3342880107817383E-2</v>
+        <v>0.12482205800691915</v>
       </c>
       <c r="O89" s="2">
         <f t="shared" si="12"/>
-        <v>6.4138174832330169E-2</v>
+        <v>0.10331888730639777</v>
       </c>
       <c r="P89" s="2">
         <f t="shared" si="13"/>
-        <v>0.11093847916127583</v>
+        <v>0.15040490346683119</v>
       </c>
       <c r="Q89" s="2">
         <f t="shared" si="14"/>
-        <v>7.0900405646512829E-2</v>
+        <v>0.10279568712278225</v>
       </c>
       <c r="R89" s="2">
         <f t="shared" si="15"/>
-        <v>0.5177176799975366</v>
+        <v>0.52567631572593365</v>
       </c>
       <c r="S89" s="2">
         <f t="shared" si="16"/>
-        <v>8.9095833424138529E-2</v>
+        <v>0.12908391528795066</v>
       </c>
       <c r="T89" s="2">
         <f t="shared" si="17"/>
-        <v>0.52225923569406685</v>
+        <v>0.53222624334027813</v>
       </c>
       <c r="U89" s="2">
         <f t="shared" si="18"/>
-        <v>1.5695809224755417E-4</v>
+        <v>3.2963659462891388E-4</v>
       </c>
       <c r="V89" s="2">
         <f t="shared" si="19"/>
-        <v>2.4773678684200982E-4</v>
+        <v>5.1926537991341018E-4</v>
       </c>
       <c r="W89" s="6">
         <f t="shared" si="20"/>
-        <v>4.0469487908956399E-4</v>
+        <v>8.4890197454232401E-4</v>
       </c>
       <c r="X89" s="2">
         <f t="shared" si="21"/>
-        <v>6.9919363762823641E-6</v>
+        <v>1.6536415199326643E-5</v>
       </c>
       <c r="Y89" s="2">
         <f t="shared" si="22"/>
-        <v>1.3983872752564728E-5</v>
+        <v>3.3072830398653287E-5</v>
       </c>
       <c r="Z89" s="2">
         <f t="shared" si="23"/>
-        <v>1.2861081745883289E-5</v>
+        <v>2.5068701979733613E-5</v>
       </c>
       <c r="AA89" s="2">
         <f t="shared" si="24"/>
-        <v>2.5722163491766578E-5</v>
+        <v>5.0137403959467227E-5</v>
       </c>
       <c r="AB89" s="2">
         <f t="shared" si="25"/>
-        <v>2.240941047467779E-3</v>
+        <v>3.2431205518885461E-3</v>
       </c>
       <c r="AC89" s="2">
         <f t="shared" si="26"/>
-        <v>2.257264210767931E-3</v>
+        <v>3.2667760706735658E-3</v>
       </c>
       <c r="AD89" s="2">
         <f t="shared" si="27"/>
-        <v>2.8133121208357803E-3</v>
+        <v>4.0642366178801357E-3</v>
       </c>
       <c r="AE89" s="2">
         <f t="shared" si="28"/>
-        <v>2.8338044730172843E-3</v>
+        <v>4.093881407249758E-3</v>
       </c>
     </row>
     <row r="90" spans="1:31" x14ac:dyDescent="0.3">
@@ -10935,111 +10935,111 @@
       </c>
       <c r="E90" s="2">
         <f t="shared" si="2"/>
-        <v>0.1449281809466248</v>
+        <v>0.14506984320719066</v>
       </c>
       <c r="F90" s="2">
         <f t="shared" si="3"/>
-        <v>0.18985636189324939</v>
+        <v>0.19013968641438131</v>
       </c>
       <c r="G90" s="2">
         <f t="shared" si="4"/>
-        <v>0.24397610106241027</v>
+        <v>0.24419896150387715</v>
       </c>
       <c r="H90" s="2">
         <f t="shared" si="5"/>
-        <v>0.28795220212482053</v>
+        <v>0.2883979230077543</v>
       </c>
       <c r="I90" s="2">
         <f t="shared" si="6"/>
-        <v>2.6232045236656183E-2</v>
+        <v>2.6267460801797662E-2</v>
       </c>
       <c r="J90" s="2">
         <f t="shared" si="7"/>
-        <v>0.50655763527670317</v>
+        <v>0.50656648764297108</v>
       </c>
       <c r="K90" s="2">
         <f t="shared" si="8"/>
-        <v>4.0994025265602571E-2</v>
+        <v>4.1049740375969292E-2</v>
       </c>
       <c r="L90" s="2">
         <f t="shared" si="9"/>
-        <v>0.51024707133101332</v>
+        <v>0.51026099425042826</v>
       </c>
       <c r="M90" s="2">
         <f t="shared" si="10"/>
-        <v>4.3701273123164214E-2</v>
+        <v>7.4599002238411843E-2</v>
       </c>
       <c r="N90" s="2">
         <f t="shared" si="11"/>
-        <v>9.1085615897049457E-2</v>
+        <v>0.12220863715038029</v>
       </c>
       <c r="O90" s="2">
         <f t="shared" si="12"/>
-        <v>6.1324862711494392E-2</v>
+        <v>0.10006749801209366</v>
       </c>
       <c r="P90" s="2">
         <f t="shared" si="13"/>
-        <v>0.10810467468825855</v>
+        <v>0.14712979834103138</v>
       </c>
       <c r="Q90" s="2">
         <f t="shared" si="14"/>
-        <v>6.8613382323702482E-2</v>
+        <v>0.1001476552439253</v>
       </c>
       <c r="R90" s="2">
         <f t="shared" si="15"/>
-        <v>0.51714661920956939</v>
+        <v>0.52501600902310774</v>
       </c>
       <c r="S90" s="2">
         <f t="shared" si="16"/>
-        <v>8.6224671095678912E-2</v>
+        <v>0.12576543818056596</v>
       </c>
       <c r="T90" s="2">
         <f t="shared" si="17"/>
-        <v>0.52154282240327521</v>
+        <v>0.5313999828002387</v>
       </c>
       <c r="U90" s="2">
         <f t="shared" si="18"/>
-        <v>1.4700327515898703E-4</v>
+        <v>3.1290035372210403E-4</v>
       </c>
       <c r="V90" s="2">
         <f t="shared" si="19"/>
-        <v>2.320465985495281E-4</v>
+        <v>4.9297945992764311E-4</v>
       </c>
       <c r="W90" s="6">
         <f t="shared" si="20"/>
-        <v>3.7904987370851516E-4</v>
+        <v>8.058798136497472E-4</v>
       </c>
       <c r="X90" s="2">
         <f t="shared" si="21"/>
-        <v>6.4585951483934392E-6</v>
+        <v>1.5594883661856345E-5</v>
       </c>
       <c r="Y90" s="2">
         <f t="shared" si="22"/>
-        <v>1.2917190296786878E-5</v>
+        <v>3.1189767323712689E-5</v>
       </c>
       <c r="Z90" s="2">
         <f t="shared" si="23"/>
-        <v>1.2137068752257242E-5</v>
+        <v>2.3905791023746815E-5</v>
       </c>
       <c r="AA90" s="2">
         <f t="shared" si="24"/>
-        <v>2.4274137504514483E-5</v>
+        <v>4.7811582047493631E-5</v>
       </c>
       <c r="AB90" s="2">
         <f t="shared" si="25"/>
-        <v>2.1688840522943028E-3</v>
+        <v>3.1601376397467043E-3</v>
       </c>
       <c r="AC90" s="2">
         <f t="shared" si="26"/>
-        <v>2.1846807918218434E-3</v>
+        <v>3.1831852547692502E-3</v>
       </c>
       <c r="AD90" s="2">
         <f t="shared" si="27"/>
-        <v>2.7231057923524015E-3</v>
+        <v>3.9608619107266126E-3</v>
       </c>
       <c r="AE90" s="2">
         <f t="shared" si="28"/>
-        <v>2.742939122244898E-3</v>
+        <v>3.9897493931348822E-3</v>
       </c>
     </row>
     <row r="91" spans="1:31" x14ac:dyDescent="0.3">
@@ -11057,111 +11057,111 @@
       </c>
       <c r="E91" s="2">
         <f t="shared" si="2"/>
-        <v>0.14492172235147641</v>
+        <v>0.14505736730026117</v>
       </c>
       <c r="F91" s="2">
         <f t="shared" si="3"/>
-        <v>0.18984344470295261</v>
+        <v>0.19011473460052233</v>
       </c>
       <c r="G91" s="2">
         <f t="shared" si="4"/>
-        <v>0.24396396399365802</v>
+        <v>0.24417983687105815</v>
       </c>
       <c r="H91" s="2">
         <f t="shared" si="5"/>
-        <v>0.28792792798731603</v>
+        <v>0.2883596737421163</v>
       </c>
       <c r="I91" s="2">
         <f t="shared" si="6"/>
-        <v>2.6230430587869082E-2</v>
+        <v>2.626434182506529E-2</v>
       </c>
       <c r="J91" s="2">
         <f t="shared" si="7"/>
-        <v>0.50655723168393629</v>
+        <v>0.50656570803325851</v>
       </c>
       <c r="K91" s="2">
         <f t="shared" si="8"/>
-        <v>4.0990990998414509E-2</v>
+        <v>4.1044959217764541E-2</v>
       </c>
       <c r="L91" s="2">
         <f t="shared" si="9"/>
-        <v>0.51024631308279833</v>
+        <v>0.51025979946421707</v>
       </c>
       <c r="M91" s="2">
         <f t="shared" si="10"/>
-        <v>4.153238907086991E-2</v>
+        <v>7.207089212661448E-2</v>
       </c>
       <c r="N91" s="2">
         <f t="shared" si="11"/>
-        <v>8.8900935105227619E-2</v>
+        <v>0.11966208894656488</v>
       </c>
       <c r="O91" s="2">
         <f t="shared" si="12"/>
-        <v>5.860175691914199E-2</v>
+        <v>9.6898808483512372E-2</v>
       </c>
       <c r="P91" s="2">
         <f t="shared" si="13"/>
-        <v>0.10536173556601365</v>
+        <v>0.14393799882652347</v>
       </c>
       <c r="Q91" s="2">
         <f t="shared" si="14"/>
-        <v>6.6399906400015543E-2</v>
+        <v>9.7567396008050561E-2</v>
       </c>
       <c r="R91" s="2">
         <f t="shared" si="15"/>
-        <v>0.51659388025229658</v>
+        <v>0.52437251776327287</v>
       </c>
       <c r="S91" s="2">
         <f t="shared" si="16"/>
-        <v>8.3445580869338731E-2</v>
+        <v>0.12253138794353213</v>
       </c>
       <c r="T91" s="2">
         <f t="shared" si="17"/>
-        <v>0.5208492985290275</v>
+        <v>0.53059457779547059</v>
       </c>
       <c r="U91" s="2">
         <f t="shared" si="18"/>
-        <v>1.3767843091377918E-4</v>
+        <v>2.9700981106052586E-4</v>
       </c>
       <c r="V91" s="2">
         <f t="shared" si="19"/>
-        <v>2.1734662457625423E-4</v>
+        <v>4.6801409524155102E-4</v>
       </c>
       <c r="W91" s="6">
         <f t="shared" si="20"/>
-        <v>3.5502505549003338E-4</v>
+        <v>7.6502390630207688E-4</v>
       </c>
       <c r="X91" s="2">
         <f t="shared" si="21"/>
-        <v>5.9618041051903158E-6</v>
+        <v>1.4703257406383902E-5</v>
       </c>
       <c r="Y91" s="2">
         <f t="shared" si="22"/>
-        <v>1.1923608210380632E-5</v>
+        <v>2.9406514812767804E-5</v>
       </c>
       <c r="Z91" s="2">
         <f t="shared" si="23"/>
-        <v>1.1455796004017974E-5</v>
+        <v>2.2798477166578718E-5</v>
       </c>
       <c r="AA91" s="2">
         <f t="shared" si="24"/>
-        <v>2.2911592008035948E-5</v>
+        <v>4.5596954333157436E-5</v>
       </c>
       <c r="AB91" s="2">
         <f t="shared" si="25"/>
-        <v>2.0991229299212387E-3</v>
+        <v>3.0792364957260595E-3</v>
       </c>
       <c r="AC91" s="2">
         <f t="shared" si="26"/>
-        <v>2.1144101173708276E-3</v>
+        <v>3.1016915908348851E-3</v>
       </c>
       <c r="AD91" s="2">
         <f t="shared" si="27"/>
-        <v>2.6357497831798128E-3</v>
+        <v>3.8600342723652506E-3</v>
       </c>
       <c r="AE91" s="2">
         <f t="shared" si="28"/>
-        <v>2.6549450386988381E-3</v>
+        <v>3.8881832751552592E-3</v>
       </c>
     </row>
     <row r="92" spans="1:31" x14ac:dyDescent="0.3">
@@ -11179,111 +11179,111 @@
       </c>
       <c r="E92" s="2">
         <f t="shared" si="2"/>
-        <v>0.14491576054737121</v>
+        <v>0.14504560469433606</v>
       </c>
       <c r="F92" s="2">
         <f t="shared" si="3"/>
-        <v>0.18983152109474224</v>
+        <v>0.19009120938867213</v>
       </c>
       <c r="G92" s="2">
         <f t="shared" si="4"/>
-        <v>0.24395250819765402</v>
+        <v>0.24416159808932489</v>
       </c>
       <c r="H92" s="2">
         <f t="shared" si="5"/>
-        <v>0.28790501639530802</v>
+        <v>0.28832319617864977</v>
       </c>
       <c r="I92" s="2">
         <f t="shared" si="6"/>
-        <v>2.6228940136842786E-2</v>
+        <v>2.6261401173584019E-2</v>
       </c>
       <c r="J92" s="2">
         <f t="shared" si="7"/>
-        <v>0.50655685913526138</v>
+        <v>0.50656497299714109</v>
       </c>
       <c r="K92" s="2">
         <f t="shared" si="8"/>
-        <v>4.09881270494135E-2</v>
+        <v>4.1040399522331225E-2</v>
       </c>
       <c r="L92" s="2">
         <f t="shared" si="9"/>
-        <v>0.51024559739620423</v>
+        <v>0.51025866002027487</v>
       </c>
       <c r="M92" s="2">
         <f t="shared" si="10"/>
-        <v>3.9433266140948671E-2</v>
+        <v>6.9607502930033635E-2</v>
       </c>
       <c r="N92" s="2">
         <f t="shared" si="11"/>
-        <v>8.6786524987856786E-2</v>
+        <v>0.11718073567389697</v>
       </c>
       <c r="O92" s="2">
         <f t="shared" si="12"/>
-        <v>5.5966007135962177E-2</v>
+        <v>9.3810781065620172E-2</v>
       </c>
       <c r="P92" s="2">
         <f t="shared" si="13"/>
-        <v>0.10270679052731481</v>
+        <v>0.14082745220639925</v>
       </c>
       <c r="Q92" s="2">
         <f t="shared" si="14"/>
-        <v>6.4257633730173402E-2</v>
+        <v>9.5053208007303602E-2</v>
       </c>
       <c r="R92" s="2">
         <f t="shared" si="15"/>
-        <v>0.51605888316051596</v>
+        <v>0.52374542614406949</v>
       </c>
       <c r="S92" s="2">
         <f t="shared" si="16"/>
-        <v>8.075565248239118E-2</v>
+        <v>0.11937968283425318</v>
       </c>
       <c r="T92" s="2">
         <f t="shared" si="17"/>
-        <v>0.5201779484794038</v>
+        <v>0.529809526554189</v>
       </c>
       <c r="U92" s="2">
         <f t="shared" si="18"/>
-        <v>1.289438641815515E-4</v>
+        <v>2.8192263138172949E-4</v>
       </c>
       <c r="V92" s="2">
         <f t="shared" si="19"/>
-        <v>2.0357480241873696E-4</v>
+        <v>4.4430393669244963E-4</v>
       </c>
       <c r="W92" s="6">
         <f t="shared" si="20"/>
-        <v>3.3251866660028849E-4</v>
+        <v>7.2622656807417912E-4</v>
       </c>
       <c r="X92" s="2">
         <f t="shared" si="21"/>
-        <v>5.4991824134971002E-6</v>
+        <v>1.3859007710263045E-5</v>
       </c>
       <c r="Y92" s="2">
         <f t="shared" si="22"/>
-        <v>1.09983648269942E-5</v>
+        <v>2.771801542052609E-5</v>
       </c>
       <c r="Z92" s="2">
         <f t="shared" si="23"/>
-        <v>1.0814684251825343E-5</v>
+        <v>2.1744091601296895E-5</v>
       </c>
       <c r="AA92" s="2">
         <f t="shared" si="24"/>
-        <v>2.1629368503650685E-5</v>
+        <v>4.3488183202593789E-5</v>
       </c>
       <c r="AB92" s="2">
         <f t="shared" si="25"/>
-        <v>2.0315865047999884E-3</v>
+        <v>3.000368018590984E-3</v>
       </c>
       <c r="AC92" s="2">
         <f t="shared" si="26"/>
-        <v>2.0463804824858572E-3</v>
+        <v>3.022245607855249E-3</v>
       </c>
       <c r="AD92" s="2">
         <f t="shared" si="27"/>
-        <v>2.5511579619976665E-3</v>
+        <v>3.7616971140577056E-3</v>
       </c>
       <c r="AE92" s="2">
         <f t="shared" si="28"/>
-        <v>2.5697354500218033E-3</v>
+        <v>3.7891260374057737E-3</v>
       </c>
     </row>
     <row r="93" spans="1:31" x14ac:dyDescent="0.3">
@@ -11301,111 +11301,111 @@
       </c>
       <c r="E93" s="2">
         <f t="shared" si="2"/>
-        <v>0.14491026136495772</v>
+        <v>0.14503451748816784</v>
       </c>
       <c r="F93" s="2">
         <f t="shared" si="3"/>
-        <v>0.18982052272991526</v>
+        <v>0.1900690349763357</v>
       </c>
       <c r="G93" s="2">
         <f t="shared" si="4"/>
-        <v>0.2439416935134022</v>
+        <v>0.24414420281604385</v>
       </c>
       <c r="H93" s="2">
         <f t="shared" si="5"/>
-        <v>0.28788338702680438</v>
+        <v>0.28828840563208769</v>
       </c>
       <c r="I93" s="2">
         <f t="shared" si="6"/>
-        <v>2.6227565341239413E-2</v>
+        <v>2.6258629372041965E-2</v>
       </c>
       <c r="J93" s="2">
         <f t="shared" si="7"/>
-        <v>0.50655651549546321</v>
+        <v>0.50656428016620447</v>
       </c>
       <c r="K93" s="2">
         <f t="shared" si="8"/>
-        <v>4.0985423378350552E-2</v>
+        <v>4.1036050704010965E-2</v>
       </c>
       <c r="L93" s="2">
         <f t="shared" si="9"/>
-        <v>0.51024492176223024</v>
+        <v>0.51025757327331644</v>
       </c>
       <c r="M93" s="2">
         <f t="shared" si="10"/>
-        <v>3.7401679636148683E-2</v>
+        <v>6.7207208515160849E-2</v>
       </c>
       <c r="N93" s="2">
         <f t="shared" si="11"/>
-        <v>8.4740144505370929E-2</v>
+        <v>0.11476293918761278</v>
       </c>
       <c r="O93" s="2">
         <f t="shared" si="12"/>
-        <v>5.341484917396451E-2</v>
+        <v>9.080142337437401E-2</v>
       </c>
       <c r="P93" s="2">
         <f t="shared" si="13"/>
-        <v>0.10013705507729301</v>
+        <v>0.13779615137647463</v>
       </c>
       <c r="Q93" s="2">
         <f t="shared" si="14"/>
-        <v>6.2184292913428169E-2</v>
+        <v>9.2603430055046954E-2</v>
       </c>
       <c r="R93" s="2">
         <f t="shared" si="15"/>
-        <v>0.51554106558996537</v>
+        <v>0.5231343277090994</v>
       </c>
       <c r="S93" s="2">
         <f t="shared" si="16"/>
-        <v>7.8152063706692698E-2</v>
+        <v>0.11630828747746905</v>
       </c>
       <c r="T93" s="2">
         <f t="shared" si="17"/>
-        <v>0.51952807756170483</v>
+        <v>0.52904433752433078</v>
       </c>
       <c r="U93" s="2">
         <f t="shared" si="18"/>
-        <v>1.2076235983580291E-4</v>
+        <v>2.6759855927600216E-4</v>
       </c>
       <c r="V93" s="2">
         <f t="shared" si="19"/>
-        <v>1.9067290662797977E-4</v>
+        <v>4.217867711136244E-4</v>
       </c>
       <c r="W93" s="6">
         <f t="shared" si="20"/>
-        <v>3.1143526646378267E-4</v>
+        <v>6.8938533038962651E-4</v>
       </c>
       <c r="X93" s="2">
         <f t="shared" si="21"/>
-        <v>5.0684989590595879E-6</v>
+        <v>1.3059727945596395E-5</v>
       </c>
       <c r="Y93" s="2">
         <f t="shared" si="22"/>
-        <v>1.0136997918119176E-5</v>
+        <v>2.611945589119279E-5</v>
       </c>
       <c r="Z93" s="2">
         <f t="shared" si="23"/>
-        <v>1.0211309951517774E-5</v>
+        <v>2.0740090471372925E-5</v>
       </c>
       <c r="AA93" s="2">
         <f t="shared" si="24"/>
-        <v>2.0422619903035549E-5</v>
+        <v>4.1480180942745849E-5</v>
       </c>
       <c r="AB93" s="2">
         <f t="shared" si="25"/>
-        <v>1.9662056221111807E-3</v>
+        <v>2.9234840278614472E-3</v>
       </c>
       <c r="AC93" s="2">
         <f t="shared" si="26"/>
-        <v>1.9805222184168347E-3</v>
+        <v>2.9447987628943044E-3</v>
       </c>
       <c r="AD93" s="2">
         <f t="shared" si="27"/>
-        <v>2.4692464296389095E-3</v>
+        <v>3.6657946337296564E-3</v>
       </c>
       <c r="AE93" s="2">
         <f t="shared" si="28"/>
-        <v>2.4872258331737037E-3</v>
+        <v>3.6925214571219404E-3</v>
       </c>
     </row>
     <row r="94" spans="1:31" x14ac:dyDescent="0.3">
@@ -11423,111 +11423,111 @@
       </c>
       <c r="E94" s="2">
         <f t="shared" si="2"/>
-        <v>0.14490519286599865</v>
+        <v>0.14502406970581136</v>
       </c>
       <c r="F94" s="2">
         <f t="shared" si="3"/>
-        <v>0.18981038573199713</v>
+        <v>0.19004813941162274</v>
       </c>
       <c r="G94" s="2">
         <f t="shared" si="4"/>
-        <v>0.24393148220345068</v>
+        <v>0.24412761074366676</v>
       </c>
       <c r="H94" s="2">
         <f t="shared" si="5"/>
-        <v>0.28786296440690134</v>
+        <v>0.28825522148733351</v>
       </c>
       <c r="I94" s="2">
         <f t="shared" si="6"/>
-        <v>2.6226298216499647E-2</v>
+        <v>2.6256017426452845E-2</v>
       </c>
       <c r="J94" s="2">
         <f t="shared" si="7"/>
-        <v>0.50655619876874669</v>
+        <v>0.50656362729234417</v>
       </c>
       <c r="K94" s="2">
         <f t="shared" si="8"/>
-        <v>4.0982870550862673E-2</v>
+        <v>4.1031902685916694E-2</v>
       </c>
       <c r="L94" s="2">
         <f t="shared" si="9"/>
-        <v>0.51024428382328235</v>
+        <v>0.51025653670519422</v>
       </c>
       <c r="M94" s="2">
         <f t="shared" si="10"/>
-        <v>3.5435474014037502E-2</v>
+        <v>6.4868421292871695E-2</v>
       </c>
       <c r="N94" s="2">
         <f t="shared" si="11"/>
-        <v>8.275962228695409E-2</v>
+        <v>0.11240710017729734</v>
       </c>
       <c r="O94" s="2">
         <f t="shared" si="12"/>
-        <v>5.0945602744325601E-2</v>
+        <v>8.7868787667390286E-2</v>
       </c>
       <c r="P94" s="2">
         <f t="shared" si="13"/>
-        <v>9.7649829244119302E-2</v>
+        <v>0.13484213421077709</v>
       </c>
       <c r="Q94" s="2">
         <f t="shared" si="14"/>
-        <v>6.0177683221411787E-2</v>
+        <v>9.021644042438659E-2</v>
       </c>
       <c r="R94" s="2">
         <f t="shared" si="15"/>
-        <v>0.51503988235164622</v>
+        <v>0.52253882520967532</v>
       </c>
       <c r="S94" s="2">
         <f t="shared" si="16"/>
-        <v>7.5632078058279678E-2</v>
+        <v>0.11331521221090213</v>
       </c>
       <c r="T94" s="2">
         <f t="shared" si="17"/>
-        <v>0.51889901151183682</v>
+        <v>0.52829852930905419</v>
       </c>
       <c r="U94" s="2">
         <f t="shared" si="18"/>
-        <v>1.1309903057567967E-4</v>
+        <v>2.539993209161478E-4</v>
       </c>
       <c r="V94" s="2">
         <f t="shared" si="19"/>
-        <v>1.7858631806227026E-4</v>
+        <v>4.0040338052769943E-4</v>
       </c>
       <c r="W94" s="6">
         <f t="shared" si="20"/>
-        <v>2.9168534863794991E-4</v>
+        <v>6.5440270144384723E-4</v>
       </c>
       <c r="X94" s="2">
         <f t="shared" si="21"/>
-        <v>4.6676633091321837E-6</v>
+        <v>1.2303128157388402E-5</v>
       </c>
       <c r="Y94" s="2">
         <f t="shared" si="22"/>
-        <v>9.3353266182643675E-6</v>
+        <v>2.4606256314776805E-5</v>
       </c>
       <c r="Z94" s="2">
         <f t="shared" si="23"/>
-        <v>9.6433960903241772E-6</v>
+        <v>1.9784049443424221E-5</v>
       </c>
       <c r="AA94" s="2">
         <f t="shared" si="24"/>
-        <v>1.9286792180648354E-5</v>
+        <v>3.9568098886848442E-5</v>
       </c>
       <c r="AB94" s="2">
         <f t="shared" si="25"/>
-        <v>1.9029131082435675E-3</v>
+        <v>2.8485372654680039E-3</v>
       </c>
       <c r="AC94" s="2">
         <f t="shared" si="26"/>
-        <v>1.9167676527376465E-3</v>
+        <v>2.8693034427332937E-3</v>
       </c>
       <c r="AD94" s="2">
         <f t="shared" si="27"/>
-        <v>2.3899334973828661E-3</v>
+        <v>3.5722718440109442E-3</v>
       </c>
       <c r="AE94" s="2">
         <f t="shared" si="28"/>
-        <v>2.4073338925107044E-3</v>
+        <v>3.5983141328908637E-3</v>
       </c>
     </row>
     <row r="95" spans="1:31" x14ac:dyDescent="0.3">
@@ -11545,111 +11545,111 @@
       </c>
       <c r="E95" s="2">
         <f t="shared" si="2"/>
-        <v>0.14490052520268951</v>
+        <v>0.14501422720328544</v>
       </c>
       <c r="F95" s="2">
         <f t="shared" si="3"/>
-        <v>0.18980105040537887</v>
+        <v>0.19002845440657093</v>
       </c>
       <c r="G95" s="2">
         <f t="shared" si="4"/>
-        <v>0.24392183880736035</v>
+        <v>0.24411178350411203</v>
       </c>
       <c r="H95" s="2">
         <f t="shared" si="5"/>
-        <v>0.28784367761472068</v>
+        <v>0.28822356700822405</v>
       </c>
       <c r="I95" s="2">
         <f t="shared" si="6"/>
-        <v>2.6225131300672364E-2</v>
+        <v>2.6253556800821368E-2</v>
       </c>
       <c r="J95" s="2">
         <f t="shared" si="7"/>
-        <v>0.50655590708994602</v>
+        <v>0.50656301224193301</v>
       </c>
       <c r="K95" s="2">
         <f t="shared" si="8"/>
-        <v>4.098045970184009E-2</v>
+        <v>4.102794587602801E-2</v>
       </c>
       <c r="L95" s="2">
         <f t="shared" si="9"/>
-        <v>0.51024368136401921</v>
+        <v>0.51025554791892458</v>
       </c>
       <c r="M95" s="2">
         <f t="shared" si="10"/>
-        <v>3.3532560905793936E-2</v>
+        <v>6.2589591480497295E-2</v>
       </c>
       <c r="N95" s="2">
         <f t="shared" si="11"/>
-        <v>8.0842854634216449E-2</v>
+        <v>0.1101116574231107</v>
       </c>
       <c r="O95" s="2">
         <f t="shared" si="12"/>
-        <v>4.8555669246942733E-2</v>
+        <v>8.5010970192181526E-2</v>
       </c>
       <c r="P95" s="2">
         <f t="shared" si="13"/>
-        <v>9.52424953516086E-2</v>
+        <v>0.13196348290446441</v>
       </c>
       <c r="Q95" s="2">
         <f t="shared" si="14"/>
-        <v>5.8235672567222174E-2</v>
+        <v>8.7890656086043017E-2</v>
       </c>
       <c r="R95" s="2">
         <f t="shared" si="15"/>
-        <v>0.51455480495164307</v>
+        <v>0.52195853046264562</v>
       </c>
       <c r="S95" s="2">
         <f t="shared" si="16"/>
-        <v>7.3193042530244723E-2</v>
+        <v>0.11039851240886778</v>
       </c>
       <c r="T95" s="2">
         <f t="shared" si="17"/>
-        <v>0.51829009602026255</v>
+        <v>0.52757163058979062</v>
       </c>
       <c r="U95" s="2">
         <f t="shared" si="18"/>
-        <v>1.0592117359018688E-4</v>
+        <v>2.4108853003946784E-4</v>
       </c>
       <c r="V95" s="2">
         <f t="shared" si="19"/>
-        <v>1.6726380621521193E-4</v>
+        <v>3.8009740668993892E-4</v>
       </c>
       <c r="W95" s="6">
         <f t="shared" si="20"/>
-        <v>2.7318497980539881E-4</v>
+        <v>6.2118593672940673E-4</v>
       </c>
       <c r="X95" s="2">
         <f t="shared" si="21"/>
-        <v>4.2947171820711978E-6</v>
+        <v>1.1587029837436771E-5</v>
       </c>
       <c r="Y95" s="2">
         <f t="shared" si="22"/>
-        <v>8.5894343641423956E-6</v>
+        <v>2.3174059674873541E-5</v>
       </c>
       <c r="Z95" s="2">
         <f t="shared" si="23"/>
-        <v>9.1088035181174921E-6</v>
+        <v>1.887365847031455E-5</v>
       </c>
       <c r="AA95" s="2">
         <f t="shared" si="24"/>
-        <v>1.8217607036234984E-5</v>
+        <v>3.7747316940629099E-5</v>
       </c>
       <c r="AB95" s="2">
         <f t="shared" si="25"/>
-        <v>1.8416437301913859E-3</v>
+        <v>2.775481395544838E-3</v>
       </c>
       <c r="AC95" s="2">
         <f t="shared" si="26"/>
-        <v>1.8550510684045044E-3</v>
+        <v>2.7957129636344974E-3</v>
       </c>
       <c r="AD95" s="2">
         <f t="shared" si="27"/>
-        <v>2.3131396614063061E-3</v>
+        <v>3.4810745962177828E-3</v>
       </c>
       <c r="AE95" s="2">
         <f t="shared" si="28"/>
-        <v>2.3299795339974234E-3</v>
+        <v>3.5064495087758756E-3</v>
       </c>
     </row>
     <row r="96" spans="1:31" x14ac:dyDescent="0.3">
@@ -11667,111 +11667,111 @@
       </c>
       <c r="E96" s="2">
         <f t="shared" si="2"/>
-        <v>0.14489623048550743</v>
+        <v>0.14500495757941548</v>
       </c>
       <c r="F96" s="2">
         <f t="shared" si="3"/>
-        <v>0.18979246097101474</v>
+        <v>0.19000991515883103</v>
       </c>
       <c r="G96" s="2">
         <f t="shared" si="4"/>
-        <v>0.24391273000384223</v>
+        <v>0.24409668457733577</v>
       </c>
       <c r="H96" s="2">
         <f t="shared" si="5"/>
-        <v>0.28782546000768444</v>
+        <v>0.28819336915467153</v>
       </c>
       <c r="I96" s="2">
         <f t="shared" si="6"/>
-        <v>2.6224057621376848E-2</v>
+        <v>2.6251239394853881E-2</v>
       </c>
       <c r="J96" s="2">
         <f t="shared" si="7"/>
-        <v>0.50655563871626685</v>
+        <v>0.50656243299025028</v>
       </c>
       <c r="K96" s="2">
         <f t="shared" si="8"/>
-        <v>4.097818250096056E-2</v>
+        <v>4.1024171144333946E-2</v>
       </c>
       <c r="L96" s="2">
         <f t="shared" si="9"/>
-        <v>0.51024311230273955</v>
+        <v>0.51025460463297667</v>
       </c>
       <c r="M96" s="2">
         <f t="shared" si="10"/>
-        <v>3.1690917175602552E-2</v>
+        <v>6.0369206364061422E-2</v>
       </c>
       <c r="N96" s="2">
         <f t="shared" si="11"/>
-        <v>7.8987803565811948E-2</v>
+        <v>0.1078750870522031</v>
       </c>
       <c r="O96" s="2">
         <f t="shared" si="12"/>
-        <v>4.6242529585536429E-2</v>
+        <v>8.2226110515207299E-2</v>
       </c>
       <c r="P96" s="2">
         <f t="shared" si="13"/>
-        <v>9.2912515817611174E-2</v>
+        <v>0.1291583232974437</v>
       </c>
       <c r="Q96" s="2">
         <f t="shared" si="14"/>
-        <v>5.6356195516768973E-2</v>
+        <v>8.5624531947039284E-2</v>
       </c>
       <c r="R96" s="2">
         <f t="shared" si="15"/>
-        <v>0.51408532113713357</v>
+        <v>0.52139306420492881</v>
       </c>
       <c r="S96" s="2">
         <f t="shared" si="16"/>
-        <v>7.0832385352712718E-2</v>
+        <v>0.10755628778710394</v>
       </c>
       <c r="T96" s="2">
         <f t="shared" si="17"/>
-        <v>0.51770069625629611</v>
+        <v>0.52686318003812238</v>
       </c>
       <c r="U96" s="2">
         <f t="shared" si="18"/>
-        <v>9.9198135768090815E-5</v>
+        <v>2.2883159803810323E-4</v>
       </c>
       <c r="V96" s="2">
         <f t="shared" si="19"/>
-        <v>1.5665732397882759E-4</v>
+        <v>3.6081522088028835E-4</v>
       </c>
       <c r="W96" s="6">
         <f t="shared" si="20"/>
-        <v>2.5585545974691841E-4</v>
+        <v>5.8964681891839153E-4</v>
       </c>
       <c r="X96" s="2">
         <f t="shared" si="21"/>
-        <v>3.9478264001322555E-6</v>
+        <v>1.0909360891655019E-5</v>
       </c>
       <c r="Y96" s="2">
         <f t="shared" si="22"/>
-        <v>7.895652800264511E-6</v>
+        <v>2.1818721783310038E-5</v>
       </c>
       <c r="Z96" s="2">
         <f t="shared" si="23"/>
-        <v>8.6055227606200311E-6</v>
+        <v>1.8006716742855215E-5</v>
       </c>
       <c r="AA96" s="2">
         <f t="shared" si="24"/>
-        <v>1.7211045521240062E-5</v>
+        <v>3.601343348571043E-5</v>
       </c>
       <c r="AB96" s="2">
         <f t="shared" si="25"/>
-        <v>1.7823341541178153E-3</v>
+        <v>2.7042710025344482E-3</v>
       </c>
       <c r="AC96" s="2">
         <f t="shared" si="26"/>
-        <v>1.7953086619768798E-3</v>
+        <v>2.7239815694054762E-3</v>
       </c>
       <c r="AD96" s="2">
         <f t="shared" si="27"/>
-        <v>2.2387875739153427E-3</v>
+        <v>3.3921496005959637E-3</v>
       </c>
       <c r="AE96" s="2">
         <f t="shared" si="28"/>
-        <v>2.2550848360787992E-3</v>
+        <v>3.4168738946761114E-3</v>
       </c>
     </row>
     <row r="97" spans="1:31" x14ac:dyDescent="0.3">
@@ -11789,111 +11789,111 @@
       </c>
       <c r="E97" s="2">
         <f t="shared" si="2"/>
-        <v>0.14489228265910731</v>
+        <v>0.14499623009070214</v>
       </c>
       <c r="F97" s="2">
         <f t="shared" si="3"/>
-        <v>0.18978456531821447</v>
+        <v>0.18999246018140439</v>
       </c>
       <c r="G97" s="2">
         <f t="shared" si="4"/>
-        <v>0.24390412448108162</v>
+        <v>0.24408227920394149</v>
       </c>
       <c r="H97" s="2">
         <f t="shared" si="5"/>
-        <v>0.28780824896216323</v>
+        <v>0.28816455840788296</v>
       </c>
       <c r="I97" s="2">
         <f t="shared" si="6"/>
-        <v>2.6223070664776815E-2</v>
+        <v>2.6249057522675548E-2</v>
       </c>
       <c r="J97" s="2">
         <f t="shared" si="7"/>
-        <v>0.50655539201953115</v>
+        <v>0.50656188761616139</v>
       </c>
       <c r="K97" s="2">
         <f t="shared" si="8"/>
-        <v>4.0976031120270401E-2</v>
+        <v>4.1020569800985375E-2</v>
       </c>
       <c r="L97" s="2">
         <f t="shared" si="9"/>
-        <v>0.51024257468328105</v>
+        <v>0.51025370467581255</v>
       </c>
       <c r="M97" s="2">
         <f t="shared" si="10"/>
-        <v>2.9908583021484737E-2</v>
+        <v>5.8205789562033865E-2</v>
       </c>
       <c r="N97" s="2">
         <f t="shared" si="11"/>
-        <v>7.7192494903835063E-2</v>
+        <v>0.10569590179667872</v>
       </c>
       <c r="O97" s="2">
         <f t="shared" si="12"/>
-        <v>4.4003742011621085E-2</v>
+        <v>7.9512390834730523E-2</v>
       </c>
       <c r="P97" s="2">
         <f t="shared" si="13"/>
-        <v>9.065743098153238E-2</v>
+        <v>0.12642482418170281</v>
       </c>
       <c r="Q97" s="2">
         <f t="shared" si="14"/>
-        <v>5.4537251343155749E-2</v>
+        <v>8.3416560091539124E-2</v>
       </c>
       <c r="R97" s="2">
         <f t="shared" si="15"/>
-        <v>0.51363093444917829</v>
+        <v>0.52084205594533206</v>
       </c>
       <c r="S97" s="2">
         <f t="shared" si="16"/>
-        <v>6.8547613783211961E-2</v>
+        <v>0.10478668169181718</v>
       </c>
       <c r="T97" s="2">
         <f t="shared" si="17"/>
-        <v>0.51713019639231417</v>
+        <v>0.52617272621766775</v>
       </c>
       <c r="U97" s="2">
         <f t="shared" si="18"/>
-        <v>9.2901186978897708E-5</v>
+        <v>2.1719564801417576E-4</v>
       </c>
       <c r="V97" s="2">
         <f t="shared" si="19"/>
-        <v>1.4672181421962666E-4</v>
+        <v>3.4250579883249646E-4</v>
       </c>
       <c r="W97" s="6">
         <f t="shared" si="20"/>
-        <v>2.3962300119852436E-4</v>
+        <v>5.597014468466722E-4</v>
       </c>
       <c r="X97" s="2">
         <f t="shared" si="21"/>
-        <v>3.6252733021709331E-6</v>
+        <v>1.0268150797935593E-5</v>
       </c>
       <c r="Y97" s="2">
         <f t="shared" si="22"/>
-        <v>7.2505466043418663E-6</v>
+        <v>2.0536301595871186E-5</v>
       </c>
       <c r="Z97" s="2">
         <f t="shared" si="23"/>
-        <v>8.1316662918863838E-6</v>
+        <v>1.7181127827722996E-5</v>
       </c>
       <c r="AA97" s="2">
         <f t="shared" si="24"/>
-        <v>1.6263332583772768E-5</v>
+        <v>3.4362255655445992E-5</v>
       </c>
       <c r="AB97" s="2">
         <f t="shared" si="25"/>
-        <v>1.7249229033050293E-3</v>
+        <v>2.6348615877640593E-3</v>
       </c>
       <c r="AC97" s="2">
         <f t="shared" si="26"/>
-        <v>1.7374785012229887E-3</v>
+        <v>2.6540644279250182E-3</v>
       </c>
       <c r="AD97" s="2">
         <f t="shared" si="27"/>
-        <v>2.1668020114303755E-3</v>
+        <v>3.3054444431237615E-3</v>
       </c>
       <c r="AE97" s="2">
         <f t="shared" si="28"/>
-        <v>2.1825740176871292E-3</v>
+        <v>3.329534483221883E-3</v>
       </c>
     </row>
     <row r="98" spans="1:31" x14ac:dyDescent="0.3">
@@ -11911,111 +11911,111 @@
       </c>
       <c r="E98" s="2">
         <f t="shared" si="2"/>
-        <v>0.14488865738580514</v>
+        <v>0.1449880155700638</v>
       </c>
       <c r="F98" s="2">
         <f t="shared" si="3"/>
-        <v>0.18977731477161014</v>
+        <v>0.1899760311401277</v>
       </c>
       <c r="G98" s="2">
         <f t="shared" si="4"/>
-        <v>0.24389599281478974</v>
+        <v>0.2440685343016793</v>
       </c>
       <c r="H98" s="2">
         <f t="shared" si="5"/>
-        <v>0.28779198562957947</v>
+        <v>0.28813706860335858</v>
       </c>
       <c r="I98" s="2">
         <f t="shared" si="6"/>
-        <v>2.6222164346451273E-2</v>
+        <v>2.6247003892515962E-2</v>
       </c>
       <c r="J98" s="2">
         <f t="shared" si="7"/>
-        <v>0.50655516547889579</v>
+        <v>0.50656137429704051</v>
       </c>
       <c r="K98" s="2">
         <f t="shared" si="8"/>
-        <v>4.0973998203697438E-2</v>
+        <v>4.1017133575419827E-2</v>
       </c>
       <c r="L98" s="2">
         <f t="shared" si="9"/>
-        <v>0.51024206666740113</v>
+        <v>0.51025284598067033</v>
       </c>
       <c r="M98" s="2">
         <f t="shared" si="10"/>
-        <v>2.8183660118179708E-2</v>
+        <v>5.6097900291822614E-2</v>
       </c>
       <c r="N98" s="2">
         <f t="shared" si="11"/>
-        <v>7.5455016402612068E-2</v>
+        <v>0.10357265025433871</v>
       </c>
       <c r="O98" s="2">
         <f t="shared" si="12"/>
-        <v>4.1836940000190712E-2</v>
+        <v>7.686803528023152E-2</v>
       </c>
       <c r="P98" s="2">
         <f t="shared" si="13"/>
-        <v>8.8474856963845244E-2</v>
+        <v>0.1237611965951253</v>
       </c>
       <c r="Q98" s="2">
         <f t="shared" si="14"/>
-        <v>5.277690212465691E-2</v>
+        <v>8.1265269025040929E-2</v>
       </c>
       <c r="R98" s="2">
         <f t="shared" si="15"/>
-        <v>0.51319116378279472</v>
+        <v>0.5203051438141878</v>
       </c>
       <c r="S98" s="2">
         <f t="shared" si="16"/>
-        <v>6.6336311930262348E-2</v>
+        <v>0.1020878803757034</v>
       </c>
       <c r="T98" s="2">
         <f t="shared" si="17"/>
-        <v>0.51657799912927826</v>
+        <v>0.52549982747706936</v>
       </c>
       <c r="U98" s="2">
         <f t="shared" si="18"/>
-        <v>8.7003400972257601E-5</v>
+        <v>2.0614943265742452E-4</v>
       </c>
       <c r="V98" s="2">
         <f t="shared" si="19"/>
-        <v>1.3741502756517545E-4</v>
+        <v>3.2512060068015072E-4</v>
       </c>
       <c r="W98" s="6">
         <f t="shared" si="20"/>
-        <v>2.2441842853743307E-4</v>
+        <v>5.3127003333757524E-4</v>
       </c>
       <c r="X98" s="2">
         <f t="shared" si="21"/>
-        <v>3.3254495935353284E-6</v>
+        <v>9.6615259511738598E-6</v>
       </c>
       <c r="Y98" s="2">
         <f t="shared" si="22"/>
-        <v>6.6508991870706568E-6</v>
+        <v>1.932305190234772E-5</v>
       </c>
       <c r="Z98" s="2">
         <f t="shared" si="23"/>
-        <v>7.6854612439041175E-6</v>
+        <v>1.6394894988683854E-5</v>
       </c>
       <c r="AA98" s="2">
         <f t="shared" si="24"/>
-        <v>1.5370922487808235E-5</v>
+        <v>3.2789789977367708E-5</v>
       </c>
       <c r="AB98" s="2">
         <f t="shared" si="25"/>
-        <v>1.6693503156876553E-3</v>
+        <v>2.5672095646431898E-3</v>
       </c>
       <c r="AC98" s="2">
         <f t="shared" si="26"/>
-        <v>1.6815004823079519E-3</v>
+        <v>2.5859176262812782E-3</v>
       </c>
       <c r="AD98" s="2">
         <f t="shared" si="27"/>
-        <v>2.0971098406508885E-3</v>
+        <v>3.2209075991543124E-3</v>
       </c>
       <c r="AE98" s="2">
         <f t="shared" si="28"/>
-        <v>2.112373403814068E-3</v>
+        <v>3.2443793634876392E-3</v>
       </c>
     </row>
     <row r="99" spans="1:31" x14ac:dyDescent="0.3">
@@ -12033,111 +12033,111 @@
       </c>
       <c r="E99" s="2">
         <f t="shared" ref="E99:E100" si="29">E98-$G$31*X98</f>
-        <v>0.14488533193621161</v>
+        <v>0.14498028634930285</v>
       </c>
       <c r="F99" s="2">
         <f t="shared" ref="F99:F100" si="30">F98-$G$31*Y98</f>
-        <v>0.18977066387242306</v>
+        <v>0.18996057269860583</v>
       </c>
       <c r="G99" s="2">
         <f t="shared" ref="G99:G100" si="31">G98-$G$31*Z98</f>
-        <v>0.24388830735354583</v>
+        <v>0.24405541838568834</v>
       </c>
       <c r="H99" s="2">
         <f t="shared" ref="H99:H100" si="32">H98-$G$31*AA98</f>
-        <v>0.28777661470709165</v>
+        <v>0.28811083677137667</v>
       </c>
       <c r="I99" s="2">
         <f t="shared" ref="I99:I100" si="33">E99*C99+F99*D99</f>
-        <v>2.6221332984052888E-2</v>
+        <v>2.6245071587325728E-2</v>
       </c>
       <c r="J99" s="2">
         <f t="shared" ref="J99:J100" si="34">1/(1+EXP(-I99))</f>
-        <v>0.50655495767401892</v>
+        <v>0.50656089130392579</v>
       </c>
       <c r="K99" s="2">
         <f t="shared" ref="K99:K100" si="35">G99*C99+H99*D99</f>
-        <v>4.0972076838386454E-2</v>
+        <v>4.1013854596422081E-2</v>
       </c>
       <c r="L99" s="2">
         <f t="shared" ref="L99:L100" si="36">1/(1+EXP(-K99))</f>
-        <v>0.51024158652761498</v>
+        <v>0.51025202658058233</v>
       </c>
       <c r="M99" s="2">
         <f t="shared" ref="M99:M100" si="37">M98-$G$31*AB98</f>
-        <v>2.6514309802492052E-2</v>
+        <v>5.4044132640108059E-2</v>
       </c>
       <c r="N99" s="2">
         <f t="shared" ref="N99:N100" si="38">N98-$G$31*AC98</f>
-        <v>7.3773515920304122E-2</v>
+        <v>0.10150391615331368</v>
       </c>
       <c r="O99" s="2">
         <f t="shared" ref="O99:O100" si="39">O98-$G$31*AD98</f>
-        <v>3.9739830159539823E-2</v>
+        <v>7.4291309200908068E-2</v>
       </c>
       <c r="P99" s="2">
         <f t="shared" ref="P99:P100" si="40">P98-$G$31*AE98</f>
-        <v>8.6362483560031178E-2</v>
+        <v>0.12116569310433518</v>
       </c>
       <c r="Q99" s="2">
         <f t="shared" ref="Q99:Q100" si="41">M99*J99+N99*L99</f>
-        <v>5.1073270886653428E-2</v>
+        <v>7.9169222923014537E-2</v>
       </c>
       <c r="R99" s="2">
         <f t="shared" ref="R99:R100" si="42">1/(1+EXP(-Q99))</f>
-        <v>0.51276554295473409</v>
+        <v>0.51978197441129148</v>
       </c>
       <c r="S99" s="2">
         <f t="shared" ref="S99:S100" si="43">O99*J99+P99*L99</f>
-        <v>6.4196138612573769E-2</v>
+        <v>9.9458112263475451E-2</v>
       </c>
       <c r="T99" s="2">
         <f t="shared" ref="T99:T100" si="44">1/(1+EXP(-S99))</f>
-        <v>0.51604352522479047</v>
+        <v>0.52484405183509852</v>
       </c>
       <c r="U99" s="2">
         <f t="shared" ref="U99:U100" si="45">1/2*(A99-R99)^2</f>
-        <v>8.1479543464580559E-5</v>
+        <v>1.9566325580449545E-4</v>
       </c>
       <c r="V99" s="2">
         <f t="shared" ref="V99:V100" si="46">1/2*(B99-T99)^2</f>
-        <v>1.2869735081924401E-4</v>
+        <v>3.0861345579253117E-4</v>
       </c>
       <c r="W99" s="6">
         <f t="shared" ref="W99:W100" si="47">U99+V99</f>
-        <v>2.1017689428382458E-4</v>
+        <v>5.0427671159702665E-4</v>
       </c>
       <c r="X99" s="2">
         <f t="shared" ref="X99:X100" si="48">((R99-A99)*R99*(1-R99)*M99 + (T99-B99)*T99*(1-T99)*O99)*J99*(1-J99)*C99</f>
-        <v>3.0468496110934204E-6</v>
+        <v>9.0877051916605334E-6</v>
       </c>
       <c r="Y99" s="2">
         <f t="shared" ref="Y99:Y100" si="49">((R99-A99)*R99*(1-R99)*M99 + (T99-B99)*T99*(1-T99)*O99)*J99*(1-J99)*D99</f>
-        <v>6.0936992221868408E-6</v>
+        <v>1.8175410383321067E-5</v>
       </c>
       <c r="Z99" s="2">
         <f t="shared" ref="Z99:Z100" si="50">((R99-A99)*R99*(1-R99)*N99 + (T99-B99)*T99*(1-T99)*P99)*J99*(1-J99)*C99</f>
-        <v>7.2652425317362856E-6</v>
+        <v>1.5646116687761195E-5</v>
       </c>
       <c r="AA99" s="2">
         <f t="shared" ref="AA99:AA100" si="51">((R99-A99)*R99*(1-R99)*N99 + (T99-B99)*T99*(1-T99)*P99)*J99*(1-J99)*D99</f>
-        <v>1.4530485063472571E-5</v>
+        <v>3.1292233375522389E-5</v>
       </c>
       <c r="AB99" s="2">
         <f t="shared" ref="AB99:AB100" si="52">(R99-A99)*R99*(1-R99)*J99</f>
-        <v>1.6155585011439952E-3</v>
+        <v>2.5012722526200734E-3</v>
       </c>
       <c r="AC99" s="2">
         <f t="shared" ref="AC99:AC100" si="53">(R99-A99)*R99*(1-R99)*L99</f>
-        <v>1.6273162867401292E-3</v>
+        <v>2.5194981646607818E-3</v>
       </c>
       <c r="AD99" s="2">
         <f t="shared" ref="AD99:AD100" si="54">(T99-B99)*T99*(1-T99)*J99</f>
-        <v>2.0296399822839649E-3</v>
+        <v>3.1384884441587172E-3</v>
       </c>
       <c r="AE99" s="2">
         <f t="shared" ref="AE99:AE100" si="55">(T99-B99)*T99*(1-T99)*L99</f>
-        <v>2.0444113890340995E-3</v>
+        <v>3.1613575317856629E-3</v>
       </c>
     </row>
     <row r="100" spans="1:31" x14ac:dyDescent="0.3">
@@ -12155,111 +12155,111 @@
       </c>
       <c r="E100" s="2">
         <f t="shared" si="29"/>
-        <v>0.14488228508660053</v>
+        <v>0.14497301618514952</v>
       </c>
       <c r="F100" s="2">
         <f t="shared" si="30"/>
-        <v>0.18976457017320086</v>
+        <v>0.18994603237029917</v>
       </c>
       <c r="G100" s="2">
         <f t="shared" si="31"/>
-        <v>0.24388104211101411</v>
+        <v>0.24404290149233812</v>
       </c>
       <c r="H100" s="2">
         <f t="shared" si="32"/>
-        <v>0.2877620842220282</v>
+        <v>0.28808580298467623</v>
       </c>
       <c r="I100" s="2">
         <f t="shared" si="33"/>
-        <v>2.6220571271650117E-2</v>
+        <v>2.6243254046287395E-2</v>
       </c>
       <c r="J100" s="2">
         <f t="shared" si="34"/>
-        <v>0.50655476727864601</v>
+        <v>0.50656043699689735</v>
       </c>
       <c r="K100" s="2">
         <f t="shared" si="35"/>
-        <v>4.097026052775353E-2</v>
+        <v>4.1010725373084533E-2</v>
       </c>
       <c r="L100" s="2">
         <f t="shared" si="36"/>
-        <v>0.51024113264046134</v>
+        <v>0.51025124460361704</v>
       </c>
       <c r="M100" s="2">
         <f t="shared" si="37"/>
-        <v>2.4898751301348058E-2</v>
+        <v>5.2043114838012001E-2</v>
       </c>
       <c r="N100" s="2">
         <f t="shared" si="38"/>
-        <v>7.2146199633563987E-2</v>
+        <v>9.9488317621585054E-2</v>
       </c>
       <c r="O100" s="2">
         <f t="shared" si="39"/>
-        <v>3.771019017725586E-2</v>
+        <v>7.1780518445581087E-2</v>
       </c>
       <c r="P100" s="2">
         <f t="shared" si="40"/>
-        <v>8.4318072170997072E-2</v>
+        <v>0.11863660707890665</v>
       </c>
       <c r="Q100" s="2">
         <f t="shared" si="41"/>
-        <v>4.9424539787717769E-2</v>
+        <v>7.7127020884956807E-2</v>
       </c>
       <c r="R100" s="2">
         <f t="shared" si="42"/>
-        <v>0.51235362027931086</v>
+        <v>0.51927220265258589</v>
       </c>
       <c r="S100" s="2">
         <f t="shared" si="43"/>
-        <v>6.2124825255863034E-2</v>
+        <v>9.689564720921981E-2</v>
       </c>
       <c r="T100" s="2">
         <f t="shared" si="44"/>
-        <v>0.5155262130247612</v>
+        <v>0.52420497685881817</v>
       </c>
       <c r="U100" s="2">
         <f t="shared" si="45"/>
-        <v>7.6305967002700294E-5</v>
+        <v>1.8570889754116932E-4</v>
       </c>
       <c r="V100" s="2">
         <f t="shared" si="46"/>
-        <v>1.2053164544513223E-4</v>
+        <v>2.9294045236796161E-4</v>
       </c>
       <c r="W100" s="6">
         <f t="shared" si="47"/>
-        <v>1.9683761244783252E-4</v>
+        <v>4.786493499091309E-4</v>
       </c>
       <c r="X100" s="2">
         <f t="shared" si="48"/>
-        <v>2.7880639820461688E-6</v>
+        <v>8.544995512713517E-6</v>
       </c>
       <c r="Y100" s="2">
         <f t="shared" si="49"/>
-        <v>5.5761279640923377E-6</v>
+        <v>1.7089991025427034E-5</v>
       </c>
       <c r="Z100" s="2">
         <f t="shared" si="50"/>
-        <v>6.8694463732771155E-6</v>
+        <v>1.4932982262617952E-5</v>
       </c>
       <c r="AA100" s="2">
         <f t="shared" si="51"/>
-        <v>1.3738892746554231E-5</v>
+        <v>2.9865964525235905E-5</v>
       </c>
       <c r="AB100" s="2">
         <f t="shared" si="52"/>
-        <v>1.563491298699842E-3</v>
+        <v>2.4370078700248834E-3</v>
       </c>
       <c r="AC100" s="2">
         <f t="shared" si="53"/>
-        <v>1.5748693382314615E-3</v>
+        <v>2.4547639491171373E-3</v>
       </c>
       <c r="AD100" s="2">
         <f t="shared" si="54"/>
-        <v>1.9643233731827274E-3</v>
+        <v>3.058137261814605E-3</v>
       </c>
       <c r="AE100" s="2">
         <f t="shared" si="55"/>
-        <v>1.9786183993280872E-3</v>
+        <v>3.0804188997869907E-3</v>
       </c>
     </row>
   </sheetData>
